--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\developer\Desktop\IMI Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nan Wilshere\Desktop\imi-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
   <si>
     <t>Table Name</t>
   </si>
@@ -138,6 +138,9 @@
   </si>
   <si>
     <t>NULL</t>
+  </si>
+  <si>
+    <t>customers</t>
   </si>
 </sst>
 </file>
@@ -471,10 +474,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L21"/>
+  <dimension ref="A1:L23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -750,7 +753,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -767,7 +770,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -787,7 +790,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -807,7 +810,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -824,7 +827,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -839,6 +842,11 @@
       </c>
       <c r="H21" t="s">
         <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
   <si>
     <t>Table Name</t>
   </si>
@@ -140,7 +140,49 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>customers</t>
+    <t>vendors</t>
+  </si>
+  <si>
+    <t>vendor_type_id</t>
+  </si>
+  <si>
+    <t>company_name</t>
+  </si>
+  <si>
+    <t>contact_name</t>
+  </si>
+  <si>
+    <t>cantact_title</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>fax</t>
+  </si>
+  <si>
+    <t>address</t>
+  </si>
+  <si>
+    <t>city</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>postal_code</t>
+  </si>
+  <si>
+    <t>detail</t>
+  </si>
+  <si>
+    <t>varchar(30)</t>
+  </si>
+  <si>
+    <t>country</t>
   </si>
 </sst>
 </file>
@@ -474,10 +516,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -753,7 +795,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
@@ -770,7 +812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>21</v>
       </c>
@@ -790,7 +832,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
@@ -810,7 +852,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
@@ -827,7 +869,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
@@ -844,9 +886,306 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
+      </c>
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23">
+        <v>9999999999</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>14</v>
+      </c>
+      <c r="E24">
+        <v>9999999999</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" t="s">
+        <v>36</v>
+      </c>
+      <c r="J24" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>27</v>
+      </c>
+      <c r="G25" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>51</v>
+      </c>
+      <c r="G28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>51</v>
+      </c>
+      <c r="G29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>26</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>51</v>
+      </c>
+      <c r="G33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>51</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B35" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="G35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B36" t="s">
+        <v>50</v>
+      </c>
+      <c r="D36" t="s">
+        <v>26</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B37" t="s">
+        <v>20</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" t="s">
+        <v>30</v>
+      </c>
+      <c r="G37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>21</v>
+      </c>
+      <c r="D38" t="s">
+        <v>14</v>
+      </c>
+      <c r="E38">
+        <v>9999999999</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G38" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H38" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>22</v>
+      </c>
+      <c r="D39" t="s">
+        <v>14</v>
+      </c>
+      <c r="E39">
+        <v>9999999999</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="D40" t="s">
+        <v>28</v>
+      </c>
+      <c r="E40" t="s">
+        <v>33</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>24</v>
+      </c>
+      <c r="D41" t="s">
+        <v>28</v>
+      </c>
+      <c r="E41" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="G41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H41" t="s">
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nan Wilshere\Desktop\imi-document\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\developer\Desktop\imi-document\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="58">
   <si>
     <t>Table Name</t>
   </si>
@@ -183,6 +183,21 @@
   </si>
   <si>
     <t>country</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>xxxx</t>
+  </si>
+  <si>
+    <t>N/a</t>
+  </si>
+  <si>
+    <t>branch_id</t>
+  </si>
+  <si>
+    <t>Unsigned</t>
   </si>
 </sst>
 </file>
@@ -224,7 +239,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -236,6 +251,12 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,10 +537,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L41"/>
+  <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="66" zoomScaleNormal="66" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -527,15 +548,16 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="36.42578125" customWidth="1"/>
-    <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="36.42578125" customWidth="1"/>
-    <col min="7" max="8" width="18.140625" customWidth="1"/>
-    <col min="9" max="9" width="18.42578125" customWidth="1"/>
-    <col min="10" max="11" width="18.28515625" customWidth="1"/>
+    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="2"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="36.42578125" customWidth="1"/>
+    <col min="8" max="9" width="18.140625" customWidth="1"/>
+    <col min="10" max="10" width="18.42578125" customWidth="1"/>
+    <col min="11" max="12" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -548,32 +570,35 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>8</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>9</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -583,142 +608,151 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
         <v>9999999999</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J3" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>18</v>
       </c>
       <c r="D4" t="s">
         <v>27</v>
       </c>
-      <c r="E4" t="s">
-        <v>29</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>19</v>
       </c>
       <c r="D5" t="s">
         <v>26</v>
       </c>
-      <c r="E5" t="s">
-        <v>29</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="D6" t="s">
         <v>25</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
         <v>9999999999</v>
       </c>
-      <c r="F7" s="1" t="s">
+      <c r="G7" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I7" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="D8" t="s">
         <v>14</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
         <v>9999999999</v>
       </c>
-      <c r="F8" s="1" t="s">
+      <c r="G8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H8" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H8" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="D9" t="s">
         <v>28</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="H9" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="F10" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H10" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -728,165 +762,177 @@
       <c r="D13" t="s">
         <v>14</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
         <v>9999999999</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="G13" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>35</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
         <v>9999999999</v>
       </c>
-      <c r="F14" s="1" t="s">
+      <c r="G14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="H14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
         <v>36</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>18</v>
       </c>
       <c r="D15" t="s">
         <v>27</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>19</v>
       </c>
       <c r="D16" t="s">
         <v>26</v>
       </c>
-      <c r="E16" t="s">
-        <v>29</v>
-      </c>
-      <c r="G16" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F16" t="s">
+        <v>53</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>20</v>
       </c>
       <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>21</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
       </c>
-      <c r="E18">
+      <c r="E18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18">
         <v>9999999999</v>
       </c>
-      <c r="F18" s="1" t="s">
+      <c r="G18" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H18" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I18" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>22</v>
       </c>
       <c r="D19" t="s">
         <v>14</v>
       </c>
-      <c r="E19">
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
         <v>9999999999</v>
       </c>
-      <c r="F19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H19" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>23</v>
       </c>
       <c r="D20" t="s">
         <v>28</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>33</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="H20" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I20" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
         <v>24</v>
       </c>
       <c r="D21" t="s">
         <v>28</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="F21" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I21" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>38</v>
       </c>
@@ -896,295 +942,369 @@
       <c r="D23" t="s">
         <v>14</v>
       </c>
-      <c r="E23">
+      <c r="E23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23">
         <v>9999999999</v>
       </c>
-      <c r="F23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="H23" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J23" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>39</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
       </c>
-      <c r="E24">
+      <c r="E24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F24">
         <v>9999999999</v>
       </c>
-      <c r="F24" s="1" t="s">
+      <c r="G24" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" t="s">
+      <c r="H24" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
         <v>36</v>
       </c>
-      <c r="J24" t="s">
+      <c r="K24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" t="s">
+        <v>14</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F25">
+        <v>9999999999</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H25" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J25" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>40</v>
-      </c>
-      <c r="D25" t="s">
-        <v>27</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>41</v>
       </c>
       <c r="D26" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F26" t="s">
+        <v>53</v>
+      </c>
+      <c r="H26" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D27" t="s">
         <v>27</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H27" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F27" t="s">
+        <v>53</v>
+      </c>
+      <c r="H27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>27</v>
+      </c>
+      <c r="F28" t="s">
+        <v>53</v>
+      </c>
+      <c r="H28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I28" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>43</v>
-      </c>
-      <c r="D28" t="s">
-        <v>51</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H28" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>44</v>
       </c>
       <c r="D29" t="s">
         <v>51</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H29" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F29" t="s">
+        <v>53</v>
+      </c>
+      <c r="H29" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D30" t="s">
         <v>51</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>53</v>
+      </c>
+      <c r="H30" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+      <c r="F31" t="s">
+        <v>53</v>
+      </c>
+      <c r="H31" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I31" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="D32" t="s">
         <v>51</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="H32" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I32" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D33" t="s">
         <v>51</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F33" t="s">
+        <v>53</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I33" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D34" t="s">
         <v>51</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F34" t="s">
+        <v>53</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I34" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D35" t="s">
         <v>51</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F35" t="s">
+        <v>53</v>
+      </c>
+      <c r="H35" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I35" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="F36" t="s">
+        <v>53</v>
+      </c>
+      <c r="H36" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I36" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
+        <v>50</v>
+      </c>
+      <c r="D37" t="s">
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>53</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I37" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
         <v>20</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D38" t="s">
         <v>25</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F38" t="s">
         <v>30</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="3" t="s">
+      <c r="H38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
         <v>21</v>
-      </c>
-      <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38">
-        <v>9999999999</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="G38" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>22</v>
       </c>
       <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="E39">
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39">
         <v>9999999999</v>
       </c>
-      <c r="F39" s="1" t="s">
+      <c r="G39" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I39" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
+        <v>22</v>
+      </c>
+      <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F40">
+        <v>9999999999</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
         <v>23</v>
-      </c>
-      <c r="D40" t="s">
-        <v>28</v>
-      </c>
-      <c r="E40" t="s">
-        <v>33</v>
-      </c>
-      <c r="G40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B41" t="s">
-        <v>24</v>
       </c>
       <c r="D41" t="s">
         <v>28</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" t="s">
         <v>33</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="H41" t="s">
+      <c r="H41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I41" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>24</v>
+      </c>
+      <c r="D42" t="s">
+        <v>28</v>
+      </c>
+      <c r="F42" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I42" t="s">
         <v>37</v>
       </c>
     </row>

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="63">
   <si>
     <t>Table Name</t>
   </si>
@@ -198,6 +198,21 @@
   </si>
   <si>
     <t>Unsigned</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>min_code</t>
+  </si>
+  <si>
+    <t>max_code</t>
+  </si>
+  <si>
+    <t>enum{'ASSETS','EQUITY','EXPENSES','LIABILITIES','REVENUE'}</t>
   </si>
 </sst>
 </file>
@@ -537,10 +552,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M42"/>
+  <dimension ref="A1:M53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B16" zoomScale="112" zoomScaleNormal="112" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="G57" sqref="G57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,7 +563,7 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="28" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" customWidth="1"/>
@@ -1126,7 +1141,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>47</v>
       </c>
@@ -1143,7 +1158,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>48</v>
       </c>
@@ -1160,7 +1175,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>49</v>
       </c>
@@ -1177,7 +1192,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>46</v>
       </c>
@@ -1194,7 +1209,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>50</v>
       </c>
@@ -1211,7 +1226,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>20</v>
       </c>
@@ -1228,7 +1243,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>21</v>
       </c>
@@ -1251,7 +1266,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>22</v>
       </c>
@@ -1274,7 +1289,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>23</v>
       </c>
@@ -1291,7 +1306,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="42" spans="2:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
         <v>24</v>
       </c>
@@ -1305,6 +1320,185 @@
         <v>31</v>
       </c>
       <c r="I42" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>58</v>
+      </c>
+      <c r="B44" t="s">
+        <v>13</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F44">
+        <v>9999999999</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>18</v>
+      </c>
+      <c r="D45" t="s">
+        <v>27</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>59</v>
+      </c>
+      <c r="D46" t="s">
+        <v>62</v>
+      </c>
+      <c r="F46" t="s">
+        <v>30</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>60</v>
+      </c>
+      <c r="D47" t="s">
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47">
+        <v>9999999999</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H47" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>61</v>
+      </c>
+      <c r="D48" t="s">
+        <v>14</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>9999999999</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H48" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>20</v>
+      </c>
+      <c r="D49" t="s">
+        <v>25</v>
+      </c>
+      <c r="F49" t="s">
+        <v>30</v>
+      </c>
+      <c r="H49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>21</v>
+      </c>
+      <c r="D50" t="s">
+        <v>14</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <v>9999999999</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>22</v>
+      </c>
+      <c r="D51" t="s">
+        <v>14</v>
+      </c>
+      <c r="E51" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F51">
+        <v>9999999999</v>
+      </c>
+      <c r="G51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H51" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I51" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>23</v>
+      </c>
+      <c r="D52" t="s">
+        <v>28</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I52" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>24</v>
+      </c>
+      <c r="D53" t="s">
+        <v>28</v>
+      </c>
+      <c r="H53" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I53" t="s">
         <v>37</v>
       </c>
     </row>

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="64">
   <si>
     <t>Table Name</t>
   </si>
@@ -101,9 +101,6 @@
     <t>updated_at</t>
   </si>
   <si>
-    <t>enum{'ENABLED','DISABLED'}</t>
-  </si>
-  <si>
     <t>varchar(200)</t>
   </si>
   <si>
@@ -122,15 +119,9 @@
     <t>N</t>
   </si>
   <si>
-    <t>ENABLED</t>
-  </si>
-  <si>
     <t>Y-m-d H:i:s</t>
   </si>
   <si>
-    <t>master_type_details</t>
-  </si>
-  <si>
     <t>master_type_id</t>
   </si>
   <si>
@@ -161,15 +152,9 @@
     <t>email</t>
   </si>
   <si>
-    <t>fax</t>
-  </si>
-  <si>
     <t>address</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
     <t>region</t>
   </si>
   <si>
@@ -182,9 +167,6 @@
     <t>varchar(30)</t>
   </si>
   <si>
-    <t>country</t>
-  </si>
-  <si>
     <t>N/A</t>
   </si>
   <si>
@@ -213,6 +195,27 @@
   </si>
   <si>
     <t>enum{'ASSETS','EQUITY','EXPENSES','LIABILITIES','REVENUE'}</t>
+  </si>
+  <si>
+    <t>master_details</t>
+  </si>
+  <si>
+    <t>master_sub_details</t>
+  </si>
+  <si>
+    <t>master_detail_id</t>
+  </si>
+  <si>
+    <t>country_id</t>
+  </si>
+  <si>
+    <t>city_id</t>
+  </si>
+  <si>
+    <t>Enabled</t>
+  </si>
+  <si>
+    <t>enum{'Enabled','Disabled'}</t>
   </si>
 </sst>
 </file>
@@ -552,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M53"/>
+  <dimension ref="A1:M64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G57" sqref="G57"/>
+    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
+      <selection activeCell="K44" sqref="K44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -586,7 +589,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -644,10 +647,10 @@
         <v>18</v>
       </c>
       <c r="D4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -658,16 +661,16 @@
         <v>19</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -675,16 +678,16 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -704,10 +707,10 @@
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I7" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -727,10 +730,10 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -738,16 +741,16 @@
         <v>23</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I9" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
@@ -755,21 +758,21 @@
         <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F10" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -795,7 +798,7 @@
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D14" t="s">
         <v>14</v>
@@ -813,7 +816,7 @@
         <v>16</v>
       </c>
       <c r="J14" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K14" t="s">
         <v>12</v>
@@ -824,10 +827,10 @@
         <v>18</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
@@ -838,16 +841,16 @@
         <v>19</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I16" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -855,16 +858,16 @@
         <v>20</v>
       </c>
       <c r="D17" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F17" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H17" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I17" s="3" t="s">
-        <v>32</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -884,10 +887,10 @@
         <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I18" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -907,10 +910,10 @@
         <v>15</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -918,16 +921,16 @@
         <v>23</v>
       </c>
       <c r="D20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I20" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
@@ -935,21 +938,22 @@
         <v>24</v>
       </c>
       <c r="D21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F21" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H21" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I21" t="s">
-        <v>37</v>
-      </c>
-    </row>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="B23" t="s">
         <v>13</v>
@@ -975,7 +979,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -993,442 +997,438 @@
         <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K24" t="s">
-        <v>34</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F25">
-        <v>9999999999</v>
-      </c>
-      <c r="G25" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="F25" t="s">
+        <v>28</v>
       </c>
       <c r="H25" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J25" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="D26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I26" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
       <c r="F27" t="s">
-        <v>53</v>
+        <v>29</v>
       </c>
       <c r="H27" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I27" t="s">
-        <v>37</v>
+        <v>16</v>
+      </c>
+      <c r="I27" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="D28" t="s">
-        <v>27</v>
-      </c>
-      <c r="F28" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="E28" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F28">
+        <v>9999999999</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I28" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
-        <v>43</v>
+        <v>22</v>
       </c>
       <c r="D29" t="s">
-        <v>51</v>
-      </c>
-      <c r="F29" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="E29" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F29">
+        <v>9999999999</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I29" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
-        <v>44</v>
+        <v>23</v>
       </c>
       <c r="D30" t="s">
-        <v>51</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="H30" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="D31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F31" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I30" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F31" t="s">
-        <v>53</v>
-      </c>
       <c r="H31" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I31" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" t="s">
-        <v>52</v>
-      </c>
-      <c r="D32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F32" t="s">
-        <v>53</v>
-      </c>
-      <c r="H32" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I32" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>47</v>
-      </c>
-      <c r="D33" t="s">
-        <v>51</v>
-      </c>
-      <c r="F33" t="s">
-        <v>53</v>
-      </c>
-      <c r="H33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>48</v>
-      </c>
-      <c r="D34" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" t="s">
-        <v>53</v>
-      </c>
-      <c r="H34" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I34" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>35</v>
+      </c>
       <c r="B35" t="s">
-        <v>49</v>
+        <v>13</v>
       </c>
       <c r="D35" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="E35" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <v>9999999999</v>
+      </c>
+      <c r="G35" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I35" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J35" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="D36" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" t="s">
-        <v>53</v>
+        <v>14</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36">
+        <v>9999999999</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I36" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>33</v>
+      </c>
+      <c r="K36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>50</v>
       </c>
       <c r="D37" t="s">
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>9999999999</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>37</v>
+      </c>
+      <c r="D38" t="s">
         <v>26</v>
       </c>
-      <c r="F37" t="s">
-        <v>53</v>
-      </c>
-      <c r="H37" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I37" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
-        <v>20</v>
-      </c>
-      <c r="D38" t="s">
+      <c r="F38" t="s">
+        <v>47</v>
+      </c>
+      <c r="H38" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>38</v>
+      </c>
+      <c r="D39" t="s">
+        <v>26</v>
+      </c>
+      <c r="F39" t="s">
+        <v>47</v>
+      </c>
+      <c r="H39" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I39" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+      <c r="D40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F40" t="s">
+        <v>47</v>
+      </c>
+      <c r="H40" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I40" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" t="s">
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>47</v>
+      </c>
+      <c r="H41" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I41" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+      <c r="D42" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" t="s">
+        <v>47</v>
+      </c>
+      <c r="H42" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>60</v>
+      </c>
+      <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>9999999999</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H43" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I43" t="s">
+        <v>34</v>
+      </c>
+      <c r="J43" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" t="s">
+        <v>14</v>
+      </c>
+      <c r="F44">
+        <v>9999999999</v>
+      </c>
+      <c r="G44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H44" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I44" t="s">
+        <v>34</v>
+      </c>
+      <c r="J44" t="s">
+        <v>33</v>
+      </c>
+      <c r="K44" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>46</v>
+      </c>
+      <c r="F45" t="s">
+        <v>47</v>
+      </c>
+      <c r="H45" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I45" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>46</v>
+      </c>
+      <c r="F46" t="s">
+        <v>47</v>
+      </c>
+      <c r="H46" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I46" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>42</v>
+      </c>
+      <c r="D47" t="s">
         <v>25</v>
       </c>
-      <c r="F38" t="s">
-        <v>30</v>
-      </c>
-      <c r="H38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>21</v>
-      </c>
-      <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39">
-        <v>9999999999</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H39" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I39" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>22</v>
-      </c>
-      <c r="D40" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F40">
-        <v>9999999999</v>
-      </c>
-      <c r="G40" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H40" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I40" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>23</v>
-      </c>
-      <c r="D41" t="s">
-        <v>28</v>
-      </c>
-      <c r="F41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I41" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B42" t="s">
-        <v>24</v>
-      </c>
-      <c r="D42" t="s">
-        <v>28</v>
-      </c>
-      <c r="F42" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="H42" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="I42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>58</v>
-      </c>
-      <c r="B44" t="s">
-        <v>13</v>
-      </c>
-      <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F44">
-        <v>9999999999</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H44" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>18</v>
-      </c>
-      <c r="D45" t="s">
-        <v>27</v>
-      </c>
-      <c r="H45" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>59</v>
-      </c>
-      <c r="D46" t="s">
-        <v>62</v>
-      </c>
-      <c r="F46" t="s">
-        <v>30</v>
-      </c>
-      <c r="H46" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>60</v>
-      </c>
-      <c r="D47" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F47">
-        <v>9999999999</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>15</v>
+      <c r="F47" t="s">
+        <v>47</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="I47" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>61</v>
+        <v>45</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48">
-        <v>9999999999</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="F48" t="s">
+        <v>47</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+      <c r="I48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="D49" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="H49" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I49" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>21</v>
       </c>
@@ -1445,13 +1445,13 @@
         <v>15</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I50" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>22</v>
       </c>
@@ -1468,38 +1468,223 @@
         <v>15</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I51" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B52" t="s">
         <v>23</v>
       </c>
       <c r="D52" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I52" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
         <v>24</v>
       </c>
       <c r="D53" t="s">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F53" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I53" t="s">
-        <v>37</v>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>52</v>
+      </c>
+      <c r="B55" t="s">
+        <v>13</v>
+      </c>
+      <c r="D55" t="s">
+        <v>14</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F55">
+        <v>9999999999</v>
+      </c>
+      <c r="G55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H55" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>18</v>
+      </c>
+      <c r="D56" t="s">
+        <v>26</v>
+      </c>
+      <c r="H56" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>53</v>
+      </c>
+      <c r="D57" t="s">
+        <v>56</v>
+      </c>
+      <c r="F57" t="s">
+        <v>29</v>
+      </c>
+      <c r="H57" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>54</v>
+      </c>
+      <c r="D58" t="s">
+        <v>14</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <v>9999999999</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H58" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>55</v>
+      </c>
+      <c r="D59" t="s">
+        <v>14</v>
+      </c>
+      <c r="E59" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F59">
+        <v>9999999999</v>
+      </c>
+      <c r="G59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H59" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>20</v>
+      </c>
+      <c r="D60" t="s">
+        <v>63</v>
+      </c>
+      <c r="F60" t="s">
+        <v>29</v>
+      </c>
+      <c r="H60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>21</v>
+      </c>
+      <c r="D61" t="s">
+        <v>14</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <v>9999999999</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H61" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I61" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>22</v>
+      </c>
+      <c r="D62" t="s">
+        <v>14</v>
+      </c>
+      <c r="E62" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F62">
+        <v>9999999999</v>
+      </c>
+      <c r="G62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H62" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>23</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>24</v>
+      </c>
+      <c r="D64" t="s">
+        <v>27</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I64" t="s">
+        <v>34</v>
       </c>
     </row>
   </sheetData>

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="64">
   <si>
     <t>Table Name</t>
   </si>
@@ -555,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:M62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="K44" sqref="K44"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -770,12 +770,35 @@
         <v>34</v>
       </c>
     </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>9999999999</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>57</v>
-      </c>
       <c r="B13" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -793,86 +816,86 @@
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="K13" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F14">
-        <v>9999999999</v>
-      </c>
-      <c r="G14" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="F14" t="s">
+        <v>28</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J14" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I15" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F16" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H16" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I16" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s">
-        <v>63</v>
-      </c>
-      <c r="F17" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <v>9999999999</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="I17" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D18" t="s">
         <v>14</v>
@@ -895,19 +918,13 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19">
-        <v>9999999999</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="F19" t="s">
+        <v>31</v>
       </c>
       <c r="H19" s="2" t="s">
         <v>30</v>
@@ -916,14 +933,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F20" s="4" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -933,30 +950,36 @@
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
-      <c r="B21" t="s">
-        <v>24</v>
-      </c>
-      <c r="D21" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I21" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>9999999999</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>17</v>
+      </c>
+    </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>58</v>
-      </c>
       <c r="B23" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -974,7 +997,10 @@
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="K23" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
@@ -1131,12 +1157,61 @@
         <v>34</v>
       </c>
     </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>35</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="D33" t="s">
+        <v>14</v>
+      </c>
+      <c r="E33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F33">
+        <v>9999999999</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H33" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J33" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="D34" t="s">
+        <v>14</v>
+      </c>
+      <c r="E34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F34">
+        <v>9999999999</v>
+      </c>
+      <c r="G34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H34" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>33</v>
+      </c>
+      <c r="K34" t="s">
+        <v>57</v>
+      </c>
+    </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
       <c r="B35" t="s">
-        <v>13</v>
+        <v>50</v>
       </c>
       <c r="D35" t="s">
         <v>14</v>
@@ -1154,64 +1229,46 @@
         <v>16</v>
       </c>
       <c r="J35" t="s">
-        <v>17</v>
+        <v>33</v>
+      </c>
+      <c r="K35" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F36">
-        <v>9999999999</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="F36" t="s">
+        <v>47</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J36" t="s">
-        <v>33</v>
-      </c>
-      <c r="K36" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F37">
-        <v>9999999999</v>
-      </c>
-      <c r="G37" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="F37" t="s">
+        <v>47</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J37" t="s">
-        <v>33</v>
-      </c>
-      <c r="K37" t="s">
-        <v>57</v>
+        <v>30</v>
+      </c>
+      <c r="I37" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D38" t="s">
         <v>26</v>
@@ -1220,15 +1277,18 @@
         <v>47</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I38" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F39" t="s">
         <v>47</v>
@@ -1242,10 +1302,10 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D40" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s">
         <v>47</v>
@@ -1259,96 +1319,96 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
-      </c>
-      <c r="F41" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>9999999999</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I41" t="s">
         <v>34</v>
+      </c>
+      <c r="J41" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="D42" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="F42">
+        <v>9999999999</v>
+      </c>
+      <c r="G42" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H42" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I42" t="s">
         <v>34</v>
+      </c>
+      <c r="J42" t="s">
+        <v>33</v>
+      </c>
+      <c r="K42" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>60</v>
+        <v>43</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43">
-        <v>9999999999</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="F43" t="s">
+        <v>47</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I43" t="s">
         <v>34</v>
-      </c>
-      <c r="J43" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
-      </c>
-      <c r="F44">
-        <v>9999999999</v>
-      </c>
-      <c r="G44" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="F44" t="s">
+        <v>47</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I44" t="s">
         <v>34</v>
-      </c>
-      <c r="J44" t="s">
-        <v>33</v>
-      </c>
-      <c r="K44" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D45" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
         <v>47</v>
@@ -1362,10 +1422,10 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D46" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="F46" t="s">
         <v>47</v>
@@ -1379,30 +1439,36 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="I47" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
-      </c>
-      <c r="F48" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="E48" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48">
+        <v>9999999999</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>30</v>
@@ -1413,36 +1479,36 @@
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D49" t="s">
-        <v>63</v>
-      </c>
-      <c r="F49" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="E49" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F49">
+        <v>9999999999</v>
+      </c>
+      <c r="G49" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="I49" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F50">
-        <v>9999999999</v>
-      </c>
-      <c r="G50" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="F50" t="s">
+        <v>31</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>30</v>
@@ -1451,21 +1517,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F51">
-        <v>9999999999</v>
-      </c>
-      <c r="G51" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>31</v>
       </c>
       <c r="H51" s="2" t="s">
         <v>30</v>
@@ -1474,58 +1534,49 @@
         <v>34</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>23</v>
-      </c>
-      <c r="D52" t="s">
-        <v>27</v>
-      </c>
-      <c r="F52" t="s">
-        <v>31</v>
-      </c>
-      <c r="H52" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I52" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>52</v>
+      </c>
       <c r="B53" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="D53" t="s">
-        <v>27</v>
-      </c>
-      <c r="F53" s="4" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F53">
+        <v>9999999999</v>
+      </c>
+      <c r="G53" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I53" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>18</v>
+      </c>
+      <c r="D54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H54" s="2" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
-        <v>52</v>
-      </c>
       <c r="B55" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F55">
-        <v>9999999999</v>
-      </c>
-      <c r="G55" s="1" t="s">
-        <v>15</v>
+        <v>56</v>
+      </c>
+      <c r="F55" t="s">
+        <v>29</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>16</v>
@@ -1533,10 +1584,19 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D56" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>9999999999</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>16</v>
@@ -1544,13 +1604,19 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>56</v>
-      </c>
-      <c r="F57" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="E57" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F57">
+        <v>9999999999</v>
+      </c>
+      <c r="G57" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>16</v>
@@ -1558,27 +1624,24 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>54</v>
+        <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58">
-        <v>9999999999</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="F58" t="s">
+        <v>29</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="D59" t="s">
         <v>14</v>
@@ -1593,41 +1656,41 @@
         <v>15</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I59" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D60" t="s">
-        <v>63</v>
-      </c>
-      <c r="F60" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="E60" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F60">
+        <v>9999999999</v>
+      </c>
+      <c r="G60" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I60" s="3" t="s">
-        <v>62</v>
+        <v>30</v>
+      </c>
+      <c r="I60" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61">
-        <v>9999999999</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>30</v>
@@ -1638,52 +1701,15 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F62">
-        <v>9999999999</v>
-      </c>
-      <c r="G62" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I62" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>23</v>
-      </c>
-      <c r="D63" t="s">
-        <v>27</v>
-      </c>
-      <c r="H63" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>24</v>
-      </c>
-      <c r="D64" t="s">
-        <v>27</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I64" t="s">
         <v>34</v>
       </c>
     </row>

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="317" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="80">
   <si>
     <t>Table Name</t>
   </si>
@@ -194,9 +194,6 @@
     <t>max_code</t>
   </si>
   <si>
-    <t>enum{'ASSETS','EQUITY','EXPENSES','LIABILITIES','REVENUE'}</t>
-  </si>
-  <si>
     <t>master_details</t>
   </si>
   <si>
@@ -216,25 +213,70 @@
   </si>
   <si>
     <t>enum{'Enabled','Disabled'}</t>
+  </si>
+  <si>
+    <t>enum{'Assets','Equity','Expenses','Liabilities','Revenue'}</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>customer_type_id</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>date_of_birth</t>
+  </si>
+  <si>
+    <t>relative_contact</t>
+  </si>
+  <si>
+    <t>relative_phone</t>
+  </si>
+  <si>
+    <t>enum{'Male','female'}</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>Y-m-d</t>
+  </si>
+  <si>
+    <t>users</t>
+  </si>
+  <si>
+    <t>doctors</t>
+  </si>
+  <si>
+    <t>first_name</t>
+  </si>
+  <si>
+    <t>last_name</t>
+  </si>
+  <si>
+    <t>doctor_type_id</t>
+  </si>
+  <si>
+    <t>job_title</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial Unicode MS"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -257,7 +299,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -268,7 +310,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -555,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M62"/>
+  <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="89" zoomScaleNormal="89" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J106" sqref="J106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -588,7 +629,7 @@
       <c r="D1" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F1" t="s">
@@ -626,7 +667,7 @@
       <c r="D3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>16</v>
       </c>
       <c r="F3">
@@ -678,7 +719,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -687,7 +728,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -712,6 +753,12 @@
       <c r="I7" t="s">
         <v>34</v>
       </c>
+      <c r="J7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K7" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -735,6 +782,12 @@
       <c r="I8" t="s">
         <v>34</v>
       </c>
+      <c r="J8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K8" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -753,14 +806,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="D10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="4" t="s">
+      <c r="F10" t="s">
         <v>31</v>
       </c>
       <c r="H10" s="2" t="s">
@@ -772,7 +825,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -858,7 +911,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
@@ -867,7 +920,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -892,6 +945,12 @@
       <c r="I17" t="s">
         <v>34</v>
       </c>
+      <c r="J17" t="s">
+        <v>33</v>
+      </c>
+      <c r="K17" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
@@ -915,6 +974,12 @@
       <c r="I18" t="s">
         <v>34</v>
       </c>
+      <c r="J18" t="s">
+        <v>33</v>
+      </c>
+      <c r="K18" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
@@ -933,14 +998,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>24</v>
       </c>
       <c r="D20" t="s">
         <v>27</v>
       </c>
-      <c r="F20" s="4" t="s">
+      <c r="F20" t="s">
         <v>31</v>
       </c>
       <c r="H20" s="2" t="s">
@@ -953,7 +1018,7 @@
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1005,7 +1070,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1026,7 +1091,7 @@
         <v>33</v>
       </c>
       <c r="K24" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1065,7 +1130,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -1074,7 +1139,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1099,6 +1164,12 @@
       <c r="I28" t="s">
         <v>34</v>
       </c>
+      <c r="J28" t="s">
+        <v>33</v>
+      </c>
+      <c r="K28" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
@@ -1122,6 +1193,12 @@
       <c r="I29" t="s">
         <v>34</v>
       </c>
+      <c r="J29" t="s">
+        <v>33</v>
+      </c>
+      <c r="K29" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
@@ -1140,14 +1217,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>24</v>
       </c>
       <c r="D31" t="s">
         <v>27</v>
       </c>
-      <c r="F31" s="4" t="s">
+      <c r="F31" t="s">
         <v>31</v>
       </c>
       <c r="H31" s="2" t="s">
@@ -1206,7 +1283,7 @@
         <v>33</v>
       </c>
       <c r="K34" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
@@ -1232,7 +1309,7 @@
         <v>33</v>
       </c>
       <c r="K35" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
@@ -1319,7 +1396,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -1340,12 +1417,12 @@
         <v>33</v>
       </c>
       <c r="K41" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -1366,7 +1443,7 @@
         <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1442,7 +1519,7 @@
         <v>20</v>
       </c>
       <c r="D47" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F47" t="s">
         <v>29</v>
@@ -1451,7 +1528,7 @@
         <v>16</v>
       </c>
       <c r="I47" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1476,8 +1553,14 @@
       <c r="I48" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J48" t="s">
+        <v>33</v>
+      </c>
+      <c r="K48" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>22</v>
       </c>
@@ -1499,8 +1582,14 @@
       <c r="I49" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J49" t="s">
+        <v>33</v>
+      </c>
+      <c r="K49" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
         <v>23</v>
       </c>
@@ -1517,14 +1606,14 @@
         <v>34</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="15.75" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
         <v>24</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
       </c>
-      <c r="F51" s="4" t="s">
+      <c r="F51" t="s">
         <v>31</v>
       </c>
       <c r="H51" s="2" t="s">
@@ -1534,7 +1623,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1557,7 +1646,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B54" t="s">
         <v>18</v>
       </c>
@@ -1568,21 +1657,21 @@
         <v>16</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
         <v>53</v>
       </c>
       <c r="D55" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="F55" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
         <v>54</v>
       </c>
@@ -1602,7 +1691,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
         <v>55</v>
       </c>
@@ -1622,12 +1711,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
         <v>20</v>
       </c>
       <c r="D58" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F58" t="s">
         <v>29</v>
@@ -1636,10 +1725,10 @@
         <v>16</v>
       </c>
       <c r="I58" s="3" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>21</v>
       </c>
@@ -1661,8 +1750,14 @@
       <c r="I59" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J59" t="s">
+        <v>33</v>
+      </c>
+      <c r="K59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>22</v>
       </c>
@@ -1684,8 +1779,14 @@
       <c r="I60" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J60" t="s">
+        <v>33</v>
+      </c>
+      <c r="K60" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>23</v>
       </c>
@@ -1699,7 +1800,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>24</v>
       </c>
@@ -1710,6 +1811,846 @@
         <v>30</v>
       </c>
       <c r="I62" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>64</v>
+      </c>
+      <c r="B64" t="s">
+        <v>13</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64">
+        <v>9999999999</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J64" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>65</v>
+      </c>
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65">
+        <v>9999999999</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
+        <v>33</v>
+      </c>
+      <c r="K65" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>50</v>
+      </c>
+      <c r="D66" t="s">
+        <v>14</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F66">
+        <v>9999999999</v>
+      </c>
+      <c r="G66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J66" t="s">
+        <v>33</v>
+      </c>
+      <c r="K66" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+      <c r="D67" t="s">
+        <v>26</v>
+      </c>
+      <c r="F67" t="s">
+        <v>49</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+      <c r="D69" t="s">
+        <v>72</v>
+      </c>
+      <c r="F69" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>40</v>
+      </c>
+      <c r="D70" t="s">
+        <v>46</v>
+      </c>
+      <c r="F70" t="s">
+        <v>49</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I70" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>41</v>
+      </c>
+      <c r="D71" t="s">
+        <v>46</v>
+      </c>
+      <c r="F71" t="s">
+        <v>49</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I71" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>69</v>
+      </c>
+      <c r="D72" t="s">
+        <v>26</v>
+      </c>
+      <c r="F72" t="s">
+        <v>49</v>
+      </c>
+      <c r="H72" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I72" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>70</v>
+      </c>
+      <c r="D73" t="s">
+        <v>46</v>
+      </c>
+      <c r="F73" t="s">
+        <v>49</v>
+      </c>
+      <c r="H73" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I73" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>59</v>
+      </c>
+      <c r="D74" t="s">
+        <v>14</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74">
+        <v>9999999999</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s">
+        <v>34</v>
+      </c>
+      <c r="J74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K74" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>60</v>
+      </c>
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75">
+        <v>9999999999</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K75" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>43</v>
+      </c>
+      <c r="D76" t="s">
+        <v>46</v>
+      </c>
+      <c r="F76" t="s">
+        <v>49</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>44</v>
+      </c>
+      <c r="D77" t="s">
+        <v>46</v>
+      </c>
+      <c r="F77" t="s">
+        <v>49</v>
+      </c>
+      <c r="H77" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I77" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>42</v>
+      </c>
+      <c r="D78" t="s">
+        <v>25</v>
+      </c>
+      <c r="F78" t="s">
+        <v>49</v>
+      </c>
+      <c r="H78" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I78" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>45</v>
+      </c>
+      <c r="D79" t="s">
+        <v>25</v>
+      </c>
+      <c r="F79" t="s">
+        <v>49</v>
+      </c>
+      <c r="H79" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I79" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>20</v>
+      </c>
+      <c r="D80" t="s">
+        <v>62</v>
+      </c>
+      <c r="F80" t="s">
+        <v>28</v>
+      </c>
+      <c r="H80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>21</v>
+      </c>
+      <c r="D81" t="s">
+        <v>14</v>
+      </c>
+      <c r="E81" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F81">
+        <v>9999999999</v>
+      </c>
+      <c r="G81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H81" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I81" t="s">
+        <v>34</v>
+      </c>
+      <c r="J81" t="s">
+        <v>33</v>
+      </c>
+      <c r="K81" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>22</v>
+      </c>
+      <c r="D82" t="s">
+        <v>14</v>
+      </c>
+      <c r="E82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F82">
+        <v>9999999999</v>
+      </c>
+      <c r="G82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H82" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" t="s">
+        <v>34</v>
+      </c>
+      <c r="J82" t="s">
+        <v>33</v>
+      </c>
+      <c r="K82" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>23</v>
+      </c>
+      <c r="D83" t="s">
+        <v>27</v>
+      </c>
+      <c r="F83" t="s">
+        <v>31</v>
+      </c>
+      <c r="H83" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I83" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>24</v>
+      </c>
+      <c r="D84" t="s">
+        <v>27</v>
+      </c>
+      <c r="F84" t="s">
+        <v>31</v>
+      </c>
+      <c r="H84" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>75</v>
+      </c>
+      <c r="B86" t="s">
+        <v>13</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86">
+        <v>9999999999</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J86" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>78</v>
+      </c>
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87">
+        <v>9999999999</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>33</v>
+      </c>
+      <c r="K87" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>50</v>
+      </c>
+      <c r="D88" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F88">
+        <v>9999999999</v>
+      </c>
+      <c r="G88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H88" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J88" t="s">
+        <v>33</v>
+      </c>
+      <c r="K88" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>76</v>
+      </c>
+      <c r="D89" t="s">
+        <v>46</v>
+      </c>
+      <c r="F89" t="s">
+        <v>49</v>
+      </c>
+      <c r="H89" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>77</v>
+      </c>
+      <c r="D90" t="s">
+        <v>46</v>
+      </c>
+      <c r="F90" t="s">
+        <v>49</v>
+      </c>
+      <c r="H90" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>79</v>
+      </c>
+      <c r="D91" t="s">
+        <v>26</v>
+      </c>
+      <c r="F91" t="s">
+        <v>47</v>
+      </c>
+      <c r="H91" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>67</v>
+      </c>
+      <c r="D92" t="s">
+        <v>71</v>
+      </c>
+      <c r="F92" t="s">
+        <v>28</v>
+      </c>
+      <c r="H92" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>68</v>
+      </c>
+      <c r="D93" t="s">
+        <v>72</v>
+      </c>
+      <c r="F93" t="s">
+        <v>73</v>
+      </c>
+      <c r="H93" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>40</v>
+      </c>
+      <c r="D94" t="s">
+        <v>46</v>
+      </c>
+      <c r="F94" t="s">
+        <v>49</v>
+      </c>
+      <c r="H94" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I94" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>41</v>
+      </c>
+      <c r="D95" t="s">
+        <v>46</v>
+      </c>
+      <c r="F95" t="s">
+        <v>49</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I95" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>59</v>
+      </c>
+      <c r="D96" t="s">
+        <v>14</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96">
+        <v>9999999999</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I96" t="s">
+        <v>34</v>
+      </c>
+      <c r="J96" t="s">
+        <v>33</v>
+      </c>
+      <c r="K96" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>60</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97">
+        <v>9999999999</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I97" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" t="s">
+        <v>33</v>
+      </c>
+      <c r="K97" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>43</v>
+      </c>
+      <c r="D98" t="s">
+        <v>46</v>
+      </c>
+      <c r="F98" t="s">
+        <v>49</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I98" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>44</v>
+      </c>
+      <c r="D99" t="s">
+        <v>46</v>
+      </c>
+      <c r="F99" t="s">
+        <v>49</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>42</v>
+      </c>
+      <c r="D100" t="s">
+        <v>25</v>
+      </c>
+      <c r="F100" t="s">
+        <v>49</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I100" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>45</v>
+      </c>
+      <c r="D101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F101" t="s">
+        <v>49</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I101" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="D102" t="s">
+        <v>62</v>
+      </c>
+      <c r="F102" t="s">
+        <v>28</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I102" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>21</v>
+      </c>
+      <c r="D103" t="s">
+        <v>14</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103">
+        <v>9999999999</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I103" t="s">
+        <v>34</v>
+      </c>
+      <c r="J103" t="s">
+        <v>33</v>
+      </c>
+      <c r="K103" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>22</v>
+      </c>
+      <c r="D104" t="s">
+        <v>14</v>
+      </c>
+      <c r="E104" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F104">
+        <v>9999999999</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I104" t="s">
+        <v>34</v>
+      </c>
+      <c r="J104" t="s">
+        <v>33</v>
+      </c>
+      <c r="K104" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>23</v>
+      </c>
+      <c r="D105" t="s">
+        <v>27</v>
+      </c>
+      <c r="F105" t="s">
+        <v>31</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I105" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>24</v>
+      </c>
+      <c r="D106" t="s">
+        <v>27</v>
+      </c>
+      <c r="F106" t="s">
+        <v>31</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I106" t="s">
         <v>34</v>
       </c>
     </row>

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -239,9 +239,6 @@
     <t>relative_phone</t>
   </si>
   <si>
-    <t>enum{'Male','female'}</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
@@ -264,6 +261,9 @@
   </si>
   <si>
     <t>job_title</t>
+  </si>
+  <si>
+    <t>enum{'Male','Female'}</t>
   </si>
 </sst>
 </file>
@@ -598,8 +598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J106" sqref="J106"/>
+    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -757,7 +757,7 @@
         <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -786,7 +786,7 @@
         <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -949,7 +949,7 @@
         <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -978,7 +978,7 @@
         <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1168,7 +1168,7 @@
         <v>33</v>
       </c>
       <c r="K28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1197,7 +1197,7 @@
         <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>33</v>
       </c>
       <c r="K48" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -1586,7 +1586,7 @@
         <v>33</v>
       </c>
       <c r="K49" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -1754,7 +1754,7 @@
         <v>33</v>
       </c>
       <c r="K59" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -1783,7 +1783,7 @@
         <v>33</v>
       </c>
       <c r="K60" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -1911,7 +1911,7 @@
         <v>67</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F68" t="s">
         <v>28</v>
@@ -1925,10 +1925,10 @@
         <v>68</v>
       </c>
       <c r="D69" t="s">
+        <v>71</v>
+      </c>
+      <c r="F69" t="s">
         <v>72</v>
-      </c>
-      <c r="F69" t="s">
-        <v>73</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>16</v>
@@ -2171,7 +2171,7 @@
         <v>33</v>
       </c>
       <c r="K81" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -2200,7 +2200,7 @@
         <v>33</v>
       </c>
       <c r="K82" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -2239,7 +2239,7 @@
     </row>
     <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B86" t="s">
         <v>13</v>
@@ -2265,7 +2265,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D87" t="s">
         <v>14</v>
@@ -2317,7 +2317,7 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D89" t="s">
         <v>46</v>
@@ -2331,7 +2331,7 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D90" t="s">
         <v>46</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D91" t="s">
         <v>26</v>
@@ -2362,7 +2362,7 @@
         <v>67</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
+        <v>79</v>
       </c>
       <c r="F92" t="s">
         <v>28</v>
@@ -2376,10 +2376,10 @@
         <v>68</v>
       </c>
       <c r="D93" t="s">
+        <v>71</v>
+      </c>
+      <c r="F93" t="s">
         <v>72</v>
-      </c>
-      <c r="F93" t="s">
-        <v>73</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>16</v>
@@ -2588,7 +2588,7 @@
         <v>33</v>
       </c>
       <c r="K103" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
@@ -2617,7 +2617,7 @@
         <v>33</v>
       </c>
       <c r="K104" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="575" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="80">
   <si>
     <t>Table Name</t>
   </si>
@@ -596,10 +596,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M106"/>
+  <dimension ref="A1:M107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="H95" sqref="H95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,59 +1262,38 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F34">
-        <v>9999999999</v>
-      </c>
-      <c r="G34" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="F34" t="s">
+        <v>47</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J34" t="s">
-        <v>33</v>
-      </c>
-      <c r="K34" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>50</v>
+        <v>38</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F35">
-        <v>9999999999</v>
-      </c>
-      <c r="G35" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="F35" t="s">
+        <v>47</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J35" t="s">
-        <v>33</v>
-      </c>
-      <c r="K35" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="I35" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
@@ -1323,63 +1302,81 @@
         <v>47</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I36" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="D37" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F37" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H37" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I37" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D38" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="E38" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F38">
+        <v>9999999999</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I38" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>33</v>
+      </c>
+      <c r="K38" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D39" t="s">
-        <v>46</v>
-      </c>
-      <c r="F39" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="E39" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39">
+        <v>9999999999</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H39" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I39" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="J39" t="s">
+        <v>33</v>
+      </c>
+      <c r="K39" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D40" t="s">
         <v>46</v>
@@ -1396,33 +1393,24 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
-      </c>
-      <c r="F41">
-        <v>9999999999</v>
-      </c>
-      <c r="G41" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="F41" t="s">
+        <v>47</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I41" t="s">
         <v>34</v>
-      </c>
-      <c r="J41" t="s">
-        <v>33</v>
-      </c>
-      <c r="K41" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -1443,29 +1431,38 @@
         <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D43" t="s">
-        <v>46</v>
-      </c>
-      <c r="F43" t="s">
-        <v>47</v>
+        <v>14</v>
+      </c>
+      <c r="F43">
+        <v>9999999999</v>
+      </c>
+      <c r="G43" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I43" t="s">
         <v>34</v>
+      </c>
+      <c r="J43" t="s">
+        <v>33</v>
+      </c>
+      <c r="K43" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" t="s">
         <v>46</v>
@@ -1482,10 +1479,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F45" t="s">
         <v>47</v>
@@ -1499,7 +1496,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
@@ -1516,53 +1513,41 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="I47" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F48">
-        <v>9999999999</v>
-      </c>
-      <c r="G48" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="F48" t="s">
+        <v>29</v>
       </c>
       <c r="H48" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I48" t="s">
-        <v>34</v>
-      </c>
-      <c r="J48" t="s">
-        <v>33</v>
-      </c>
-      <c r="K48" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="I48" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D49" t="s">
         <v>14</v>
@@ -1591,24 +1576,36 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B50" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D50" t="s">
-        <v>27</v>
-      </c>
-      <c r="F50" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F50">
+        <v>9999999999</v>
+      </c>
+      <c r="G50" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H50" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I50" t="s">
         <v>34</v>
+      </c>
+      <c r="J50" t="s">
+        <v>33</v>
+      </c>
+      <c r="K50" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B51" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D51" t="s">
         <v>27</v>
@@ -1623,35 +1620,41 @@
         <v>34</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>24</v>
+      </c>
+      <c r="D52" t="s">
+        <v>27</v>
+      </c>
+      <c r="F52" t="s">
+        <v>31</v>
+      </c>
+      <c r="H52" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I52" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>52</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>13</v>
       </c>
-      <c r="D53" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F53">
-        <v>9999999999</v>
-      </c>
-      <c r="G53" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H53" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>18</v>
-      </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>14</v>
+      </c>
+      <c r="E54" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F54">
+        <v>9999999999</v>
+      </c>
+      <c r="G54" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H54" s="2" t="s">
         <v>16</v>
@@ -1659,13 +1662,10 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
       <c r="D55" t="s">
-        <v>63</v>
-      </c>
-      <c r="F55" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H55" s="2" t="s">
         <v>16</v>
@@ -1673,19 +1673,13 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F56">
-        <v>9999999999</v>
-      </c>
-      <c r="G56" s="1" t="s">
-        <v>15</v>
+        <v>63</v>
+      </c>
+      <c r="F56" t="s">
+        <v>28</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>16</v>
@@ -1693,7 +1687,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
@@ -1713,53 +1707,44 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D58" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" t="s">
-        <v>29</v>
+        <v>14</v>
+      </c>
+      <c r="E58" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F58">
+        <v>9999999999</v>
+      </c>
+      <c r="G58" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H58" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I58" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F59">
-        <v>9999999999</v>
-      </c>
-      <c r="G59" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="F59" t="s">
+        <v>29</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I59" t="s">
-        <v>34</v>
-      </c>
-      <c r="J59" t="s">
-        <v>33</v>
-      </c>
-      <c r="K59" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="I59" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D60" t="s">
         <v>14</v>
@@ -1788,21 +1773,36 @@
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D61" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="E61" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61">
+        <v>9999999999</v>
+      </c>
+      <c r="G61" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I61" t="s">
         <v>34</v>
+      </c>
+      <c r="J61" t="s">
+        <v>33</v>
+      </c>
+      <c r="K61" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D62" t="s">
         <v>27</v>
@@ -1814,146 +1814,143 @@
         <v>34</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>24</v>
+      </c>
+      <c r="D63" t="s">
+        <v>27</v>
+      </c>
+      <c r="H63" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
         <v>64</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B65" t="s">
         <v>13</v>
       </c>
-      <c r="D64" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F64">
-        <v>9999999999</v>
-      </c>
-      <c r="G64" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H64" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J64" t="s">
+      <c r="D65" t="s">
+        <v>14</v>
+      </c>
+      <c r="E65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F65">
+        <v>9999999999</v>
+      </c>
+      <c r="G65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H65" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>66</v>
+      </c>
+      <c r="D66" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" t="s">
+        <v>49</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>67</v>
+      </c>
+      <c r="D67" t="s">
+        <v>79</v>
+      </c>
+      <c r="F67" t="s">
+        <v>28</v>
+      </c>
+      <c r="H67" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>68</v>
+      </c>
+      <c r="D68" t="s">
+        <v>71</v>
+      </c>
+      <c r="F68" t="s">
+        <v>72</v>
+      </c>
+      <c r="H68" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
         <v>65</v>
       </c>
-      <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65">
-        <v>9999999999</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" t="s">
-        <v>33</v>
-      </c>
-      <c r="K65" t="s">
+      <c r="D69" t="s">
+        <v>14</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69">
+        <v>9999999999</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>33</v>
+      </c>
+      <c r="K69" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
         <v>50</v>
       </c>
-      <c r="D66" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F66">
-        <v>9999999999</v>
-      </c>
-      <c r="G66" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H66" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J66" t="s">
-        <v>33</v>
-      </c>
-      <c r="K66" t="s">
+      <c r="D70" t="s">
+        <v>14</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F70">
+        <v>9999999999</v>
+      </c>
+      <c r="G70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H70" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>33</v>
+      </c>
+      <c r="K70" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>66</v>
-      </c>
-      <c r="D67" t="s">
-        <v>26</v>
-      </c>
-      <c r="F67" t="s">
-        <v>49</v>
-      </c>
-      <c r="H67" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>67</v>
-      </c>
-      <c r="D68" t="s">
-        <v>79</v>
-      </c>
-      <c r="F68" t="s">
-        <v>28</v>
-      </c>
-      <c r="H68" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>68</v>
-      </c>
-      <c r="D69" t="s">
-        <v>71</v>
-      </c>
-      <c r="F69" t="s">
-        <v>72</v>
-      </c>
-      <c r="H69" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
         <v>40</v>
-      </c>
-      <c r="D70" t="s">
-        <v>46</v>
-      </c>
-      <c r="F70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H70" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I70" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>41</v>
       </c>
       <c r="D71" t="s">
         <v>46</v>
@@ -1968,12 +1965,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
+        <v>46</v>
       </c>
       <c r="F72" t="s">
         <v>49</v>
@@ -1985,12 +1982,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D73" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F73" t="s">
         <v>49</v>
@@ -2002,84 +1999,84 @@
         <v>34</v>
       </c>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
+        <v>70</v>
+      </c>
+      <c r="D74" t="s">
+        <v>46</v>
+      </c>
+      <c r="F74" t="s">
+        <v>49</v>
+      </c>
+      <c r="H74" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
         <v>59</v>
       </c>
-      <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74">
-        <v>9999999999</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H74" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I74" t="s">
-        <v>34</v>
-      </c>
-      <c r="J74" t="s">
-        <v>33</v>
-      </c>
-      <c r="K74" t="s">
+      <c r="D75" t="s">
+        <v>14</v>
+      </c>
+      <c r="E75" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F75">
+        <v>9999999999</v>
+      </c>
+      <c r="G75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H75" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I75" t="s">
+        <v>34</v>
+      </c>
+      <c r="J75" t="s">
+        <v>33</v>
+      </c>
+      <c r="K75" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
         <v>60</v>
       </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75">
-        <v>9999999999</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I75" t="s">
-        <v>34</v>
-      </c>
-      <c r="J75" t="s">
-        <v>33</v>
-      </c>
-      <c r="K75" t="s">
+      <c r="D76" t="s">
+        <v>14</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76">
+        <v>9999999999</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H76" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" t="s">
+        <v>34</v>
+      </c>
+      <c r="J76" t="s">
+        <v>33</v>
+      </c>
+      <c r="K76" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
         <v>43</v>
-      </c>
-      <c r="D76" t="s">
-        <v>46</v>
-      </c>
-      <c r="F76" t="s">
-        <v>49</v>
-      </c>
-      <c r="H76" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I76" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>44</v>
       </c>
       <c r="D77" t="s">
         <v>46</v>
@@ -2094,12 +2091,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="78" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F78" t="s">
         <v>49</v>
@@ -2111,9 +2108,9 @@
         <v>34</v>
       </c>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
@@ -2128,55 +2125,43 @@
         <v>34</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I80" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="I80" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>14</v>
-      </c>
-      <c r="E81" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F81">
-        <v>9999999999</v>
-      </c>
-      <c r="G81" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="F81" t="s">
+        <v>28</v>
       </c>
       <c r="H81" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I81" t="s">
-        <v>34</v>
-      </c>
-      <c r="J81" t="s">
-        <v>33</v>
-      </c>
-      <c r="K81" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="I81" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B82" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D82" t="s">
         <v>14</v>
@@ -2205,24 +2190,36 @@
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D83" t="s">
-        <v>27</v>
-      </c>
-      <c r="F83" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="E83" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F83">
+        <v>9999999999</v>
+      </c>
+      <c r="G83" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H83" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I83" t="s">
         <v>34</v>
+      </c>
+      <c r="J83" t="s">
+        <v>33</v>
+      </c>
+      <c r="K83" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D84" t="s">
         <v>27</v>
@@ -2237,87 +2234,66 @@
         <v>34</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A86" t="s">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>24</v>
+      </c>
+      <c r="D85" t="s">
+        <v>27</v>
+      </c>
+      <c r="F85" t="s">
+        <v>31</v>
+      </c>
+      <c r="H85" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I85" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
         <v>74</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B87" t="s">
         <v>13</v>
       </c>
-      <c r="D86" t="s">
-        <v>14</v>
-      </c>
-      <c r="E86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F86">
-        <v>9999999999</v>
-      </c>
-      <c r="G86" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H86" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J86" t="s">
+      <c r="D87" t="s">
+        <v>14</v>
+      </c>
+      <c r="E87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F87">
+        <v>9999999999</v>
+      </c>
+      <c r="G87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H87" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
         <v>17</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B87" t="s">
-        <v>77</v>
-      </c>
-      <c r="D87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87">
-        <v>9999999999</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87" t="s">
-        <v>33</v>
-      </c>
-      <c r="K87" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>50</v>
+        <v>75</v>
       </c>
       <c r="D88" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88">
-        <v>9999999999</v>
-      </c>
-      <c r="G88" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="F88" t="s">
+        <v>49</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J88" t="s">
-        <v>33</v>
-      </c>
-      <c r="K88" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D89" t="s">
         <v>46</v>
@@ -2331,13 +2307,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D90" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>16</v>
@@ -2345,13 +2321,13 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="D91" t="s">
-        <v>26</v>
+        <v>79</v>
       </c>
       <c r="F91" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>16</v>
@@ -2359,13 +2335,13 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D92" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="F92" t="s">
-        <v>28</v>
+        <v>72</v>
       </c>
       <c r="H92" s="2" t="s">
         <v>16</v>
@@ -2373,38 +2349,59 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="D93" t="s">
-        <v>71</v>
-      </c>
-      <c r="F93" t="s">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93">
+        <v>9999999999</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>33</v>
+      </c>
+      <c r="K93" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="D94" t="s">
-        <v>46</v>
-      </c>
-      <c r="F94" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94">
+        <v>9999999999</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I94" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>33</v>
+      </c>
+      <c r="K94" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D95" t="s">
         <v>46</v>
@@ -2421,36 +2418,24 @@
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96">
-        <v>9999999999</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>15</v>
+        <v>46</v>
+      </c>
+      <c r="F96" t="s">
+        <v>49</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I96" t="s">
         <v>34</v>
-      </c>
-      <c r="J96" t="s">
-        <v>33</v>
-      </c>
-      <c r="K96" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="97" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -2474,29 +2459,41 @@
         <v>33</v>
       </c>
       <c r="K97" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="98" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>43</v>
+        <v>60</v>
       </c>
       <c r="D98" t="s">
-        <v>46</v>
-      </c>
-      <c r="F98" t="s">
-        <v>49</v>
+        <v>14</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <v>9999999999</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I98" t="s">
         <v>34</v>
+      </c>
+      <c r="J98" t="s">
+        <v>33</v>
+      </c>
+      <c r="K98" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D99" t="s">
         <v>46</v>
@@ -2513,10 +2510,10 @@
     </row>
     <row r="100" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="F100" t="s">
         <v>49</v>
@@ -2530,7 +2527,7 @@
     </row>
     <row r="101" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D101" t="s">
         <v>25</v>
@@ -2547,53 +2544,41 @@
     </row>
     <row r="102" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>20</v>
+        <v>45</v>
       </c>
       <c r="D102" t="s">
-        <v>62</v>
+        <v>25</v>
       </c>
       <c r="F102" t="s">
-        <v>28</v>
+        <v>49</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>61</v>
+        <v>30</v>
+      </c>
+      <c r="I102" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="103" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>14</v>
-      </c>
-      <c r="E103" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F103">
-        <v>9999999999</v>
-      </c>
-      <c r="G103" s="1" t="s">
-        <v>15</v>
+        <v>62</v>
+      </c>
+      <c r="F103" t="s">
+        <v>28</v>
       </c>
       <c r="H103" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I103" t="s">
-        <v>34</v>
-      </c>
-      <c r="J103" t="s">
-        <v>33</v>
-      </c>
-      <c r="K103" t="s">
-        <v>73</v>
+        <v>16</v>
+      </c>
+      <c r="I103" s="3" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="104" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -2622,24 +2607,36 @@
     </row>
     <row r="105" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
-      </c>
-      <c r="F105" t="s">
-        <v>31</v>
+        <v>14</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F105">
+        <v>9999999999</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H105" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I105" t="s">
         <v>34</v>
+      </c>
+      <c r="J105" t="s">
+        <v>33</v>
+      </c>
+      <c r="K105" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="106" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D106" t="s">
         <v>27</v>
@@ -2651,6 +2648,23 @@
         <v>30</v>
       </c>
       <c r="I106" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>24</v>
+      </c>
+      <c r="D107" t="s">
+        <v>27</v>
+      </c>
+      <c r="F107" t="s">
+        <v>31</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I107" t="s">
         <v>34</v>
       </c>
     </row>

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="101">
   <si>
     <t>Table Name</t>
   </si>
@@ -131,21 +131,12 @@
     <t>NULL</t>
   </si>
   <si>
-    <t>vendors</t>
-  </si>
-  <si>
-    <t>vendor_type_id</t>
-  </si>
-  <si>
     <t>company_name</t>
   </si>
   <si>
     <t>contact_name</t>
   </si>
   <si>
-    <t>cantact_title</t>
-  </si>
-  <si>
     <t>phone</t>
   </si>
   <si>
@@ -264,6 +255,78 @@
   </si>
   <si>
     <t>enum{'Male','Female'}</t>
+  </si>
+  <si>
+    <t>contact_title</t>
+  </si>
+  <si>
+    <t>employees</t>
+  </si>
+  <si>
+    <t>identity_card</t>
+  </si>
+  <si>
+    <t>employee_type_id</t>
+  </si>
+  <si>
+    <t>start_work</t>
+  </si>
+  <si>
+    <t>end_work</t>
+  </si>
+  <si>
+    <t>start_contract</t>
+  </si>
+  <si>
+    <t>end_contract</t>
+  </si>
+  <si>
+    <t>spouse</t>
+  </si>
+  <si>
+    <t>minor</t>
+  </si>
+  <si>
+    <t>products</t>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>category_id</t>
+  </si>
+  <si>
+    <t>unit_price</t>
+  </si>
+  <si>
+    <t>decimal(10,2)</t>
+  </si>
+  <si>
+    <t>9999999999.99</t>
+  </si>
+  <si>
+    <t>1000000000.00-9999999999.99</t>
+  </si>
+  <si>
+    <t>unit_sale_price</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>quantity_per_unit</t>
+  </si>
+  <si>
+    <t>discontinue</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>suppliers</t>
+  </si>
+  <si>
+    <t>supplier_type_id</t>
   </si>
 </sst>
 </file>
@@ -299,7 +362,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -315,6 +378,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -596,10 +662,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M107"/>
+  <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="H95" sqref="H95"/>
+    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +696,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -691,7 +757,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -705,7 +771,7 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H5" s="2" t="s">
         <v>30</v>
@@ -719,7 +785,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
         <v>29</v>
@@ -728,7 +794,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -757,7 +823,7 @@
         <v>33</v>
       </c>
       <c r="K7" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -786,7 +852,7 @@
         <v>33</v>
       </c>
       <c r="K8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -825,7 +891,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -897,7 +963,7 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>30</v>
@@ -911,7 +977,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
         <v>29</v>
@@ -920,7 +986,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -949,7 +1015,7 @@
         <v>33</v>
       </c>
       <c r="K17" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -978,7 +1044,7 @@
         <v>33</v>
       </c>
       <c r="K18" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1018,7 +1084,7 @@
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1070,7 +1136,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1091,7 +1157,7 @@
         <v>33</v>
       </c>
       <c r="K24" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1116,7 +1182,7 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H26" s="2" t="s">
         <v>30</v>
@@ -1130,7 +1196,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F27" t="s">
         <v>29</v>
@@ -1139,7 +1205,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1168,7 +1234,7 @@
         <v>33</v>
       </c>
       <c r="K28" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1197,7 +1263,7 @@
         <v>33</v>
       </c>
       <c r="K29" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1236,7 +1302,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>35</v>
+        <v>99</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -1262,13 +1328,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>16</v>
@@ -1276,55 +1342,61 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H35" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I35" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>39</v>
+        <v>77</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H36" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I36" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="D37" t="s">
-        <v>79</v>
-      </c>
-      <c r="F37" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="E37" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F37">
+        <v>9999999999</v>
+      </c>
+      <c r="G37" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H37" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="J37" t="s">
+        <v>33</v>
+      </c>
+      <c r="K37" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>36</v>
+        <v>47</v>
       </c>
       <c r="D38" t="s">
         <v>14</v>
@@ -1345,61 +1417,46 @@
         <v>33</v>
       </c>
       <c r="K38" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F39">
-        <v>9999999999</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
+        <v>28</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J39" t="s">
-        <v>33</v>
-      </c>
-      <c r="K39" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I40" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D41" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>30</v>
@@ -1410,7 +1467,7 @@
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -1431,12 +1488,12 @@
         <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D43" t="s">
         <v>14</v>
@@ -1457,18 +1514,18 @@
         <v>33</v>
       </c>
       <c r="K43" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" t="s">
         <v>43</v>
       </c>
-      <c r="D44" t="s">
-        <v>46</v>
-      </c>
       <c r="F44" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H44" s="2" t="s">
         <v>30</v>
@@ -1479,13 +1536,13 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
+        <v>41</v>
+      </c>
+      <c r="D45" t="s">
+        <v>43</v>
+      </c>
+      <c r="F45" t="s">
         <v>44</v>
-      </c>
-      <c r="D45" t="s">
-        <v>46</v>
-      </c>
-      <c r="F45" t="s">
-        <v>47</v>
       </c>
       <c r="H45" s="2" t="s">
         <v>30</v>
@@ -1496,13 +1553,13 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H46" s="2" t="s">
         <v>30</v>
@@ -1513,13 +1570,13 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D47" t="s">
         <v>25</v>
       </c>
       <c r="F47" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H47" s="2" t="s">
         <v>30</v>
@@ -1533,7 +1590,7 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F48" t="s">
         <v>29</v>
@@ -1542,7 +1599,7 @@
         <v>16</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -1571,7 +1628,7 @@
         <v>33</v>
       </c>
       <c r="K49" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -1600,7 +1657,7 @@
         <v>33</v>
       </c>
       <c r="K50" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -1639,7 +1696,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
@@ -1673,10 +1730,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="D56" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F56" t="s">
         <v>28</v>
@@ -1687,7 +1744,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
@@ -1707,7 +1764,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -1730,7 +1787,7 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F59" t="s">
         <v>29</v>
@@ -1739,7 +1796,7 @@
         <v>16</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -1768,7 +1825,7 @@
         <v>33</v>
       </c>
       <c r="K60" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -1797,7 +1854,7 @@
         <v>33</v>
       </c>
       <c r="K61" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -1830,7 +1887,7 @@
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
@@ -1856,13 +1913,13 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D66" t="s">
         <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>16</v>
@@ -1870,93 +1927,96 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="D67" t="s">
-        <v>79</v>
-      </c>
-      <c r="F67" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="E67" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F67">
+        <v>9999999999</v>
+      </c>
+      <c r="G67" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H67" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="J67" t="s">
+        <v>33</v>
+      </c>
+      <c r="K67" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>68</v>
+        <v>47</v>
       </c>
       <c r="D68" t="s">
-        <v>71</v>
-      </c>
-      <c r="F68" t="s">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="E68" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F68">
+        <v>9999999999</v>
+      </c>
+      <c r="G68" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="J68" t="s">
+        <v>33</v>
+      </c>
+      <c r="K68" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F69">
-        <v>9999999999</v>
-      </c>
-      <c r="G69" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="F69" t="s">
+        <v>28</v>
       </c>
       <c r="H69" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J69" t="s">
-        <v>33</v>
-      </c>
-      <c r="K69" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F70">
-        <v>9999999999</v>
-      </c>
-      <c r="G70" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="F70" t="s">
+        <v>69</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J70" t="s">
-        <v>33</v>
-      </c>
-      <c r="K70" t="s">
-        <v>56</v>
+        <v>30</v>
+      </c>
+      <c r="I70" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
+        <v>43</v>
+      </c>
+      <c r="F71" t="s">
         <v>46</v>
-      </c>
-      <c r="F71" t="s">
-        <v>49</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>30</v>
@@ -1967,13 +2027,13 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="D72" t="s">
+        <v>43</v>
+      </c>
+      <c r="F72" t="s">
         <v>46</v>
-      </c>
-      <c r="F72" t="s">
-        <v>49</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>30</v>
@@ -1984,13 +2044,13 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D73" t="s">
         <v>26</v>
       </c>
       <c r="F73" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>30</v>
@@ -2001,13 +2061,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D74" t="s">
+        <v>43</v>
+      </c>
+      <c r="F74" t="s">
         <v>46</v>
-      </c>
-      <c r="F74" t="s">
-        <v>49</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>30</v>
@@ -2018,7 +2078,7 @@
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -2042,12 +2102,12 @@
         <v>33</v>
       </c>
       <c r="K75" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="D76" t="s">
         <v>14</v>
@@ -2071,18 +2131,18 @@
         <v>33</v>
       </c>
       <c r="K76" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
+        <v>40</v>
+      </c>
+      <c r="D77" t="s">
         <v>43</v>
       </c>
-      <c r="D77" t="s">
+      <c r="F77" t="s">
         <v>46</v>
-      </c>
-      <c r="F77" t="s">
-        <v>49</v>
       </c>
       <c r="H77" s="2" t="s">
         <v>30</v>
@@ -2093,13 +2153,13 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
         <v>46</v>
-      </c>
-      <c r="F78" t="s">
-        <v>49</v>
       </c>
       <c r="H78" s="2" t="s">
         <v>30</v>
@@ -2110,13 +2170,13 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H79" s="2" t="s">
         <v>30</v>
@@ -2127,13 +2187,13 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D80" t="s">
         <v>25</v>
       </c>
       <c r="F80" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H80" s="2" t="s">
         <v>30</v>
@@ -2147,7 +2207,7 @@
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F81" t="s">
         <v>28</v>
@@ -2156,7 +2216,7 @@
         <v>16</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -2185,7 +2245,7 @@
         <v>33</v>
       </c>
       <c r="K82" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -2214,7 +2274,7 @@
         <v>33</v>
       </c>
       <c r="K83" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -2253,7 +2313,7 @@
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
@@ -2279,13 +2339,13 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D88" t="s">
+        <v>43</v>
+      </c>
+      <c r="F88" t="s">
         <v>46</v>
-      </c>
-      <c r="F88" t="s">
-        <v>49</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>16</v>
@@ -2293,13 +2353,13 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D89" t="s">
+        <v>43</v>
+      </c>
+      <c r="F89" t="s">
         <v>46</v>
-      </c>
-      <c r="F89" t="s">
-        <v>49</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>16</v>
@@ -2307,13 +2367,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>16</v>
@@ -2321,203 +2381,203 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D91" t="s">
-        <v>79</v>
-      </c>
-      <c r="F91" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F91">
+        <v>9999999999</v>
+      </c>
+      <c r="G91" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H91" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>33</v>
+      </c>
+      <c r="K91" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>68</v>
+        <v>21</v>
       </c>
       <c r="D92" t="s">
-        <v>71</v>
-      </c>
-      <c r="F92" t="s">
-        <v>72</v>
+        <v>14</v>
+      </c>
+      <c r="E92" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F92">
+        <v>9999999999</v>
+      </c>
+      <c r="G92" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I92" t="s">
+        <v>34</v>
+      </c>
+      <c r="J92" t="s">
+        <v>33</v>
+      </c>
+      <c r="K92" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>77</v>
+        <v>64</v>
       </c>
       <c r="D93" t="s">
-        <v>14</v>
-      </c>
-      <c r="E93" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F93">
-        <v>9999999999</v>
-      </c>
-      <c r="G93" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="F93" t="s">
+        <v>28</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J93" t="s">
-        <v>33</v>
-      </c>
-      <c r="K93" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="D94" t="s">
-        <v>14</v>
-      </c>
-      <c r="E94" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F94">
-        <v>9999999999</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>15</v>
+        <v>68</v>
+      </c>
+      <c r="F94" t="s">
+        <v>69</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J94" t="s">
-        <v>33</v>
-      </c>
-      <c r="K94" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D95" t="s">
+        <v>43</v>
+      </c>
+      <c r="F95" t="s">
         <v>46</v>
       </c>
-      <c r="F95" t="s">
-        <v>49</v>
-      </c>
       <c r="H95" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I95" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
+        <v>38</v>
+      </c>
+      <c r="D96" t="s">
+        <v>43</v>
+      </c>
+      <c r="F96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I96" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>56</v>
+      </c>
+      <c r="D97" t="s">
+        <v>14</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F97">
+        <v>9999999999</v>
+      </c>
+      <c r="G97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I97" t="s">
+        <v>34</v>
+      </c>
+      <c r="J97" t="s">
+        <v>33</v>
+      </c>
+      <c r="K97" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>57</v>
+      </c>
+      <c r="D98" t="s">
+        <v>14</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <v>9999999999</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I98" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" t="s">
+        <v>33</v>
+      </c>
+      <c r="K98" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>40</v>
+      </c>
+      <c r="D99" t="s">
+        <v>43</v>
+      </c>
+      <c r="F99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I99" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
         <v>41</v>
       </c>
-      <c r="D96" t="s">
+      <c r="D100" t="s">
+        <v>43</v>
+      </c>
+      <c r="F100" t="s">
         <v>46</v>
       </c>
-      <c r="F96" t="s">
-        <v>49</v>
-      </c>
-      <c r="H96" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I96" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="97" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>59</v>
-      </c>
-      <c r="D97" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97">
-        <v>9999999999</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I97" t="s">
-        <v>34</v>
-      </c>
-      <c r="J97" t="s">
-        <v>33</v>
-      </c>
-      <c r="K97" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="98" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B98" t="s">
-        <v>60</v>
-      </c>
-      <c r="D98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98">
-        <v>9999999999</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H98" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I98" t="s">
-        <v>34</v>
-      </c>
-      <c r="J98" t="s">
-        <v>33</v>
-      </c>
-      <c r="K98" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="99" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B99" t="s">
-        <v>43</v>
-      </c>
-      <c r="D99" t="s">
-        <v>46</v>
-      </c>
-      <c r="F99" t="s">
-        <v>49</v>
-      </c>
-      <c r="H99" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I99" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="100" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B100" t="s">
-        <v>44</v>
-      </c>
-      <c r="D100" t="s">
-        <v>46</v>
-      </c>
-      <c r="F100" t="s">
-        <v>49</v>
-      </c>
       <c r="H100" s="2" t="s">
         <v>30</v>
       </c>
@@ -2525,15 +2585,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="101" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D101" t="s">
         <v>25</v>
       </c>
       <c r="F101" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H101" s="2" t="s">
         <v>30</v>
@@ -2542,15 +2602,15 @@
         <v>34</v>
       </c>
     </row>
-    <row r="102" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D102" t="s">
         <v>25</v>
       </c>
       <c r="F102" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>30</v>
@@ -2559,12 +2619,12 @@
         <v>34</v>
       </c>
     </row>
-    <row r="103" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
         <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F103" t="s">
         <v>28</v>
@@ -2573,12 +2633,12 @@
         <v>16</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="104" spans="2:11" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -2593,19 +2653,16 @@
         <v>15</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I104" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="J104" t="s">
         <v>33</v>
       </c>
       <c r="K104" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="105" spans="2:11" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
         <v>22</v>
       </c>
@@ -2631,10 +2688,10 @@
         <v>33</v>
       </c>
       <c r="K105" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="106" spans="2:11" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
         <v>23</v>
       </c>
@@ -2651,7 +2708,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="107" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
         <v>24</v>
       </c>
@@ -2665,6 +2722,850 @@
         <v>30</v>
       </c>
       <c r="I107" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>78</v>
+      </c>
+      <c r="B109" t="s">
+        <v>13</v>
+      </c>
+      <c r="D109" t="s">
+        <v>14</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F109">
+        <v>9999999999</v>
+      </c>
+      <c r="G109" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>79</v>
+      </c>
+      <c r="D110" t="s">
+        <v>26</v>
+      </c>
+      <c r="F110" t="s">
+        <v>46</v>
+      </c>
+      <c r="G110" s="1"/>
+      <c r="H110" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>72</v>
+      </c>
+      <c r="D111" t="s">
+        <v>43</v>
+      </c>
+      <c r="F111" t="s">
+        <v>46</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>73</v>
+      </c>
+      <c r="D112" t="s">
+        <v>43</v>
+      </c>
+      <c r="F112" t="s">
+        <v>46</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>75</v>
+      </c>
+      <c r="D113" t="s">
+        <v>26</v>
+      </c>
+      <c r="F113" t="s">
+        <v>44</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>80</v>
+      </c>
+      <c r="D114" t="s">
+        <v>14</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F114">
+        <v>9999999999</v>
+      </c>
+      <c r="G114" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J114" t="s">
+        <v>33</v>
+      </c>
+      <c r="K114" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
+        <v>47</v>
+      </c>
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115">
+        <v>9999999999</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J115" t="s">
+        <v>33</v>
+      </c>
+      <c r="K115" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>64</v>
+      </c>
+      <c r="D116" t="s">
+        <v>76</v>
+      </c>
+      <c r="F116" t="s">
+        <v>28</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>65</v>
+      </c>
+      <c r="D117" t="s">
+        <v>68</v>
+      </c>
+      <c r="F117" t="s">
+        <v>69</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>81</v>
+      </c>
+      <c r="D118" t="s">
+        <v>68</v>
+      </c>
+      <c r="F118" t="s">
+        <v>69</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>82</v>
+      </c>
+      <c r="D119" t="s">
+        <v>68</v>
+      </c>
+      <c r="F119" t="s">
+        <v>69</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>83</v>
+      </c>
+      <c r="D120" t="s">
+        <v>68</v>
+      </c>
+      <c r="F120" t="s">
+        <v>69</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>84</v>
+      </c>
+      <c r="D121" t="s">
+        <v>68</v>
+      </c>
+      <c r="F121" t="s">
+        <v>69</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>85</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="F122">
+        <v>9999999999</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I122" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>86</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="F123">
+        <v>9999999999</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I123" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>37</v>
+      </c>
+      <c r="D124" t="s">
+        <v>43</v>
+      </c>
+      <c r="F124" t="s">
+        <v>46</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>38</v>
+      </c>
+      <c r="D125" t="s">
+        <v>43</v>
+      </c>
+      <c r="F125" t="s">
+        <v>46</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I125" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B126" t="s">
+        <v>56</v>
+      </c>
+      <c r="D126" t="s">
+        <v>14</v>
+      </c>
+      <c r="E126" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F126">
+        <v>9999999999</v>
+      </c>
+      <c r="G126" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H126" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I126" t="s">
+        <v>34</v>
+      </c>
+      <c r="J126" t="s">
+        <v>33</v>
+      </c>
+      <c r="K126" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B127" t="s">
+        <v>57</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127">
+        <v>9999999999</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I127" t="s">
+        <v>34</v>
+      </c>
+      <c r="J127" t="s">
+        <v>33</v>
+      </c>
+      <c r="K127" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>40</v>
+      </c>
+      <c r="D128" t="s">
+        <v>43</v>
+      </c>
+      <c r="F128" t="s">
+        <v>46</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I128" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>41</v>
+      </c>
+      <c r="D129" t="s">
+        <v>43</v>
+      </c>
+      <c r="F129" t="s">
+        <v>46</v>
+      </c>
+      <c r="H129" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I129" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>39</v>
+      </c>
+      <c r="D130" t="s">
+        <v>25</v>
+      </c>
+      <c r="F130" t="s">
+        <v>46</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I130" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>42</v>
+      </c>
+      <c r="D131" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" t="s">
+        <v>46</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I131" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>20</v>
+      </c>
+      <c r="D132" t="s">
+        <v>59</v>
+      </c>
+      <c r="F132" t="s">
+        <v>28</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I132" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>21</v>
+      </c>
+      <c r="D133" t="s">
+        <v>14</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F133">
+        <v>9999999999</v>
+      </c>
+      <c r="G133" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I133" t="s">
+        <v>34</v>
+      </c>
+      <c r="J133" t="s">
+        <v>33</v>
+      </c>
+      <c r="K133" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>22</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134">
+        <v>9999999999</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I134" t="s">
+        <v>34</v>
+      </c>
+      <c r="J134" t="s">
+        <v>33</v>
+      </c>
+      <c r="K134" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>23</v>
+      </c>
+      <c r="D135" t="s">
+        <v>27</v>
+      </c>
+      <c r="F135" t="s">
+        <v>31</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I135" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>24</v>
+      </c>
+      <c r="D136" t="s">
+        <v>27</v>
+      </c>
+      <c r="F136" t="s">
+        <v>31</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I136" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>87</v>
+      </c>
+      <c r="B138" t="s">
+        <v>13</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138">
+        <v>9999999999</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>88</v>
+      </c>
+      <c r="D139" t="s">
+        <v>26</v>
+      </c>
+      <c r="F139" t="s">
+        <v>46</v>
+      </c>
+      <c r="G139" s="1"/>
+      <c r="H139" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>18</v>
+      </c>
+      <c r="D140" t="s">
+        <v>26</v>
+      </c>
+      <c r="F140" t="s">
+        <v>46</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>89</v>
+      </c>
+      <c r="D141" t="s">
+        <v>14</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F141">
+        <v>9999999999</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>33</v>
+      </c>
+      <c r="K141" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>47</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142">
+        <v>9999999999</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>33</v>
+      </c>
+      <c r="K142" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>90</v>
+      </c>
+      <c r="D143" t="s">
+        <v>91</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G143" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H143" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B144" t="s">
+        <v>94</v>
+      </c>
+      <c r="D144" t="s">
+        <v>91</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="H144" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>95</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145">
+        <v>9999999999</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B146" t="s">
+        <v>96</v>
+      </c>
+      <c r="D146" t="s">
+        <v>26</v>
+      </c>
+      <c r="F146" t="s">
+        <v>46</v>
+      </c>
+      <c r="G146" s="1"/>
+      <c r="H146" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I146" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B147" t="s">
+        <v>97</v>
+      </c>
+      <c r="D147" t="s">
+        <v>98</v>
+      </c>
+      <c r="F147" t="s">
+        <v>46</v>
+      </c>
+      <c r="H147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B148" t="s">
+        <v>19</v>
+      </c>
+      <c r="D148" t="s">
+        <v>25</v>
+      </c>
+      <c r="F148" t="s">
+        <v>46</v>
+      </c>
+      <c r="H148" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I148" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>20</v>
+      </c>
+      <c r="D149" t="s">
+        <v>59</v>
+      </c>
+      <c r="F149" t="s">
+        <v>28</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I149" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>21</v>
+      </c>
+      <c r="D150" t="s">
+        <v>14</v>
+      </c>
+      <c r="E150" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F150">
+        <v>9999999999</v>
+      </c>
+      <c r="G150" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I150" t="s">
+        <v>34</v>
+      </c>
+      <c r="J150" t="s">
+        <v>33</v>
+      </c>
+      <c r="K150" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
+        <v>22</v>
+      </c>
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151">
+        <v>9999999999</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I151" t="s">
+        <v>34</v>
+      </c>
+      <c r="J151" t="s">
+        <v>33</v>
+      </c>
+      <c r="K151" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
+        <v>23</v>
+      </c>
+      <c r="D152" t="s">
+        <v>27</v>
+      </c>
+      <c r="F152" t="s">
+        <v>31</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I152" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
+        <v>24</v>
+      </c>
+      <c r="D153" t="s">
+        <v>27</v>
+      </c>
+      <c r="F153" t="s">
+        <v>31</v>
+      </c>
+      <c r="H153" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I153" t="s">
         <v>34</v>
       </c>
     </row>

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A133" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D50" sqref="D50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1396,39 +1396,27 @@
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F38">
-        <v>9999999999</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="F38" t="s">
+        <v>28</v>
       </c>
       <c r="H38" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J38" t="s">
-        <v>33</v>
-      </c>
-      <c r="K38" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="D39" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>16</v>
@@ -1436,38 +1424,50 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D40" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
         <v>44</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I40" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D41" t="s">
-        <v>26</v>
-      </c>
-      <c r="F41" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="F41">
+        <v>9999999999</v>
+      </c>
+      <c r="G41" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H41" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I41" t="s">
         <v>34</v>
+      </c>
+      <c r="J41" t="s">
+        <v>33</v>
+      </c>
+      <c r="K41" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -1488,38 +1488,29 @@
         <v>33</v>
       </c>
       <c r="K42" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43">
-        <v>9999999999</v>
-      </c>
-      <c r="G43" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="F43" t="s">
+        <v>44</v>
       </c>
       <c r="H43" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I43" t="s">
         <v>34</v>
-      </c>
-      <c r="J43" t="s">
-        <v>33</v>
-      </c>
-      <c r="K43" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
@@ -1536,10 +1527,10 @@
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D45" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F45" t="s">
         <v>44</v>
@@ -1553,7 +1544,7 @@
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
@@ -1570,19 +1561,28 @@
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D47" t="s">
-        <v>25</v>
-      </c>
-      <c r="F47" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="E47" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F47">
+        <v>9999999999</v>
+      </c>
+      <c r="G47" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I47" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="J47" t="s">
+        <v>33</v>
+      </c>
+      <c r="K47" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1953,53 +1953,44 @@
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68">
-        <v>9999999999</v>
-      </c>
-      <c r="G68" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="F68" t="s">
+        <v>28</v>
       </c>
       <c r="H68" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J68" t="s">
-        <v>33</v>
-      </c>
-      <c r="K68" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D69" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F69" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I69" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D70" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H70" s="2" t="s">
         <v>30</v>
@@ -2010,7 +2001,7 @@
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D71" t="s">
         <v>43</v>
@@ -2027,10 +2018,10 @@
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="D72" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F72" t="s">
         <v>46</v>
@@ -2044,10 +2035,10 @@
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D73" t="s">
-        <v>26</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
         <v>46</v>
@@ -2061,24 +2052,36 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="D74" t="s">
-        <v>43</v>
-      </c>
-      <c r="F74" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F74">
+        <v>9999999999</v>
+      </c>
+      <c r="G74" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I74" t="s">
         <v>34</v>
+      </c>
+      <c r="J74" t="s">
+        <v>33</v>
+      </c>
+      <c r="K74" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -2102,41 +2105,29 @@
         <v>33</v>
       </c>
       <c r="K75" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F76">
-        <v>9999999999</v>
-      </c>
-      <c r="G76" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="F76" t="s">
+        <v>46</v>
       </c>
       <c r="H76" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I76" t="s">
         <v>34</v>
-      </c>
-      <c r="J76" t="s">
-        <v>33</v>
-      </c>
-      <c r="K76" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D77" t="s">
         <v>43</v>
@@ -2153,10 +2144,10 @@
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D78" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F78" t="s">
         <v>46</v>
@@ -2170,7 +2161,7 @@
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
@@ -2187,19 +2178,28 @@
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
-      </c>
-      <c r="F80" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="E80" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F80">
+        <v>9999999999</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I80" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="J80" t="s">
+        <v>33</v>
+      </c>
+      <c r="K80" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -2407,42 +2407,27 @@
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>21</v>
+        <v>64</v>
       </c>
       <c r="D92" t="s">
-        <v>14</v>
-      </c>
-      <c r="E92" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F92">
-        <v>9999999999</v>
-      </c>
-      <c r="G92" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="F92" t="s">
+        <v>28</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I92" t="s">
-        <v>34</v>
-      </c>
-      <c r="J92" t="s">
-        <v>33</v>
-      </c>
-      <c r="K92" t="s">
-        <v>70</v>
+        <v>16</v>
       </c>
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D93" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F93" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>16</v>
@@ -2450,13 +2435,13 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>65</v>
+        <v>37</v>
       </c>
       <c r="D94" t="s">
-        <v>68</v>
+        <v>43</v>
       </c>
       <c r="F94" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>16</v>
@@ -2464,7 +2449,7 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D95" t="s">
         <v>43</v>
@@ -2473,29 +2458,44 @@
         <v>46</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I95" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D96" t="s">
-        <v>43</v>
-      </c>
-      <c r="F96" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="E96" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F96">
+        <v>9999999999</v>
+      </c>
+      <c r="G96" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I96" t="s">
         <v>34</v>
+      </c>
+      <c r="J96" t="s">
+        <v>33</v>
+      </c>
+      <c r="K96" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -2519,41 +2519,29 @@
         <v>33</v>
       </c>
       <c r="K97" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D98" t="s">
-        <v>14</v>
-      </c>
-      <c r="E98" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F98">
-        <v>9999999999</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="F98" t="s">
+        <v>46</v>
       </c>
       <c r="H98" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I98" t="s">
         <v>34</v>
-      </c>
-      <c r="J98" t="s">
-        <v>33</v>
-      </c>
-      <c r="K98" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D99" t="s">
         <v>43</v>
@@ -2570,10 +2558,10 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D100" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F100" t="s">
         <v>46</v>
@@ -2587,7 +2575,7 @@
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D101" t="s">
         <v>25</v>
@@ -2604,19 +2592,28 @@
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D102" t="s">
-        <v>25</v>
-      </c>
-      <c r="F102" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="E102" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F102">
+        <v>9999999999</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H102" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I102" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>33</v>
+      </c>
+      <c r="K102" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -2638,7 +2635,7 @@
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>47</v>
+        <v>21</v>
       </c>
       <c r="D104" t="s">
         <v>14</v>
@@ -2653,13 +2650,16 @@
         <v>15</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I104" t="s">
+        <v>34</v>
       </c>
       <c r="J104" t="s">
         <v>33</v>
       </c>
       <c r="K104" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -2836,39 +2836,27 @@
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>47</v>
+        <v>64</v>
       </c>
       <c r="D115" t="s">
-        <v>14</v>
-      </c>
-      <c r="E115" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F115">
-        <v>9999999999</v>
-      </c>
-      <c r="G115" s="1" t="s">
-        <v>15</v>
+        <v>76</v>
+      </c>
+      <c r="F115" t="s">
+        <v>28</v>
       </c>
       <c r="H115" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J115" t="s">
-        <v>33</v>
-      </c>
-      <c r="K115" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D116" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="F116" t="s">
-        <v>28</v>
+        <v>69</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>16</v>
@@ -2876,7 +2864,7 @@
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="D117" t="s">
         <v>68</v>
@@ -2885,12 +2873,12 @@
         <v>69</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="D118" t="s">
         <v>68</v>
@@ -2904,7 +2892,7 @@
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="D119" t="s">
         <v>68</v>
@@ -2918,7 +2906,7 @@
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="D120" t="s">
         <v>68</v>
@@ -2932,21 +2920,27 @@
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="D121" t="s">
-        <v>68</v>
-      </c>
-      <c r="F121" t="s">
-        <v>69</v>
+        <v>14</v>
+      </c>
+      <c r="F121">
+        <v>9999999999</v>
+      </c>
+      <c r="G121" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H121" s="2" t="s">
         <v>30</v>
+      </c>
+      <c r="I121" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="D122" t="s">
         <v>14</v>
@@ -2966,27 +2960,21 @@
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="D123" t="s">
-        <v>14</v>
-      </c>
-      <c r="F123">
-        <v>9999999999</v>
-      </c>
-      <c r="G123" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="F123" t="s">
+        <v>46</v>
       </c>
       <c r="H123" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I123" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="D124" t="s">
         <v>43</v>
@@ -2995,29 +2983,44 @@
         <v>46</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I124" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="D125" t="s">
-        <v>43</v>
-      </c>
-      <c r="F125" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="E125" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F125">
+        <v>9999999999</v>
+      </c>
+      <c r="G125" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H125" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I125" t="s">
         <v>34</v>
+      </c>
+      <c r="J125" t="s">
+        <v>33</v>
+      </c>
+      <c r="K125" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D126" t="s">
         <v>14</v>
@@ -3041,41 +3044,29 @@
         <v>33</v>
       </c>
       <c r="K126" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D127" t="s">
-        <v>14</v>
-      </c>
-      <c r="E127" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F127">
-        <v>9999999999</v>
-      </c>
-      <c r="G127" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="F127" t="s">
+        <v>46</v>
       </c>
       <c r="H127" s="2" t="s">
         <v>30</v>
       </c>
       <c r="I127" t="s">
         <v>34</v>
-      </c>
-      <c r="J127" t="s">
-        <v>33</v>
-      </c>
-      <c r="K127" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D128" t="s">
         <v>43</v>
@@ -3092,10 +3083,10 @@
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D129" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="F129" t="s">
         <v>46</v>
@@ -3109,7 +3100,7 @@
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D130" t="s">
         <v>25</v>
@@ -3126,19 +3117,28 @@
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="D131" t="s">
-        <v>25</v>
-      </c>
-      <c r="F131" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="E131" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F131">
+        <v>9999999999</v>
+      </c>
+      <c r="G131" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H131" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I131" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>33</v>
+      </c>
+      <c r="K131" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -3333,33 +3333,24 @@
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>47</v>
+        <v>90</v>
       </c>
       <c r="D142" t="s">
-        <v>14</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F142">
-        <v>9999999999</v>
-      </c>
-      <c r="G142" s="1" t="s">
-        <v>15</v>
+        <v>91</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="G142" s="6" t="s">
+        <v>93</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J142" t="s">
-        <v>33</v>
-      </c>
-      <c r="K142" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D143" t="s">
         <v>91</v>
@@ -3376,16 +3367,16 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D144" t="s">
-        <v>91</v>
-      </c>
-      <c r="F144" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G144" s="6" t="s">
-        <v>93</v>
+        <v>14</v>
+      </c>
+      <c r="F144">
+        <v>9999999999</v>
+      </c>
+      <c r="G144" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>16</v>
@@ -3393,71 +3384,80 @@
     </row>
     <row r="145" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="F145">
-        <v>9999999999</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F145" t="s">
+        <v>46</v>
+      </c>
+      <c r="G145" s="1"/>
       <c r="H145" s="2" t="s">
-        <v>16</v>
+        <v>30</v>
+      </c>
+      <c r="I145" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="146" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="D146" t="s">
-        <v>26</v>
+        <v>98</v>
       </c>
       <c r="F146" t="s">
         <v>46</v>
       </c>
-      <c r="G146" s="1"/>
       <c r="H146" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I146" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="I146" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>97</v>
+        <v>19</v>
       </c>
       <c r="D147" t="s">
-        <v>98</v>
+        <v>25</v>
       </c>
       <c r="F147" t="s">
         <v>46</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I147" s="3">
-        <v>0</v>
+        <v>30</v>
+      </c>
+      <c r="I147" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="148" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="D148" t="s">
-        <v>25</v>
-      </c>
-      <c r="F148" t="s">
-        <v>46</v>
+        <v>14</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148">
+        <v>9999999999</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I148" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="J148" t="s">
+        <v>33</v>
+      </c>
+      <c r="K148" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="149" spans="2:11" x14ac:dyDescent="0.25">

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A130" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D50" sqref="D50"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B117" sqref="B117"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="811" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="109">
   <si>
     <t>Table Name</t>
   </si>
@@ -113,9 +113,6 @@
     <t>Xxxx</t>
   </si>
   <si>
-    <t>XXXX</t>
-  </si>
-  <si>
     <t>N</t>
   </si>
   <si>
@@ -161,9 +158,6 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>xxxx</t>
-  </si>
-  <si>
     <t>N/a</t>
   </si>
   <si>
@@ -206,9 +200,6 @@
     <t>enum{'Enabled','Disabled'}</t>
   </si>
   <si>
-    <t>enum{'Assets','Equity','Expenses','Liabilities','Revenue'}</t>
-  </si>
-  <si>
     <t>customers</t>
   </si>
   <si>
@@ -327,6 +318,39 @@
   </si>
   <si>
     <t>supplier_type_id</t>
+  </si>
+  <si>
+    <t>Xxx</t>
+  </si>
+  <si>
+    <t>enum{'Assets','Equity','Expenses','Liabilities','Revenue','Bank'}</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>remember_token</t>
+  </si>
+  <si>
+    <t>branch_ids</t>
+  </si>
+  <si>
+    <t>role</t>
+  </si>
+  <si>
+    <t>varchar(100)</t>
+  </si>
+  <si>
+    <t>enum{'Accountant','Administrator','Receptionist','Owner'}</t>
+  </si>
+  <si>
+    <t>y</t>
+  </si>
+  <si>
+    <t>branches</t>
+  </si>
+  <si>
+    <t>website</t>
   </si>
 </sst>
 </file>
@@ -662,10 +686,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M153"/>
+  <dimension ref="A1:M192"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B117" sqref="B117"/>
+    <sheetView tabSelected="1" topLeftCell="B157" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H179" sqref="H179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -673,7 +697,7 @@
     <col min="1" max="1" width="21" customWidth="1"/>
     <col min="2" max="2" width="18.28515625" customWidth="1"/>
     <col min="3" max="3" width="18.140625" customWidth="1"/>
-    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="2"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="36.42578125" customWidth="1"/>
@@ -696,7 +720,7 @@
         <v>6</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F1" t="s">
         <v>3</v>
@@ -757,7 +781,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>98</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -771,13 +795,13 @@
         <v>25</v>
       </c>
       <c r="F5" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -785,16 +809,16 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -814,16 +838,16 @@
         <v>15</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -843,16 +867,16 @@
         <v>15</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -863,13 +887,13 @@
         <v>27</v>
       </c>
       <c r="F9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -880,18 +904,18 @@
         <v>27</v>
       </c>
       <c r="F10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -917,7 +941,7 @@
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D13" t="s">
         <v>14</v>
@@ -935,7 +959,7 @@
         <v>16</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" t="s">
         <v>12</v>
@@ -963,13 +987,13 @@
         <v>25</v>
       </c>
       <c r="F15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H15" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I15" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -977,16 +1001,16 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1006,16 +1030,16 @@
         <v>15</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I17" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1035,16 +1059,16 @@
         <v>15</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1055,13 +1079,13 @@
         <v>27</v>
       </c>
       <c r="F19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
@@ -1072,19 +1096,19 @@
         <v>27</v>
       </c>
       <c r="F20" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1110,7 +1134,7 @@
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D23" t="s">
         <v>14</v>
@@ -1128,7 +1152,7 @@
         <v>16</v>
       </c>
       <c r="J23" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K23" t="s">
         <v>12</v>
@@ -1136,7 +1160,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1154,10 +1178,10 @@
         <v>16</v>
       </c>
       <c r="J24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K24" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1182,13 +1206,13 @@
         <v>25</v>
       </c>
       <c r="F26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I26" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
@@ -1196,16 +1220,16 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F27" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H27" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1225,16 +1249,16 @@
         <v>15</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K28" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1254,16 +1278,16 @@
         <v>15</v>
       </c>
       <c r="H29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I29" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J29" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K29" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1274,13 +1298,13 @@
         <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H30" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I30" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
@@ -1291,18 +1315,18 @@
         <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H31" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I31" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -1328,13 +1352,13 @@
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D34" t="s">
         <v>26</v>
       </c>
       <c r="F34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H34" s="2" t="s">
         <v>16</v>
@@ -1342,13 +1366,13 @@
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D35" t="s">
         <v>26</v>
       </c>
       <c r="F35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H35" s="2" t="s">
         <v>16</v>
@@ -1356,13 +1380,13 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
       </c>
       <c r="F36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H36" s="2" t="s">
         <v>16</v>
@@ -1370,7 +1394,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -1388,18 +1412,18 @@
         <v>16</v>
       </c>
       <c r="J37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K37" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D38" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
@@ -1410,13 +1434,13 @@
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D39" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" t="s">
         <v>43</v>
-      </c>
-      <c r="F39" t="s">
-        <v>44</v>
       </c>
       <c r="H39" s="2" t="s">
         <v>16</v>
@@ -1424,24 +1448,24 @@
     </row>
     <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D40" t="s">
         <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H40" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I40" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -1453,21 +1477,21 @@
         <v>15</v>
       </c>
       <c r="H41" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I41" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J41" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K41" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -1479,89 +1503,89 @@
         <v>15</v>
       </c>
       <c r="H42" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I42" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J42" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K42" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D43" t="s">
+        <v>42</v>
+      </c>
+      <c r="F43" t="s">
         <v>43</v>
       </c>
-      <c r="F43" t="s">
-        <v>44</v>
-      </c>
       <c r="H43" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I43" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D44" t="s">
+        <v>42</v>
+      </c>
+      <c r="F44" t="s">
         <v>43</v>
       </c>
-      <c r="F44" t="s">
-        <v>44</v>
-      </c>
       <c r="H44" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I44" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D45" t="s">
         <v>25</v>
       </c>
       <c r="F45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H45" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I45" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D46" t="s">
         <v>25</v>
       </c>
       <c r="F46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H46" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I46" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D47" t="s">
         <v>14</v>
@@ -1579,10 +1603,10 @@
         <v>16</v>
       </c>
       <c r="J47" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K47" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1590,16 +1614,16 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F48" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H48" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -1619,16 +1643,16 @@
         <v>15</v>
       </c>
       <c r="H49" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I49" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J49" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K49" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -1648,16 +1672,16 @@
         <v>15</v>
       </c>
       <c r="H50" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I50" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J50" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K50" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -1668,13 +1692,13 @@
         <v>27</v>
       </c>
       <c r="F51" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I51" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
@@ -1685,18 +1709,18 @@
         <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I52" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
@@ -1730,10 +1754,10 @@
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D56" t="s">
-        <v>60</v>
+        <v>99</v>
       </c>
       <c r="F56" t="s">
         <v>28</v>
@@ -1744,7 +1768,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D57" t="s">
         <v>14</v>
@@ -1764,7 +1788,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D58" t="s">
         <v>14</v>
@@ -1787,16 +1811,16 @@
         <v>20</v>
       </c>
       <c r="D59" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F59" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="H59" s="2" t="s">
         <v>16</v>
       </c>
       <c r="I59" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
@@ -1816,16 +1840,16 @@
         <v>15</v>
       </c>
       <c r="H60" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I60" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J60" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K60" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
@@ -1845,16 +1869,16 @@
         <v>15</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I61" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J61" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K61" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
@@ -1865,10 +1889,10 @@
         <v>27</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I62" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
@@ -1879,15 +1903,15 @@
         <v>27</v>
       </c>
       <c r="H63" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I63" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B65" t="s">
         <v>13</v>
@@ -1913,13 +1937,13 @@
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D66" t="s">
         <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H66" s="2" t="s">
         <v>16</v>
@@ -1927,7 +1951,7 @@
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D67" t="s">
         <v>14</v>
@@ -1945,18 +1969,18 @@
         <v>16</v>
       </c>
       <c r="J67" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K67" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D68" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F68" t="s">
         <v>28</v>
@@ -1967,92 +1991,92 @@
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
+        <v>62</v>
+      </c>
+      <c r="D69" t="s">
         <v>65</v>
       </c>
-      <c r="D69" t="s">
-        <v>68</v>
-      </c>
       <c r="F69" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I69" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D70" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F70" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I70" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D71" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F71" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H71" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I71" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="D72" t="s">
         <v>26</v>
       </c>
       <c r="F72" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I72" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="D73" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F73" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H73" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I73" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D74" t="s">
         <v>14</v>
@@ -2067,21 +2091,21 @@
         <v>15</v>
       </c>
       <c r="H74" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I74" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J74" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K74" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B75" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D75" t="s">
         <v>14</v>
@@ -2096,89 +2120,89 @@
         <v>15</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I75" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J75" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K75" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D76" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I76" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D77" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F77" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I77" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D78" t="s">
         <v>25</v>
       </c>
       <c r="F78" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I78" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D79" t="s">
         <v>25</v>
       </c>
       <c r="F79" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I79" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -2196,10 +2220,10 @@
         <v>16</v>
       </c>
       <c r="J80" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K80" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="81" spans="1:11" x14ac:dyDescent="0.25">
@@ -2207,7 +2231,7 @@
         <v>20</v>
       </c>
       <c r="D81" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F81" t="s">
         <v>28</v>
@@ -2216,7 +2240,7 @@
         <v>16</v>
       </c>
       <c r="I81" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="82" spans="1:11" x14ac:dyDescent="0.25">
@@ -2236,16 +2260,16 @@
         <v>15</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I82" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J82" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K82" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="83" spans="1:11" x14ac:dyDescent="0.25">
@@ -2265,16 +2289,16 @@
         <v>15</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I83" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J83" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K83" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="84" spans="1:11" x14ac:dyDescent="0.25">
@@ -2285,13 +2309,13 @@
         <v>27</v>
       </c>
       <c r="F84" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I84" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="85" spans="1:11" x14ac:dyDescent="0.25">
@@ -2302,18 +2326,18 @@
         <v>27</v>
       </c>
       <c r="F85" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H85" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I85" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B87" t="s">
         <v>13</v>
@@ -2339,13 +2363,13 @@
     </row>
     <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D88" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F88" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H88" s="2" t="s">
         <v>16</v>
@@ -2353,13 +2377,13 @@
     </row>
     <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D89" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F89" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H89" s="2" t="s">
         <v>16</v>
@@ -2367,13 +2391,13 @@
     </row>
     <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
       </c>
       <c r="F90" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H90" s="2" t="s">
         <v>16</v>
@@ -2381,7 +2405,7 @@
     </row>
     <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -2399,18 +2423,18 @@
         <v>16</v>
       </c>
       <c r="J91" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K91" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D92" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F92" t="s">
         <v>28</v>
@@ -2421,13 +2445,13 @@
     </row>
     <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
+        <v>62</v>
+      </c>
+      <c r="D93" t="s">
         <v>65</v>
       </c>
-      <c r="D93" t="s">
-        <v>68</v>
-      </c>
       <c r="F93" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H93" s="2" t="s">
         <v>16</v>
@@ -2435,13 +2459,13 @@
     </row>
     <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D94" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F94" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H94" s="2" t="s">
         <v>16</v>
@@ -2449,24 +2473,24 @@
     </row>
     <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D95" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H95" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I95" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D96" t="s">
         <v>14</v>
@@ -2481,21 +2505,21 @@
         <v>15</v>
       </c>
       <c r="H96" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I96" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J96" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K96" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B97" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D97" t="s">
         <v>14</v>
@@ -2510,89 +2534,89 @@
         <v>15</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I97" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J97" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K97" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B98" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D98" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F98" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D99" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F99" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H99" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I99" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D100" t="s">
         <v>25</v>
       </c>
       <c r="F100" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I100" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D101" t="s">
         <v>25</v>
       </c>
       <c r="F101" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I101" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D102" t="s">
         <v>14</v>
@@ -2610,10 +2634,10 @@
         <v>16</v>
       </c>
       <c r="J102" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K102" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
@@ -2621,7 +2645,7 @@
         <v>20</v>
       </c>
       <c r="D103" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F103" t="s">
         <v>28</v>
@@ -2630,7 +2654,7 @@
         <v>16</v>
       </c>
       <c r="I103" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
@@ -2650,16 +2674,16 @@
         <v>15</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I104" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J104" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K104" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
@@ -2679,16 +2703,16 @@
         <v>15</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I105" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J105" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K105" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
@@ -2699,13 +2723,13 @@
         <v>27</v>
       </c>
       <c r="F106" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H106" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I106" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
@@ -2716,18 +2740,18 @@
         <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H107" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B109" t="s">
         <v>13</v>
@@ -2753,28 +2777,31 @@
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B110" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D110" t="s">
         <v>26</v>
       </c>
       <c r="F110" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G110" s="1"/>
       <c r="H110" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="I110" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="D111" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F111" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>16</v>
@@ -2782,13 +2809,13 @@
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D112" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F112" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H112" s="2" t="s">
         <v>16</v>
@@ -2796,13 +2823,13 @@
     </row>
     <row r="113" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="D113" t="s">
         <v>26</v>
       </c>
       <c r="F113" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H113" s="2" t="s">
         <v>16</v>
@@ -2810,7 +2837,7 @@
     </row>
     <row r="114" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
@@ -2828,18 +2855,18 @@
         <v>16</v>
       </c>
       <c r="J114" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K114" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="115" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B115" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="D115" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="F115" t="s">
         <v>28</v>
@@ -2850,13 +2877,13 @@
     </row>
     <row r="116" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B116" t="s">
+        <v>62</v>
+      </c>
+      <c r="D116" t="s">
         <v>65</v>
       </c>
-      <c r="D116" t="s">
-        <v>68</v>
-      </c>
       <c r="F116" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H116" s="2" t="s">
         <v>16</v>
@@ -2864,63 +2891,75 @@
     </row>
     <row r="117" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B117" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D117" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F117" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H117" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="I117" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="118" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B118" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D118" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F118" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H118" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="I118" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="119" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B119" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D119" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F119" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H119" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="I119" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="120" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B120" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D120" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="F120" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="H120" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="I120" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="121" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B121" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D121" t="s">
         <v>14</v>
@@ -2932,15 +2971,15 @@
         <v>15</v>
       </c>
       <c r="H121" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I121" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="I121" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B122" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D122" t="s">
         <v>14</v>
@@ -2952,21 +2991,21 @@
         <v>15</v>
       </c>
       <c r="H122" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="I122" t="s">
-        <v>34</v>
+        <v>16</v>
+      </c>
+      <c r="I122" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B123" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D123" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F123" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H123" s="2" t="s">
         <v>16</v>
@@ -2974,24 +3013,24 @@
     </row>
     <row r="124" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B124" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D124" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="F124" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H124" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I124" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="125" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B125" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D125" t="s">
         <v>14</v>
@@ -3006,21 +3045,21 @@
         <v>15</v>
       </c>
       <c r="H125" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I125" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J125" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K125" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="126" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B126" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D126" t="s">
         <v>14</v>
@@ -3035,89 +3074,89 @@
         <v>15</v>
       </c>
       <c r="H126" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I126" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J126" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K126" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="127" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B127" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D127" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F127" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H127" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I127" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="128" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B128" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D128" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F128" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H128" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I128" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D129" t="s">
         <v>25</v>
       </c>
       <c r="F129" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H129" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I129" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D130" t="s">
         <v>25</v>
       </c>
       <c r="F130" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H130" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I130" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D131" t="s">
         <v>14</v>
@@ -3135,10 +3174,10 @@
         <v>16</v>
       </c>
       <c r="J131" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K131" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="132" spans="1:11" x14ac:dyDescent="0.25">
@@ -3146,7 +3185,7 @@
         <v>20</v>
       </c>
       <c r="D132" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F132" t="s">
         <v>28</v>
@@ -3155,7 +3194,7 @@
         <v>16</v>
       </c>
       <c r="I132" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.25">
@@ -3175,16 +3214,16 @@
         <v>15</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I133" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J133" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K133" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="134" spans="1:11" x14ac:dyDescent="0.25">
@@ -3204,16 +3243,16 @@
         <v>15</v>
       </c>
       <c r="H134" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I134" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J134" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K134" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="135" spans="1:11" x14ac:dyDescent="0.25">
@@ -3224,13 +3263,13 @@
         <v>27</v>
       </c>
       <c r="F135" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I135" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="1:11" x14ac:dyDescent="0.25">
@@ -3241,18 +3280,18 @@
         <v>27</v>
       </c>
       <c r="F136" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I136" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B138" t="s">
         <v>13</v>
@@ -3278,17 +3317,20 @@
     </row>
     <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D139" t="s">
         <v>26</v>
       </c>
       <c r="F139" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G139" s="1"/>
       <c r="H139" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="I139" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="1:11" x14ac:dyDescent="0.25">
@@ -3299,7 +3341,7 @@
         <v>26</v>
       </c>
       <c r="F140" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>16</v>
@@ -3307,7 +3349,7 @@
     </row>
     <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="D141" t="s">
         <v>14</v>
@@ -3325,24 +3367,27 @@
         <v>16</v>
       </c>
       <c r="J141" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K141" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
+        <v>87</v>
+      </c>
+      <c r="D142" t="s">
+        <v>88</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="G142" s="6" t="s">
         <v>90</v>
-      </c>
-      <c r="D142" t="s">
-        <v>91</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>93</v>
       </c>
       <c r="H142" s="2" t="s">
         <v>16</v>
@@ -3350,16 +3395,19 @@
     </row>
     <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D143" t="s">
-        <v>91</v>
+        <v>88</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="F143" s="6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G143" s="6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>16</v>
@@ -3367,11 +3415,14 @@
     </row>
     <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
       </c>
+      <c r="E144" s="2" t="s">
+        <v>16</v>
+      </c>
       <c r="F144">
         <v>9999999999</v>
       </c>
@@ -3382,33 +3433,33 @@
         <v>16</v>
       </c>
     </row>
-    <row r="145" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D145" t="s">
         <v>26</v>
       </c>
       <c r="F145" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G145" s="1"/>
       <c r="H145" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I145" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="146" spans="2:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="D146" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F146" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>16</v>
@@ -3417,7 +3468,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="147" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
         <v>19</v>
       </c>
@@ -3425,18 +3476,18 @@
         <v>25</v>
       </c>
       <c r="F147" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="H147" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I147" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="148" spans="2:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D148" t="s">
         <v>14</v>
@@ -3454,18 +3505,18 @@
         <v>16</v>
       </c>
       <c r="J148" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K148" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="149" spans="2:11" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
         <v>20</v>
       </c>
       <c r="D149" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F149" t="s">
         <v>28</v>
@@ -3474,10 +3525,10 @@
         <v>16</v>
       </c>
       <c r="I149" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="150" spans="2:11" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
         <v>21</v>
       </c>
@@ -3494,19 +3545,19 @@
         <v>15</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I150" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J150" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K150" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="151" spans="2:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
         <v>22</v>
       </c>
@@ -3523,19 +3574,19 @@
         <v>15</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I151" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J151" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K151" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="152" spans="2:11" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
         <v>23</v>
       </c>
@@ -3543,16 +3594,16 @@
         <v>27</v>
       </c>
       <c r="F152" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="I152" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="153" spans="2:11" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B153" t="s">
         <v>24</v>
       </c>
@@ -3560,13 +3611,726 @@
         <v>27</v>
       </c>
       <c r="F153" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="H153" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I153" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>67</v>
+      </c>
+      <c r="B155" t="s">
+        <v>13</v>
+      </c>
+      <c r="D155" t="s">
+        <v>14</v>
+      </c>
+      <c r="E155" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F155">
+        <v>9999999999</v>
+      </c>
+      <c r="G155" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="J155" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B156" t="s">
+        <v>18</v>
+      </c>
+      <c r="D156" t="s">
+        <v>26</v>
+      </c>
+      <c r="F156" t="s">
+        <v>44</v>
+      </c>
+      <c r="H156" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B157" t="s">
+        <v>61</v>
+      </c>
+      <c r="D157" t="s">
+        <v>73</v>
+      </c>
+      <c r="F157" t="s">
+        <v>28</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>103</v>
+      </c>
+      <c r="D158" t="s">
+        <v>105</v>
+      </c>
+      <c r="F158" t="s">
+        <v>28</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
+        <v>102</v>
+      </c>
+      <c r="D159" t="s">
+        <v>25</v>
+      </c>
+      <c r="F159" t="s">
+        <v>44</v>
+      </c>
+      <c r="H159" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>32</v>
+      </c>
+      <c r="K159" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
+        <v>100</v>
+      </c>
+      <c r="D160" t="s">
+        <v>25</v>
+      </c>
+      <c r="F160" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
+        <v>101</v>
+      </c>
+      <c r="D161" t="s">
+        <v>104</v>
+      </c>
+      <c r="F161" t="s">
+        <v>44</v>
+      </c>
+      <c r="H161" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I161" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B162" t="s">
+        <v>36</v>
+      </c>
+      <c r="D162" t="s">
+        <v>42</v>
+      </c>
+      <c r="F162" t="s">
+        <v>44</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>37</v>
+      </c>
+      <c r="D163" t="s">
+        <v>26</v>
+      </c>
+      <c r="F163" t="s">
+        <v>44</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>54</v>
+      </c>
+      <c r="D164" t="s">
+        <v>14</v>
+      </c>
+      <c r="E164" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F164">
+        <v>9999999999</v>
+      </c>
+      <c r="G164" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I164" t="s">
+        <v>33</v>
+      </c>
+      <c r="J164" t="s">
+        <v>32</v>
+      </c>
+      <c r="K164" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
+        <v>55</v>
+      </c>
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F165">
+        <v>9999999999</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I165" t="s">
+        <v>33</v>
+      </c>
+      <c r="J165" t="s">
+        <v>32</v>
+      </c>
+      <c r="K165" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
+        <v>39</v>
+      </c>
+      <c r="D166" t="s">
+        <v>42</v>
+      </c>
+      <c r="F166" t="s">
+        <v>44</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I166" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
+        <v>40</v>
+      </c>
+      <c r="D167" t="s">
+        <v>42</v>
+      </c>
+      <c r="F167" t="s">
+        <v>44</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I167" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
+        <v>38</v>
+      </c>
+      <c r="D168" t="s">
+        <v>25</v>
+      </c>
+      <c r="F168" t="s">
+        <v>44</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I168" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
+        <v>41</v>
+      </c>
+      <c r="D169" t="s">
+        <v>25</v>
+      </c>
+      <c r="F169" t="s">
+        <v>44</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I169" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
+        <v>20</v>
+      </c>
+      <c r="D170" t="s">
+        <v>57</v>
+      </c>
+      <c r="F170" t="s">
+        <v>28</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I170" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
+        <v>21</v>
+      </c>
+      <c r="D171" t="s">
+        <v>14</v>
+      </c>
+      <c r="E171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F171">
+        <v>9999999999</v>
+      </c>
+      <c r="G171" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I171" t="s">
+        <v>33</v>
+      </c>
+      <c r="J171" t="s">
+        <v>32</v>
+      </c>
+      <c r="K171" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
+        <v>22</v>
+      </c>
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F172">
+        <v>9999999999</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I172" t="s">
+        <v>33</v>
+      </c>
+      <c r="J172" t="s">
+        <v>32</v>
+      </c>
+      <c r="K172" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
+        <v>23</v>
+      </c>
+      <c r="D173" t="s">
+        <v>27</v>
+      </c>
+      <c r="F173" t="s">
         <v>30</v>
       </c>
-      <c r="I153" t="s">
-        <v>34</v>
+      <c r="H173" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I173" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
+        <v>24</v>
+      </c>
+      <c r="D174" t="s">
+        <v>27</v>
+      </c>
+      <c r="F174" t="s">
+        <v>30</v>
+      </c>
+      <c r="H174" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I174" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>107</v>
+      </c>
+      <c r="B176" t="s">
+        <v>13</v>
+      </c>
+      <c r="D176" t="s">
+        <v>14</v>
+      </c>
+      <c r="E176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F176">
+        <v>9999999999</v>
+      </c>
+      <c r="G176" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H176" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J176" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B177" t="s">
+        <v>69</v>
+      </c>
+      <c r="D177" t="s">
+        <v>42</v>
+      </c>
+      <c r="F177" t="s">
+        <v>44</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
+        <v>70</v>
+      </c>
+      <c r="D178" t="s">
+        <v>42</v>
+      </c>
+      <c r="F178" t="s">
+        <v>44</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
+        <v>36</v>
+      </c>
+      <c r="D179" t="s">
+        <v>25</v>
+      </c>
+      <c r="F179" t="s">
+        <v>44</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
+        <v>37</v>
+      </c>
+      <c r="D180" t="s">
+        <v>26</v>
+      </c>
+      <c r="F180" t="s">
+        <v>44</v>
+      </c>
+      <c r="H180" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B181" t="s">
+        <v>108</v>
+      </c>
+      <c r="D181" t="s">
+        <v>26</v>
+      </c>
+      <c r="F181" t="s">
+        <v>44</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>54</v>
+      </c>
+      <c r="D182" t="s">
+        <v>14</v>
+      </c>
+      <c r="E182" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F182">
+        <v>9999999999</v>
+      </c>
+      <c r="G182" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I182" t="s">
+        <v>33</v>
+      </c>
+      <c r="J182" t="s">
+        <v>32</v>
+      </c>
+      <c r="K182" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
+        <v>55</v>
+      </c>
+      <c r="D183" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F183">
+        <v>9999999999</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I183" t="s">
+        <v>33</v>
+      </c>
+      <c r="J183" t="s">
+        <v>32</v>
+      </c>
+      <c r="K183" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
+        <v>39</v>
+      </c>
+      <c r="D184" t="s">
+        <v>42</v>
+      </c>
+      <c r="F184" t="s">
+        <v>44</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I184" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
+        <v>40</v>
+      </c>
+      <c r="D185" t="s">
+        <v>42</v>
+      </c>
+      <c r="F185" t="s">
+        <v>44</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I185" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
+        <v>38</v>
+      </c>
+      <c r="D186" t="s">
+        <v>25</v>
+      </c>
+      <c r="F186" t="s">
+        <v>44</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I186" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
+        <v>41</v>
+      </c>
+      <c r="D187" t="s">
+        <v>25</v>
+      </c>
+      <c r="F187" t="s">
+        <v>44</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I187" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
+        <v>20</v>
+      </c>
+      <c r="D188" t="s">
+        <v>57</v>
+      </c>
+      <c r="F188" t="s">
+        <v>28</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I188" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
+        <v>21</v>
+      </c>
+      <c r="D189" t="s">
+        <v>14</v>
+      </c>
+      <c r="E189" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F189">
+        <v>9999999999</v>
+      </c>
+      <c r="G189" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I189" t="s">
+        <v>33</v>
+      </c>
+      <c r="J189" t="s">
+        <v>32</v>
+      </c>
+      <c r="K189" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
+        <v>22</v>
+      </c>
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F190">
+        <v>9999999999</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I190" t="s">
+        <v>33</v>
+      </c>
+      <c r="J190" t="s">
+        <v>32</v>
+      </c>
+      <c r="K190" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
+        <v>23</v>
+      </c>
+      <c r="D191" t="s">
+        <v>27</v>
+      </c>
+      <c r="F191" t="s">
+        <v>30</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I191" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
+        <v>24</v>
+      </c>
+      <c r="D192" t="s">
+        <v>27</v>
+      </c>
+      <c r="F192" t="s">
+        <v>30</v>
+      </c>
+      <c r="H192" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I192" t="s">
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Accounting System" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1021" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="122">
   <si>
     <t>Table Name</t>
   </si>
@@ -167,18 +168,6 @@
     <t>Unsigned</t>
   </si>
   <si>
-    <t>account_type</t>
-  </si>
-  <si>
-    <t>type</t>
-  </si>
-  <si>
-    <t>min_code</t>
-  </si>
-  <si>
-    <t>max_code</t>
-  </si>
-  <si>
     <t>master_details</t>
   </si>
   <si>
@@ -194,12 +183,6 @@
     <t>city_id</t>
   </si>
   <si>
-    <t>Enabled</t>
-  </si>
-  <si>
-    <t>enum{'Enabled','Disabled'}</t>
-  </si>
-  <si>
     <t>customers</t>
   </si>
   <si>
@@ -278,18 +261,12 @@
     <t>minor</t>
   </si>
   <si>
-    <t>products</t>
-  </si>
-  <si>
     <t>code</t>
   </si>
   <si>
     <t>category_id</t>
   </si>
   <si>
-    <t>unit_price</t>
-  </si>
-  <si>
     <t>decimal(10,2)</t>
   </si>
   <si>
@@ -299,15 +276,6 @@
     <t>1000000000.00-9999999999.99</t>
   </si>
   <si>
-    <t>unit_sale_price</t>
-  </si>
-  <si>
-    <t>quantity</t>
-  </si>
-  <si>
-    <t>quantity_per_unit</t>
-  </si>
-  <si>
     <t>discontinue</t>
   </si>
   <si>
@@ -323,9 +291,6 @@
     <t>Xxx</t>
   </si>
   <si>
-    <t>enum{'Assets','Equity','Expenses','Liabilities','Revenue','Bank'}</t>
-  </si>
-  <si>
     <t>password</t>
   </si>
   <si>
@@ -351,6 +316,81 @@
   </si>
   <si>
     <t>website</t>
+  </si>
+  <si>
+    <t>account_types</t>
+  </si>
+  <si>
+    <t>accounts</t>
+  </si>
+  <si>
+    <t>varchar(10)</t>
+  </si>
+  <si>
+    <t>account_type_id</t>
+  </si>
+  <si>
+    <t>parent_account_id</t>
+  </si>
+  <si>
+    <t>unique</t>
+  </si>
+  <si>
+    <t>enum{'Active','Inactive'}</t>
+  </si>
+  <si>
+    <t>Active</t>
+  </si>
+  <si>
+    <t>cascade from account type</t>
+  </si>
+  <si>
+    <t>items</t>
+  </si>
+  <si>
+    <t>item_type_id</t>
+  </si>
+  <si>
+    <t>purchase_information</t>
+  </si>
+  <si>
+    <t>cost</t>
+  </si>
+  <si>
+    <t>average_cost</t>
+  </si>
+  <si>
+    <t>unit_of_measure_id</t>
+  </si>
+  <si>
+    <t>sale_information</t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>average_price</t>
+  </si>
+  <si>
+    <t>cogs_account_id</t>
+  </si>
+  <si>
+    <t>income_account_id</t>
+  </si>
+  <si>
+    <t>inventory_account_id</t>
+  </si>
+  <si>
+    <t>reorder_poit</t>
+  </si>
+  <si>
+    <t>on_hand</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>as_of</t>
   </si>
 </sst>
 </file>
@@ -686,10 +726,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M192"/>
+  <dimension ref="A1:M191"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B157" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H179" sqref="H179"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="K128" sqref="K128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -781,7 +821,7 @@
         <v>26</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
@@ -809,7 +849,7 @@
         <v>20</v>
       </c>
       <c r="D6" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F6" t="s">
         <v>28</v>
@@ -818,7 +858,7 @@
         <v>16</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -847,7 +887,7 @@
         <v>32</v>
       </c>
       <c r="K7" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -876,7 +916,7 @@
         <v>32</v>
       </c>
       <c r="K8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -915,7 +955,7 @@
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="B12" t="s">
         <v>13</v>
@@ -1001,7 +1041,7 @@
         <v>20</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F16" t="s">
         <v>28</v>
@@ -1010,7 +1050,7 @@
         <v>16</v>
       </c>
       <c r="I16" s="3" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
@@ -1039,7 +1079,7 @@
         <v>32</v>
       </c>
       <c r="K17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -1068,7 +1108,7 @@
         <v>32</v>
       </c>
       <c r="K18" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -1108,7 +1148,7 @@
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B22" t="s">
         <v>13</v>
@@ -1160,7 +1200,7 @@
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D24" t="s">
         <v>14</v>
@@ -1181,7 +1221,7 @@
         <v>32</v>
       </c>
       <c r="K24" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
@@ -1220,7 +1260,7 @@
         <v>20</v>
       </c>
       <c r="D27" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F27" t="s">
         <v>28</v>
@@ -1229,7 +1269,7 @@
         <v>16</v>
       </c>
       <c r="I27" s="3" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
@@ -1258,7 +1298,7 @@
         <v>32</v>
       </c>
       <c r="K28" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.25">
@@ -1287,7 +1327,7 @@
         <v>32</v>
       </c>
       <c r="K29" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.25">
@@ -1326,7 +1366,7 @@
     </row>
     <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>96</v>
+        <v>85</v>
       </c>
       <c r="B33" t="s">
         <v>13</v>
@@ -1380,7 +1420,7 @@
     </row>
     <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="D36" t="s">
         <v>26</v>
@@ -1394,7 +1434,7 @@
     </row>
     <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="D37" t="s">
         <v>14</v>
@@ -1415,15 +1455,15 @@
         <v>32</v>
       </c>
       <c r="K37" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F38" t="s">
         <v>28</v>
@@ -1465,7 +1505,7 @@
     </row>
     <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D41" t="s">
         <v>14</v>
@@ -1486,12 +1526,12 @@
         <v>32</v>
       </c>
       <c r="K41" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D42" t="s">
         <v>14</v>
@@ -1512,7 +1552,7 @@
         <v>32</v>
       </c>
       <c r="K42" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
     <row r="43" spans="1:11" x14ac:dyDescent="0.25">
@@ -1606,7 +1646,7 @@
         <v>32</v>
       </c>
       <c r="K47" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="48" spans="1:11" x14ac:dyDescent="0.25">
@@ -1614,7 +1654,7 @@
         <v>20</v>
       </c>
       <c r="D48" t="s">
-        <v>57</v>
+        <v>103</v>
       </c>
       <c r="F48" t="s">
         <v>28</v>
@@ -1623,7 +1663,7 @@
         <v>16</v>
       </c>
       <c r="I48" s="3" t="s">
-        <v>56</v>
+        <v>104</v>
       </c>
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
@@ -1652,7 +1692,7 @@
         <v>32</v>
       </c>
       <c r="K49" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
@@ -1681,7 +1721,7 @@
         <v>32</v>
       </c>
       <c r="K50" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
@@ -1720,7 +1760,7 @@
     </row>
     <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B54" t="s">
         <v>13</v>
@@ -1740,47 +1780,59 @@
       <c r="H54" s="2" t="s">
         <v>16</v>
       </c>
+      <c r="J54" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B55" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="D55" t="s">
         <v>26</v>
       </c>
+      <c r="F55" t="s">
+        <v>44</v>
+      </c>
       <c r="H55" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B56" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D56" t="s">
-        <v>99</v>
-      </c>
-      <c r="F56" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="E56" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56">
+        <v>9999999999</v>
+      </c>
+      <c r="G56" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H56" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>32</v>
+      </c>
+      <c r="K56" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B57" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F57">
-        <v>9999999999</v>
-      </c>
-      <c r="G57" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="F57" t="s">
+        <v>28</v>
       </c>
       <c r="H57" s="2" t="s">
         <v>16</v>
@@ -1788,105 +1840,81 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B58" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F58">
-        <v>9999999999</v>
-      </c>
-      <c r="G58" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="F58" t="s">
+        <v>60</v>
       </c>
       <c r="H58" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="I58" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="D59" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="F59" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I59" s="3" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="I59" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F60">
-        <v>9999999999</v>
-      </c>
-      <c r="G60" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="F60" t="s">
+        <v>44</v>
       </c>
       <c r="H60" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I60" t="s">
         <v>33</v>
-      </c>
-      <c r="J60" t="s">
-        <v>32</v>
-      </c>
-      <c r="K60" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
-        <v>22</v>
+        <v>57</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F61">
-        <v>9999999999</v>
-      </c>
-      <c r="G61" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="F61" t="s">
+        <v>44</v>
       </c>
       <c r="H61" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I61" t="s">
         <v>33</v>
-      </c>
-      <c r="J61" t="s">
-        <v>32</v>
-      </c>
-      <c r="K61" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="D62" t="s">
-        <v>27</v>
+        <v>42</v>
+      </c>
+      <c r="F62" t="s">
+        <v>44</v>
       </c>
       <c r="H62" s="2" t="s">
         <v>29</v>
@@ -1897,10 +1925,19 @@
     </row>
     <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D63" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="E63" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F63">
+        <v>9999999999</v>
+      </c>
+      <c r="G63" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H63" s="2" t="s">
         <v>29</v>
@@ -1908,164 +1945,220 @@
       <c r="I63" t="s">
         <v>33</v>
       </c>
+      <c r="J63" t="s">
+        <v>32</v>
+      </c>
+      <c r="K63" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>51</v>
+      </c>
+      <c r="D64" t="s">
+        <v>14</v>
+      </c>
+      <c r="E64" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F64">
+        <v>9999999999</v>
+      </c>
+      <c r="G64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I64" t="s">
+        <v>33</v>
+      </c>
+      <c r="J64" t="s">
+        <v>32</v>
+      </c>
+      <c r="K64" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="65" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A65" t="s">
-        <v>58</v>
-      </c>
       <c r="B65" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F65">
-        <v>9999999999</v>
-      </c>
-      <c r="G65" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="F65" t="s">
+        <v>44</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J65" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="I65" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B66" t="s">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="D66" t="s">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F66" t="s">
         <v>44</v>
       </c>
       <c r="H66" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="I66" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B67" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F67">
-        <v>9999999999</v>
-      </c>
-      <c r="G67" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="F67" t="s">
+        <v>44</v>
       </c>
       <c r="H67" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J67" t="s">
-        <v>32</v>
-      </c>
-      <c r="K67" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="I67" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B68" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D68" t="s">
-        <v>73</v>
+        <v>25</v>
       </c>
       <c r="F68" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="I68" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B69" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="D69" t="s">
-        <v>65</v>
-      </c>
-      <c r="F69" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="E69" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F69">
+        <v>9999999999</v>
+      </c>
+      <c r="G69" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I69" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="J69" t="s">
+        <v>32</v>
+      </c>
+      <c r="K69" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B70" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="D70" t="s">
-        <v>42</v>
+        <v>103</v>
       </c>
       <c r="F70" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I70" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="I70" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B71" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="D71" t="s">
-        <v>26</v>
-      </c>
-      <c r="F71" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="E71" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F71">
+        <v>9999999999</v>
+      </c>
+      <c r="G71" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H71" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I71" t="s">
         <v>33</v>
+      </c>
+      <c r="J71" t="s">
+        <v>32</v>
+      </c>
+      <c r="K71" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B72" t="s">
-        <v>63</v>
+        <v>22</v>
       </c>
       <c r="D72" t="s">
-        <v>26</v>
-      </c>
-      <c r="F72" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="E72" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72">
+        <v>9999999999</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H72" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I72" t="s">
         <v>33</v>
+      </c>
+      <c r="J72" t="s">
+        <v>32</v>
+      </c>
+      <c r="K72" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B73" t="s">
-        <v>64</v>
+        <v>23</v>
       </c>
       <c r="D73" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F73" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H73" s="2" t="s">
         <v>29</v>
@@ -2076,19 +2169,13 @@
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B74" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F74">
-        <v>9999999999</v>
-      </c>
-      <c r="G74" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="F74" t="s">
+        <v>30</v>
       </c>
       <c r="H74" s="2" t="s">
         <v>29</v>
@@ -2096,62 +2183,36 @@
       <c r="I74" t="s">
         <v>33</v>
       </c>
-      <c r="J74" t="s">
-        <v>32</v>
-      </c>
-      <c r="K74" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>55</v>
-      </c>
-      <c r="D75" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F75">
-        <v>9999999999</v>
-      </c>
-      <c r="G75" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H75" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I75" t="s">
-        <v>33</v>
-      </c>
-      <c r="J75" t="s">
-        <v>32</v>
-      </c>
-      <c r="K75" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>62</v>
+      </c>
       <c r="B76" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D76" t="s">
-        <v>42</v>
-      </c>
-      <c r="F76" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="E76" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F76">
+        <v>9999999999</v>
+      </c>
+      <c r="G76" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H76" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I76" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="J76" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B77" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="D77" t="s">
         <v>42</v>
@@ -2160,49 +2221,40 @@
         <v>44</v>
       </c>
       <c r="H77" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I77" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B78" t="s">
-        <v>38</v>
+        <v>64</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F78" t="s">
         <v>44</v>
       </c>
       <c r="H78" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I78" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B79" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F79" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="H79" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I79" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B80" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D80" t="s">
         <v>14</v>
@@ -2223,15 +2275,15 @@
         <v>32</v>
       </c>
       <c r="K80" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="81" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B81" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="D81" t="s">
-        <v>57</v>
+        <v>67</v>
       </c>
       <c r="F81" t="s">
         <v>28</v>
@@ -2239,77 +2291,44 @@
       <c r="H81" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I81" s="3" t="s">
+    </row>
+    <row r="82" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B82" t="s">
-        <v>21</v>
-      </c>
       <c r="D82" t="s">
-        <v>14</v>
-      </c>
-      <c r="E82" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F82">
-        <v>9999999999</v>
-      </c>
-      <c r="G82" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="F82" t="s">
+        <v>60</v>
       </c>
       <c r="H82" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I82" t="s">
-        <v>33</v>
-      </c>
-      <c r="J82" t="s">
-        <v>32</v>
-      </c>
-      <c r="K82" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="83" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B83" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="D83" t="s">
-        <v>14</v>
-      </c>
-      <c r="E83" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F83">
-        <v>9999999999</v>
-      </c>
-      <c r="G83" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="F83" t="s">
+        <v>44</v>
       </c>
       <c r="H83" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I83" t="s">
-        <v>33</v>
-      </c>
-      <c r="J83" t="s">
-        <v>32</v>
-      </c>
-      <c r="K83" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="84" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B84" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D84" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="F84" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="H84" s="2" t="s">
         <v>29</v>
@@ -2318,15 +2337,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B85" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
       <c r="D85" t="s">
-        <v>27</v>
-      </c>
-      <c r="F85" t="s">
-        <v>30</v>
+        <v>14</v>
+      </c>
+      <c r="E85" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F85">
+        <v>9999999999</v>
+      </c>
+      <c r="G85" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H85" s="2" t="s">
         <v>29</v>
@@ -2334,36 +2359,62 @@
       <c r="I85" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A87" t="s">
-        <v>68</v>
-      </c>
+      <c r="J85" t="s">
+        <v>32</v>
+      </c>
+      <c r="K85" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="86" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>51</v>
+      </c>
+      <c r="D86" t="s">
+        <v>14</v>
+      </c>
+      <c r="E86" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F86">
+        <v>9999999999</v>
+      </c>
+      <c r="G86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H86" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I86" t="s">
+        <v>33</v>
+      </c>
+      <c r="J86" t="s">
+        <v>32</v>
+      </c>
+      <c r="K86" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="87" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B87" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="D87" t="s">
-        <v>14</v>
-      </c>
-      <c r="E87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F87">
-        <v>9999999999</v>
-      </c>
-      <c r="G87" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="F87" t="s">
+        <v>44</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J87" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B88" t="s">
-        <v>69</v>
+        <v>40</v>
       </c>
       <c r="D88" t="s">
         <v>42</v>
@@ -2372,40 +2423,49 @@
         <v>44</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B89" t="s">
-        <v>70</v>
+        <v>38</v>
       </c>
       <c r="D89" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F89" t="s">
         <v>44</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I89" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="90" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B90" t="s">
-        <v>72</v>
+        <v>41</v>
       </c>
       <c r="D90" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H90" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I90" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="91" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B91" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="D91" t="s">
         <v>14</v>
@@ -2426,15 +2486,15 @@
         <v>32</v>
       </c>
       <c r="K91" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="92" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B92" t="s">
-        <v>61</v>
+        <v>20</v>
       </c>
       <c r="D92" t="s">
-        <v>73</v>
+        <v>103</v>
       </c>
       <c r="F92" t="s">
         <v>28</v>
@@ -2442,44 +2502,77 @@
       <c r="H92" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I92" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="93" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B93" t="s">
-        <v>62</v>
+        <v>21</v>
       </c>
       <c r="D93" t="s">
-        <v>65</v>
-      </c>
-      <c r="F93" t="s">
-        <v>66</v>
+        <v>14</v>
+      </c>
+      <c r="E93" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F93">
+        <v>9999999999</v>
+      </c>
+      <c r="G93" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H93" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I93" t="s">
+        <v>33</v>
+      </c>
+      <c r="J93" t="s">
+        <v>32</v>
+      </c>
+      <c r="K93" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="94" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B94" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="D94" t="s">
-        <v>42</v>
-      </c>
-      <c r="F94" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="E94" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F94">
+        <v>9999999999</v>
+      </c>
+      <c r="G94" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I94" t="s">
+        <v>33</v>
+      </c>
+      <c r="J94" t="s">
+        <v>32</v>
+      </c>
+      <c r="K94" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="95" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B95" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="D95" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F95" t="s">
-        <v>44</v>
+        <v>30</v>
       </c>
       <c r="H95" s="2" t="s">
         <v>29</v>
@@ -2488,21 +2581,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B96" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D96" t="s">
-        <v>14</v>
-      </c>
-      <c r="E96" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F96">
-        <v>9999999999</v>
-      </c>
-      <c r="G96" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="F96" t="s">
+        <v>30</v>
       </c>
       <c r="H96" s="2" t="s">
         <v>29</v>
@@ -2510,69 +2597,44 @@
       <c r="I96" t="s">
         <v>33</v>
       </c>
-      <c r="J96" t="s">
-        <v>32</v>
-      </c>
-      <c r="K96" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B97" t="s">
-        <v>55</v>
-      </c>
-      <c r="D97" t="s">
-        <v>14</v>
-      </c>
-      <c r="E97" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F97">
-        <v>9999999999</v>
-      </c>
-      <c r="G97" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H97" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I97" t="s">
-        <v>33</v>
-      </c>
-      <c r="J97" t="s">
-        <v>32</v>
-      </c>
-      <c r="K97" t="s">
-        <v>52</v>
-      </c>
     </row>
     <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>69</v>
+      </c>
       <c r="B98" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="D98" t="s">
-        <v>42</v>
-      </c>
-      <c r="F98" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="E98" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F98">
+        <v>9999999999</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H98" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I98" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="J98" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B99" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="D99" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F99" t="s">
         <v>44</v>
       </c>
+      <c r="G99" s="1"/>
       <c r="H99" s="2" t="s">
         <v>29</v>
       </c>
@@ -2582,148 +2644,109 @@
     </row>
     <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B100" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F100" t="s">
         <v>44</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I100" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B101" t="s">
-        <v>41</v>
+        <v>64</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>42</v>
       </c>
       <c r="F101" t="s">
         <v>44</v>
       </c>
       <c r="H101" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I101" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B102" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="D102" t="s">
-        <v>14</v>
-      </c>
-      <c r="E102" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F102">
-        <v>9999999999</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="F102" t="s">
+        <v>43</v>
       </c>
       <c r="H102" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J102" t="s">
-        <v>32</v>
-      </c>
-      <c r="K102" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B103" t="s">
-        <v>20</v>
+        <v>71</v>
       </c>
       <c r="D103" t="s">
-        <v>57</v>
-      </c>
-      <c r="F103" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="E103" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F103">
+        <v>9999999999</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H103" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="I103" s="3" t="s">
-        <v>56</v>
+      <c r="J103" t="s">
+        <v>32</v>
+      </c>
+      <c r="K103" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B104" t="s">
-        <v>21</v>
+        <v>55</v>
       </c>
       <c r="D104" t="s">
-        <v>14</v>
-      </c>
-      <c r="E104" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F104">
-        <v>9999999999</v>
-      </c>
-      <c r="G104" s="1" t="s">
-        <v>15</v>
+        <v>67</v>
+      </c>
+      <c r="F104" t="s">
+        <v>28</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I104" t="s">
-        <v>33</v>
-      </c>
-      <c r="J104" t="s">
-        <v>32</v>
-      </c>
-      <c r="K104" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B105" t="s">
-        <v>22</v>
+        <v>56</v>
       </c>
       <c r="D105" t="s">
-        <v>14</v>
-      </c>
-      <c r="E105" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F105">
-        <v>9999999999</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="F105" t="s">
+        <v>60</v>
       </c>
       <c r="H105" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I105" t="s">
-        <v>33</v>
-      </c>
-      <c r="J105" t="s">
-        <v>32</v>
-      </c>
-      <c r="K105" t="s">
-        <v>67</v>
+        <v>16</v>
       </c>
     </row>
     <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B106" t="s">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D106" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F106" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H106" s="2" t="s">
         <v>29</v>
@@ -2734,13 +2757,13 @@
     </row>
     <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B107" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="D107" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F107" t="s">
-        <v>30</v>
+        <v>60</v>
       </c>
       <c r="H107" s="2" t="s">
         <v>29</v>
@@ -2749,30 +2772,38 @@
         <v>33</v>
       </c>
     </row>
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>74</v>
+      </c>
+      <c r="D108" t="s">
+        <v>59</v>
+      </c>
+      <c r="F108" t="s">
+        <v>60</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I108" t="s">
+        <v>33</v>
+      </c>
+    </row>
     <row r="109" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A109" t="s">
+      <c r="B109" t="s">
         <v>75</v>
       </c>
-      <c r="B109" t="s">
-        <v>13</v>
-      </c>
       <c r="D109" t="s">
-        <v>14</v>
-      </c>
-      <c r="E109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F109">
-        <v>9999999999</v>
-      </c>
-      <c r="G109" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="F109" t="s">
+        <v>60</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J109" t="s">
-        <v>17</v>
+        <v>29</v>
+      </c>
+      <c r="I109" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="110" spans="1:11" x14ac:dyDescent="0.25">
@@ -2780,36 +2811,44 @@
         <v>76</v>
       </c>
       <c r="D110" t="s">
-        <v>26</v>
-      </c>
-      <c r="F110" t="s">
-        <v>44</v>
-      </c>
-      <c r="G110" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="F110">
+        <v>9999999999</v>
+      </c>
+      <c r="G110" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H110" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I110" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="I110" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B111" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D111" t="s">
-        <v>42</v>
-      </c>
-      <c r="F111" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="F111">
+        <v>9999999999</v>
+      </c>
+      <c r="G111" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H111" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="I111" s="5">
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B112" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D112" t="s">
         <v>42</v>
@@ -2821,23 +2860,26 @@
         <v>16</v>
       </c>
     </row>
-    <row r="113" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B113" t="s">
-        <v>72</v>
+        <v>37</v>
       </c>
       <c r="D113" t="s">
         <v>26</v>
       </c>
       <c r="F113" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H113" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="114" spans="2:11" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+      <c r="I113" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B114" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="D114" t="s">
         <v>14</v>
@@ -2852,570 +2894,618 @@
         <v>15</v>
       </c>
       <c r="H114" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="I114" t="s">
+        <v>33</v>
       </c>
       <c r="J114" t="s">
         <v>32</v>
       </c>
       <c r="K114" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B115" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="115" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B115" t="s">
+      <c r="D115" t="s">
+        <v>14</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F115">
+        <v>9999999999</v>
+      </c>
+      <c r="G115" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I115" t="s">
+        <v>33</v>
+      </c>
+      <c r="J115" t="s">
+        <v>32</v>
+      </c>
+      <c r="K115" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B116" t="s">
+        <v>39</v>
+      </c>
+      <c r="D116" t="s">
+        <v>42</v>
+      </c>
+      <c r="F116" t="s">
+        <v>44</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I116" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B117" t="s">
+        <v>40</v>
+      </c>
+      <c r="D117" t="s">
+        <v>42</v>
+      </c>
+      <c r="F117" t="s">
+        <v>44</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I117" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B118" t="s">
+        <v>38</v>
+      </c>
+      <c r="D118" t="s">
+        <v>25</v>
+      </c>
+      <c r="F118" t="s">
+        <v>44</v>
+      </c>
+      <c r="H118" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I118" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B119" t="s">
+        <v>41</v>
+      </c>
+      <c r="D119" t="s">
+        <v>25</v>
+      </c>
+      <c r="F119" t="s">
+        <v>44</v>
+      </c>
+      <c r="H119" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I119" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B120" t="s">
+        <v>45</v>
+      </c>
+      <c r="D120" t="s">
+        <v>14</v>
+      </c>
+      <c r="E120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F120">
+        <v>9999999999</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H120" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J120" t="s">
+        <v>32</v>
+      </c>
+      <c r="K120" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B121" t="s">
+        <v>20</v>
+      </c>
+      <c r="D121" t="s">
+        <v>103</v>
+      </c>
+      <c r="F121" t="s">
+        <v>28</v>
+      </c>
+      <c r="H121" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I121" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>21</v>
+      </c>
+      <c r="D122" t="s">
+        <v>14</v>
+      </c>
+      <c r="E122" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F122">
+        <v>9999999999</v>
+      </c>
+      <c r="G122" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H122" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I122" t="s">
+        <v>33</v>
+      </c>
+      <c r="J122" t="s">
+        <v>32</v>
+      </c>
+      <c r="K122" t="s">
         <v>61</v>
       </c>
-      <c r="D115" t="s">
-        <v>73</v>
-      </c>
-      <c r="F115" t="s">
+    </row>
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B123" t="s">
+        <v>22</v>
+      </c>
+      <c r="D123" t="s">
+        <v>14</v>
+      </c>
+      <c r="E123" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F123">
+        <v>9999999999</v>
+      </c>
+      <c r="G123" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H123" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I123" t="s">
+        <v>33</v>
+      </c>
+      <c r="J123" t="s">
+        <v>32</v>
+      </c>
+      <c r="K123" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B124" t="s">
+        <v>23</v>
+      </c>
+      <c r="D124" t="s">
+        <v>27</v>
+      </c>
+      <c r="F124" t="s">
+        <v>30</v>
+      </c>
+      <c r="H124" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I124" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B125" t="s">
+        <v>24</v>
+      </c>
+      <c r="D125" t="s">
+        <v>27</v>
+      </c>
+      <c r="F125" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I125" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>106</v>
+      </c>
+      <c r="B127" t="s">
+        <v>13</v>
+      </c>
+      <c r="D127" t="s">
+        <v>14</v>
+      </c>
+      <c r="E127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F127">
+        <v>9999999999</v>
+      </c>
+      <c r="G127" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H127" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J127" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B128" t="s">
+        <v>107</v>
+      </c>
+      <c r="D128" t="s">
+        <v>14</v>
+      </c>
+      <c r="E128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F128">
+        <v>9999999999</v>
+      </c>
+      <c r="G128" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H128" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J128" t="s">
+        <v>32</v>
+      </c>
+      <c r="K128" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="129" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B129" t="s">
+        <v>78</v>
+      </c>
+      <c r="D129" t="s">
+        <v>26</v>
+      </c>
+      <c r="F129" t="s">
+        <v>44</v>
+      </c>
+      <c r="G129" s="1"/>
+      <c r="H129" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="130" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B130" t="s">
+        <v>18</v>
+      </c>
+      <c r="D130" t="s">
+        <v>26</v>
+      </c>
+      <c r="F130" t="s">
+        <v>44</v>
+      </c>
+      <c r="H130" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="131" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B131" t="s">
+        <v>108</v>
+      </c>
+      <c r="D131" t="s">
+        <v>25</v>
+      </c>
+      <c r="F131" t="s">
+        <v>44</v>
+      </c>
+      <c r="H131" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B132" t="s">
+        <v>109</v>
+      </c>
+      <c r="D132" t="s">
+        <v>80</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F132" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G132" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H132" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I132" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="133" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B133" t="s">
+        <v>110</v>
+      </c>
+      <c r="D133" t="s">
+        <v>80</v>
+      </c>
+      <c r="E133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G133" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H133" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I133" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="134" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B134" t="s">
+        <v>115</v>
+      </c>
+      <c r="D134" t="s">
+        <v>14</v>
+      </c>
+      <c r="E134" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F134">
+        <v>9999999999</v>
+      </c>
+      <c r="G134" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H134" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I134" t="s">
+        <v>33</v>
+      </c>
+      <c r="J134" t="s">
+        <v>32</v>
+      </c>
+      <c r="K134" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="135" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B135" t="s">
+        <v>83</v>
+      </c>
+      <c r="D135" t="s">
+        <v>84</v>
+      </c>
+      <c r="F135" t="s">
+        <v>44</v>
+      </c>
+      <c r="H135" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B136" t="s">
+        <v>111</v>
+      </c>
+      <c r="D136" t="s">
+        <v>14</v>
+      </c>
+      <c r="E136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F136">
+        <v>9999999999</v>
+      </c>
+      <c r="G136" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J136" t="s">
+        <v>32</v>
+      </c>
+      <c r="K136" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="137" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B137" t="s">
+        <v>79</v>
+      </c>
+      <c r="D137" t="s">
+        <v>14</v>
+      </c>
+      <c r="E137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F137">
+        <v>9999999999</v>
+      </c>
+      <c r="G137" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>32</v>
+      </c>
+      <c r="K137" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="138" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>45</v>
+      </c>
+      <c r="D138" t="s">
+        <v>14</v>
+      </c>
+      <c r="E138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F138">
+        <v>9999999999</v>
+      </c>
+      <c r="G138" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J138" t="s">
+        <v>32</v>
+      </c>
+      <c r="K138" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="139" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B139" t="s">
+        <v>112</v>
+      </c>
+      <c r="D139" t="s">
+        <v>25</v>
+      </c>
+      <c r="F139" t="s">
+        <v>44</v>
+      </c>
+      <c r="H139" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="140" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B140" t="s">
+        <v>113</v>
+      </c>
+      <c r="D140" t="s">
+        <v>80</v>
+      </c>
+      <c r="E140" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G140" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H140" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="141" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B141" t="s">
+        <v>114</v>
+      </c>
+      <c r="D141" t="s">
+        <v>80</v>
+      </c>
+      <c r="E141" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G141" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H141" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I141" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="142" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B142" t="s">
+        <v>116</v>
+      </c>
+      <c r="D142" t="s">
+        <v>14</v>
+      </c>
+      <c r="E142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F142">
+        <v>9999999999</v>
+      </c>
+      <c r="G142" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J142" t="s">
+        <v>32</v>
+      </c>
+      <c r="K142" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="143" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B143" t="s">
+        <v>20</v>
+      </c>
+      <c r="D143" t="s">
+        <v>103</v>
+      </c>
+      <c r="F143" t="s">
         <v>28</v>
       </c>
-      <c r="H115" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="116" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B116" t="s">
-        <v>62</v>
-      </c>
-      <c r="D116" t="s">
-        <v>65</v>
-      </c>
-      <c r="F116" t="s">
-        <v>66</v>
-      </c>
-      <c r="H116" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="117" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B117" t="s">
-        <v>78</v>
-      </c>
-      <c r="D117" t="s">
-        <v>65</v>
-      </c>
-      <c r="F117" t="s">
-        <v>66</v>
-      </c>
-      <c r="H117" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I117" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="118" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B118" t="s">
-        <v>79</v>
-      </c>
-      <c r="D118" t="s">
-        <v>65</v>
-      </c>
-      <c r="F118" t="s">
-        <v>66</v>
-      </c>
-      <c r="H118" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I118" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="119" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B119" t="s">
-        <v>80</v>
-      </c>
-      <c r="D119" t="s">
-        <v>65</v>
-      </c>
-      <c r="F119" t="s">
-        <v>66</v>
-      </c>
-      <c r="H119" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I119" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="120" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B120" t="s">
-        <v>81</v>
-      </c>
-      <c r="D120" t="s">
-        <v>65</v>
-      </c>
-      <c r="F120" t="s">
-        <v>66</v>
-      </c>
-      <c r="H120" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I120" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="121" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B121" t="s">
-        <v>82</v>
-      </c>
-      <c r="D121" t="s">
-        <v>14</v>
-      </c>
-      <c r="F121">
-        <v>9999999999</v>
-      </c>
-      <c r="G121" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H121" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I121" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="122" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B122" t="s">
-        <v>83</v>
-      </c>
-      <c r="D122" t="s">
-        <v>14</v>
-      </c>
-      <c r="F122">
-        <v>9999999999</v>
-      </c>
-      <c r="G122" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H122" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I122" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="123" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B123" t="s">
-        <v>36</v>
-      </c>
-      <c r="D123" t="s">
-        <v>42</v>
-      </c>
-      <c r="F123" t="s">
-        <v>44</v>
-      </c>
-      <c r="H123" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="124" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B124" t="s">
-        <v>37</v>
-      </c>
-      <c r="D124" t="s">
-        <v>26</v>
-      </c>
-      <c r="F124" t="s">
-        <v>44</v>
-      </c>
-      <c r="H124" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I124" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="125" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B125" t="s">
-        <v>54</v>
-      </c>
-      <c r="D125" t="s">
-        <v>14</v>
-      </c>
-      <c r="E125" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F125">
-        <v>9999999999</v>
-      </c>
-      <c r="G125" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H125" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I125" t="s">
-        <v>33</v>
-      </c>
-      <c r="J125" t="s">
-        <v>32</v>
-      </c>
-      <c r="K125" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="126" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B126" t="s">
-        <v>55</v>
-      </c>
-      <c r="D126" t="s">
-        <v>14</v>
-      </c>
-      <c r="E126" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F126">
-        <v>9999999999</v>
-      </c>
-      <c r="G126" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H126" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I126" t="s">
-        <v>33</v>
-      </c>
-      <c r="J126" t="s">
-        <v>32</v>
-      </c>
-      <c r="K126" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="127" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B127" t="s">
-        <v>39</v>
-      </c>
-      <c r="D127" t="s">
-        <v>42</v>
-      </c>
-      <c r="F127" t="s">
-        <v>44</v>
-      </c>
-      <c r="H127" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I127" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="128" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B128" t="s">
-        <v>40</v>
-      </c>
-      <c r="D128" t="s">
-        <v>42</v>
-      </c>
-      <c r="F128" t="s">
-        <v>44</v>
-      </c>
-      <c r="H128" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I128" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B129" t="s">
-        <v>38</v>
-      </c>
-      <c r="D129" t="s">
-        <v>25</v>
-      </c>
-      <c r="F129" t="s">
-        <v>44</v>
-      </c>
-      <c r="H129" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I129" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B130" t="s">
-        <v>41</v>
-      </c>
-      <c r="D130" t="s">
-        <v>25</v>
-      </c>
-      <c r="F130" t="s">
-        <v>44</v>
-      </c>
-      <c r="H130" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I130" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B131" t="s">
-        <v>45</v>
-      </c>
-      <c r="D131" t="s">
-        <v>14</v>
-      </c>
-      <c r="E131" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F131">
-        <v>9999999999</v>
-      </c>
-      <c r="G131" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H131" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J131" t="s">
-        <v>32</v>
-      </c>
-      <c r="K131" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B132" t="s">
-        <v>20</v>
-      </c>
-      <c r="D132" t="s">
-        <v>57</v>
-      </c>
-      <c r="F132" t="s">
-        <v>28</v>
-      </c>
-      <c r="H132" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I132" s="3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B133" t="s">
-        <v>21</v>
-      </c>
-      <c r="D133" t="s">
-        <v>14</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F133">
-        <v>9999999999</v>
-      </c>
-      <c r="G133" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H133" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I133" t="s">
-        <v>33</v>
-      </c>
-      <c r="J133" t="s">
-        <v>32</v>
-      </c>
-      <c r="K133" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B134" t="s">
-        <v>22</v>
-      </c>
-      <c r="D134" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F134">
-        <v>9999999999</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H134" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I134" t="s">
-        <v>33</v>
-      </c>
-      <c r="J134" t="s">
-        <v>32</v>
-      </c>
-      <c r="K134" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B135" t="s">
-        <v>23</v>
-      </c>
-      <c r="D135" t="s">
-        <v>27</v>
-      </c>
-      <c r="F135" t="s">
-        <v>30</v>
-      </c>
-      <c r="H135" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I135" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B136" t="s">
-        <v>24</v>
-      </c>
-      <c r="D136" t="s">
-        <v>27</v>
-      </c>
-      <c r="F136" t="s">
-        <v>30</v>
-      </c>
-      <c r="H136" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I136" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A138" t="s">
-        <v>84</v>
-      </c>
-      <c r="B138" t="s">
-        <v>13</v>
-      </c>
-      <c r="D138" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F138">
-        <v>9999999999</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J138" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B139" t="s">
-        <v>85</v>
-      </c>
-      <c r="D139" t="s">
-        <v>26</v>
-      </c>
-      <c r="F139" t="s">
-        <v>44</v>
-      </c>
-      <c r="G139" s="1"/>
-      <c r="H139" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I139" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B140" t="s">
-        <v>18</v>
-      </c>
-      <c r="D140" t="s">
-        <v>26</v>
-      </c>
-      <c r="F140" t="s">
-        <v>44</v>
-      </c>
-      <c r="H140" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B141" t="s">
-        <v>86</v>
-      </c>
-      <c r="D141" t="s">
-        <v>14</v>
-      </c>
-      <c r="E141" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F141">
-        <v>9999999999</v>
-      </c>
-      <c r="G141" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H141" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J141" t="s">
-        <v>32</v>
-      </c>
-      <c r="K141" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B142" t="s">
-        <v>87</v>
-      </c>
-      <c r="D142" t="s">
-        <v>88</v>
-      </c>
-      <c r="E142" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F142" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G142" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="H142" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B143" t="s">
-        <v>91</v>
-      </c>
-      <c r="D143" t="s">
-        <v>88</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F143" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G143" s="6" t="s">
-        <v>90</v>
-      </c>
       <c r="H143" s="2" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="I143" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>92</v>
+        <v>117</v>
       </c>
       <c r="D144" t="s">
         <v>14</v>
@@ -3430,20 +3520,34 @@
         <v>15</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="I144" t="s">
+        <v>33</v>
+      </c>
+      <c r="J144" t="s">
+        <v>32</v>
+      </c>
+      <c r="K144" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B145" t="s">
-        <v>93</v>
+        <v>118</v>
       </c>
       <c r="D145" t="s">
-        <v>26</v>
-      </c>
-      <c r="F145" t="s">
-        <v>44</v>
-      </c>
-      <c r="G145" s="1"/>
+        <v>14</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145">
+        <v>9999999999</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H145" s="2" t="s">
         <v>29</v>
       </c>
@@ -3453,30 +3557,42 @@
     </row>
     <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>94</v>
+        <v>119</v>
       </c>
       <c r="D146" t="s">
-        <v>95</v>
-      </c>
-      <c r="F146" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="E146" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F146">
+        <v>9999999999</v>
+      </c>
+      <c r="G146" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H146" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I146" s="3">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="I146" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>19</v>
+        <v>120</v>
       </c>
       <c r="D147" t="s">
-        <v>25</v>
-      </c>
-      <c r="F147" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F147">
+        <v>9999999999</v>
+      </c>
+      <c r="G147" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>29</v>
@@ -3487,50 +3603,53 @@
     </row>
     <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>45</v>
+        <v>121</v>
       </c>
       <c r="D148" t="s">
-        <v>14</v>
-      </c>
-      <c r="E148" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F148">
-        <v>9999999999</v>
-      </c>
-      <c r="G148" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="F148" t="s">
+        <v>60</v>
       </c>
       <c r="H148" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J148" t="s">
-        <v>32</v>
-      </c>
-      <c r="K148" t="s">
-        <v>51</v>
+        <v>29</v>
+      </c>
+      <c r="I148" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D149" t="s">
-        <v>57</v>
-      </c>
-      <c r="F149" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F149">
+        <v>9999999999</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I149" s="3" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="I149" t="s">
+        <v>33</v>
+      </c>
+      <c r="J149" t="s">
+        <v>32</v>
+      </c>
+      <c r="K149" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D150" t="s">
         <v>14</v>
@@ -3554,41 +3673,29 @@
         <v>32</v>
       </c>
       <c r="K150" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B151" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D151" t="s">
-        <v>14</v>
-      </c>
-      <c r="E151" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F151">
-        <v>9999999999</v>
-      </c>
-      <c r="G151" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="F151" t="s">
+        <v>30</v>
       </c>
       <c r="H151" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I151" t="s">
         <v>33</v>
-      </c>
-      <c r="J151" t="s">
-        <v>32</v>
-      </c>
-      <c r="K151" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B152" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D152" t="s">
         <v>27</v>
@@ -3603,94 +3710,97 @@
         <v>33</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B153" t="s">
-        <v>24</v>
-      </c>
-      <c r="D153" t="s">
-        <v>27</v>
-      </c>
-      <c r="F153" t="s">
-        <v>30</v>
-      </c>
-      <c r="H153" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I153" t="s">
-        <v>33</v>
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>61</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="D154" t="s">
+        <v>14</v>
+      </c>
+      <c r="E154" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F154">
+        <v>9999999999</v>
+      </c>
+      <c r="G154" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="J154" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A155" t="s">
-        <v>67</v>
-      </c>
       <c r="B155" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D155" t="s">
-        <v>14</v>
-      </c>
-      <c r="E155" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F155">
-        <v>9999999999</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
+      </c>
+      <c r="F155" t="s">
+        <v>44</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="J155" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
     </row>
     <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B156" t="s">
-        <v>18</v>
+        <v>55</v>
       </c>
       <c r="D156" t="s">
-        <v>26</v>
+        <v>67</v>
       </c>
       <c r="F156" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="D157" t="s">
-        <v>73</v>
+        <v>93</v>
       </c>
       <c r="F157" t="s">
         <v>28</v>
       </c>
       <c r="H157" s="2" t="s">
-        <v>106</v>
+        <v>16</v>
       </c>
     </row>
     <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B158" t="s">
-        <v>103</v>
+        <v>90</v>
       </c>
       <c r="D158" t="s">
-        <v>105</v>
+        <v>25</v>
       </c>
       <c r="F158" t="s">
-        <v>28</v>
+        <v>44</v>
       </c>
       <c r="H158" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="J158" t="s">
+        <v>32</v>
+      </c>
+      <c r="K158" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B159" t="s">
-        <v>102</v>
+        <v>88</v>
       </c>
       <c r="D159" t="s">
         <v>25</v>
@@ -3699,77 +3809,86 @@
         <v>44</v>
       </c>
       <c r="H159" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J159" t="s">
-        <v>32</v>
-      </c>
-      <c r="K159" t="s">
-        <v>51</v>
+        <v>94</v>
       </c>
     </row>
     <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B160" t="s">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D160" t="s">
-        <v>25</v>
+        <v>92</v>
       </c>
       <c r="F160" t="s">
         <v>44</v>
       </c>
       <c r="H160" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
+      </c>
+      <c r="I160" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B161" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="D161" t="s">
-        <v>104</v>
+        <v>42</v>
       </c>
       <c r="F161" t="s">
         <v>44</v>
       </c>
       <c r="H161" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I161" t="s">
-        <v>33</v>
+        <v>94</v>
       </c>
     </row>
     <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D162" t="s">
-        <v>42</v>
+        <v>26</v>
       </c>
       <c r="F162" t="s">
         <v>44</v>
       </c>
       <c r="H162" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B163" t="s">
-        <v>37</v>
+        <v>50</v>
       </c>
       <c r="D163" t="s">
-        <v>26</v>
-      </c>
-      <c r="F163" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="E163" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F163">
+        <v>9999999999</v>
+      </c>
+      <c r="G163" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H163" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
+      </c>
+      <c r="I163" t="s">
+        <v>33</v>
+      </c>
+      <c r="J163" t="s">
+        <v>32</v>
+      </c>
+      <c r="K163" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B164" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D164" t="s">
         <v>14</v>
@@ -3793,41 +3912,29 @@
         <v>32</v>
       </c>
       <c r="K164" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B165" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D165" t="s">
-        <v>14</v>
-      </c>
-      <c r="E165" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F165">
-        <v>9999999999</v>
-      </c>
-      <c r="G165" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="F165" t="s">
+        <v>44</v>
       </c>
       <c r="H165" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I165" t="s">
         <v>33</v>
-      </c>
-      <c r="J165" t="s">
-        <v>32</v>
-      </c>
-      <c r="K165" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B166" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D166" t="s">
         <v>42</v>
@@ -3844,10 +3951,10 @@
     </row>
     <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B167" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D167" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F167" t="s">
         <v>44</v>
@@ -3861,7 +3968,7 @@
     </row>
     <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B168" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D168" t="s">
         <v>25</v>
@@ -3878,41 +3985,53 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B169" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D169" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="F169" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H169" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I169" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="I169" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B170" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D170" t="s">
-        <v>57</v>
-      </c>
-      <c r="F170" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F170">
+        <v>9999999999</v>
+      </c>
+      <c r="G170" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H170" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I170" s="3" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="I170" t="s">
+        <v>33</v>
+      </c>
+      <c r="J170" t="s">
+        <v>32</v>
+      </c>
+      <c r="K170" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B171" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D171" t="s">
         <v>14</v>
@@ -3936,41 +4055,29 @@
         <v>32</v>
       </c>
       <c r="K171" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B172" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D172" t="s">
-        <v>14</v>
-      </c>
-      <c r="E172" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F172">
-        <v>9999999999</v>
-      </c>
-      <c r="G172" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="F172" t="s">
+        <v>30</v>
       </c>
       <c r="H172" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I172" t="s">
         <v>33</v>
-      </c>
-      <c r="J172" t="s">
-        <v>32</v>
-      </c>
-      <c r="K172" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B173" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D173" t="s">
         <v>27</v>
@@ -3985,52 +4092,49 @@
         <v>33</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B174" t="s">
-        <v>24</v>
-      </c>
-      <c r="D174" t="s">
-        <v>27</v>
-      </c>
-      <c r="F174" t="s">
-        <v>30</v>
-      </c>
-      <c r="H174" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I174" t="s">
-        <v>33</v>
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>95</v>
+      </c>
+      <c r="B175" t="s">
+        <v>13</v>
+      </c>
+      <c r="D175" t="s">
+        <v>14</v>
+      </c>
+      <c r="E175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F175">
+        <v>9999999999</v>
+      </c>
+      <c r="G175" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H175" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J175" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A176" t="s">
-        <v>107</v>
-      </c>
       <c r="B176" t="s">
-        <v>13</v>
+        <v>63</v>
       </c>
       <c r="D176" t="s">
-        <v>14</v>
-      </c>
-      <c r="E176" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F176">
-        <v>9999999999</v>
-      </c>
-      <c r="G176" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="F176" t="s">
+        <v>44</v>
       </c>
       <c r="H176" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="J176" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="177" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B177" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="D177" t="s">
         <v>42</v>
@@ -4044,35 +4148,35 @@
     </row>
     <row r="178" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B178" t="s">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="D178" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F178" t="s">
         <v>44</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
     </row>
     <row r="179" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B179" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="D179" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F179" t="s">
         <v>44</v>
       </c>
       <c r="H179" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="180" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B180" t="s">
-        <v>37</v>
+        <v>96</v>
       </c>
       <c r="D180" t="s">
         <v>26</v>
@@ -4081,26 +4185,41 @@
         <v>44</v>
       </c>
       <c r="H180" s="2" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
     </row>
     <row r="181" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
-        <v>108</v>
+        <v>50</v>
       </c>
       <c r="D181" t="s">
-        <v>26</v>
-      </c>
-      <c r="F181" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F181">
+        <v>9999999999</v>
+      </c>
+      <c r="G181" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H181" s="2" t="s">
-        <v>106</v>
+        <v>29</v>
+      </c>
+      <c r="I181" t="s">
+        <v>33</v>
+      </c>
+      <c r="J181" t="s">
+        <v>32</v>
+      </c>
+      <c r="K181" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="182" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B182" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D182" t="s">
         <v>14</v>
@@ -4124,41 +4243,29 @@
         <v>32</v>
       </c>
       <c r="K182" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="183" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B183" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="D183" t="s">
-        <v>14</v>
-      </c>
-      <c r="E183" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F183">
-        <v>9999999999</v>
-      </c>
-      <c r="G183" s="1" t="s">
-        <v>15</v>
+        <v>42</v>
+      </c>
+      <c r="F183" t="s">
+        <v>44</v>
       </c>
       <c r="H183" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I183" t="s">
         <v>33</v>
-      </c>
-      <c r="J183" t="s">
-        <v>32</v>
-      </c>
-      <c r="K183" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="184" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B184" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D184" t="s">
         <v>42</v>
@@ -4175,10 +4282,10 @@
     </row>
     <row r="185" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B185" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D185" t="s">
-        <v>42</v>
+        <v>25</v>
       </c>
       <c r="F185" t="s">
         <v>44</v>
@@ -4192,7 +4299,7 @@
     </row>
     <row r="186" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B186" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D186" t="s">
         <v>25</v>
@@ -4209,41 +4316,53 @@
     </row>
     <row r="187" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B187" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="D187" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="F187" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H187" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I187" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="I187" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="188" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B188" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D188" t="s">
-        <v>57</v>
-      </c>
-      <c r="F188" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F188">
+        <v>9999999999</v>
+      </c>
+      <c r="G188" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H188" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I188" s="3" t="s">
-        <v>56</v>
+        <v>29</v>
+      </c>
+      <c r="I188" t="s">
+        <v>33</v>
+      </c>
+      <c r="J188" t="s">
+        <v>32</v>
+      </c>
+      <c r="K188" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="189" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B189" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D189" t="s">
         <v>14</v>
@@ -4267,41 +4386,29 @@
         <v>32</v>
       </c>
       <c r="K189" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="190" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B190" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D190" t="s">
-        <v>14</v>
-      </c>
-      <c r="E190" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F190">
-        <v>9999999999</v>
-      </c>
-      <c r="G190" s="1" t="s">
-        <v>15</v>
+        <v>27</v>
+      </c>
+      <c r="F190" t="s">
+        <v>30</v>
       </c>
       <c r="H190" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I190" t="s">
         <v>33</v>
-      </c>
-      <c r="J190" t="s">
-        <v>32</v>
-      </c>
-      <c r="K190" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="191" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B191" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D191" t="s">
         <v>27</v>
@@ -4313,23 +4420,6 @@
         <v>29</v>
       </c>
       <c r="I191" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="192" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B192" t="s">
-        <v>24</v>
-      </c>
-      <c r="D192" t="s">
-        <v>27</v>
-      </c>
-      <c r="F192" t="s">
-        <v>30</v>
-      </c>
-      <c r="H192" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I192" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4337,4 +4427,460 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N23" sqref="N23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" customWidth="1"/>
+    <col min="4" max="4" width="36.7109375" customWidth="1"/>
+    <col min="6" max="6" width="18.140625" customWidth="1"/>
+    <col min="7" max="7" width="27.42578125" customWidth="1"/>
+    <col min="9" max="9" width="18.140625" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>97</v>
+      </c>
+      <c r="B3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3">
+        <v>9999999999</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>103</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F7">
+        <v>9999999999</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>32</v>
+      </c>
+      <c r="K7" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F8">
+        <v>9999999999</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I8" t="s">
+        <v>33</v>
+      </c>
+      <c r="J8" t="s">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="H9" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>98</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" t="s">
+        <v>14</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12">
+        <v>9999999999</v>
+      </c>
+      <c r="G12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H12" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>100</v>
+      </c>
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13">
+        <v>9999999999</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J13" t="s">
+        <v>32</v>
+      </c>
+      <c r="K13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" t="s">
+        <v>14</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F14">
+        <v>9999999999</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I14" t="s">
+        <v>33</v>
+      </c>
+      <c r="J14" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" t="s">
+        <v>98</v>
+      </c>
+      <c r="L14" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>99</v>
+      </c>
+      <c r="E15" s="2"/>
+      <c r="H15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>18</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16" s="2"/>
+      <c r="H16" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="F17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
+        <v>20</v>
+      </c>
+      <c r="D18" t="s">
+        <v>103</v>
+      </c>
+      <c r="E18" s="2"/>
+      <c r="F18" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="3" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F19">
+        <v>9999999999</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+      <c r="J19" t="s">
+        <v>32</v>
+      </c>
+      <c r="K19" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>22</v>
+      </c>
+      <c r="D20" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F20">
+        <v>9999999999</v>
+      </c>
+      <c r="G20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I20" t="s">
+        <v>33</v>
+      </c>
+      <c r="J20" t="s">
+        <v>32</v>
+      </c>
+      <c r="K20" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D21" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="2"/>
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D22" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="IMI System" sheetId="1" r:id="rId1"/>
     <sheet name="Accounting System" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1155" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="127">
   <si>
     <t>Table Name</t>
   </si>
@@ -351,46 +351,61 @@
     <t>item_type_id</t>
   </si>
   <si>
-    <t>purchase_information</t>
-  </si>
-  <si>
     <t>cost</t>
   </si>
   <si>
-    <t>average_cost</t>
-  </si>
-  <si>
-    <t>unit_of_measure_id</t>
-  </si>
-  <si>
-    <t>sale_information</t>
-  </si>
-  <si>
     <t>price</t>
   </si>
   <si>
-    <t>average_price</t>
-  </si>
-  <si>
-    <t>cogs_account_id</t>
-  </si>
-  <si>
     <t>income_account_id</t>
   </si>
   <si>
     <t>inventory_account_id</t>
   </si>
   <si>
-    <t>reorder_poit</t>
-  </si>
-  <si>
     <t>on_hand</t>
   </si>
   <si>
-    <t>amount</t>
-  </si>
-  <si>
-    <t>as_of</t>
+    <t>measure_id</t>
+  </si>
+  <si>
+    <t>reorder_point</t>
+  </si>
+  <si>
+    <t>as_of_date</t>
+  </si>
+  <si>
+    <t>min_code</t>
+  </si>
+  <si>
+    <t>max_code</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>code_barcode</t>
+  </si>
+  <si>
+    <t>qr_code</t>
+  </si>
+  <si>
+    <t>sku</t>
+  </si>
+  <si>
+    <t>lot_number</t>
+  </si>
+  <si>
+    <t>expire_date</t>
+  </si>
+  <si>
+    <t>sale_description</t>
+  </si>
+  <si>
+    <t>expense_account_id</t>
+  </si>
+  <si>
+    <t>purchare_description</t>
   </si>
 </sst>
 </file>
@@ -726,10 +741,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M191"/>
+  <dimension ref="A1:N193"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="K128" sqref="K128"/>
+    <sheetView tabSelected="1" topLeftCell="E127" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="J150" sqref="J150"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -744,6 +759,7 @@
     <col min="8" max="9" width="18.140625" customWidth="1"/>
     <col min="10" max="10" width="18.42578125" customWidth="1"/>
     <col min="11" max="12" width="18.28515625" customWidth="1"/>
+    <col min="14" max="14" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -3192,7 +3208,7 @@
     </row>
     <row r="129" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B129" t="s">
-        <v>78</v>
+        <v>18</v>
       </c>
       <c r="D129" t="s">
         <v>26</v>
@@ -3200,55 +3216,57 @@
       <c r="F129" t="s">
         <v>44</v>
       </c>
-      <c r="G129" s="1"/>
       <c r="H129" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D130" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F130" t="s">
         <v>44</v>
       </c>
+      <c r="G130" s="1"/>
       <c r="H130" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="I130" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="D131" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F131" t="s">
         <v>44</v>
       </c>
+      <c r="G131" s="1"/>
       <c r="H131" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="I131" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D132" t="s">
-        <v>80</v>
-      </c>
-      <c r="E132" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F132" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G132" s="6" t="s">
-        <v>82</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F132" t="s">
+        <v>44</v>
+      </c>
+      <c r="G132" s="1"/>
       <c r="H132" s="2" t="s">
         <v>29</v>
       </c>
@@ -3258,20 +3276,15 @@
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>110</v>
+        <v>121</v>
       </c>
       <c r="D133" t="s">
-        <v>80</v>
-      </c>
-      <c r="E133" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F133" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G133" s="6" t="s">
-        <v>82</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F133" t="s">
+        <v>44</v>
+      </c>
+      <c r="G133" s="1"/>
       <c r="H133" s="2" t="s">
         <v>29</v>
       </c>
@@ -3281,53 +3294,42 @@
     </row>
     <row r="134" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B134" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="D134" t="s">
-        <v>14</v>
-      </c>
-      <c r="E134" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F134">
-        <v>9999999999</v>
-      </c>
-      <c r="G134" s="1" t="s">
-        <v>15</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="F134" t="s">
+        <v>44</v>
+      </c>
+      <c r="G134" s="1"/>
       <c r="H134" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I134" t="s">
         <v>33</v>
-      </c>
-      <c r="J134" t="s">
-        <v>32</v>
-      </c>
-      <c r="K134" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="135" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B135" t="s">
-        <v>83</v>
+        <v>123</v>
       </c>
       <c r="D135" t="s">
-        <v>84</v>
+        <v>59</v>
       </c>
       <c r="F135" t="s">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="H135" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I135" s="3">
-        <v>0</v>
+        <v>29</v>
+      </c>
+      <c r="I135" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="136" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B136" t="s">
-        <v>111</v>
+        <v>79</v>
       </c>
       <c r="D136" t="s">
         <v>14</v>
@@ -3342,7 +3344,10 @@
         <v>15</v>
       </c>
       <c r="H136" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="I136" t="s">
+        <v>33</v>
       </c>
       <c r="J136" t="s">
         <v>32</v>
@@ -3353,7 +3358,7 @@
     </row>
     <row r="137" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B137" t="s">
-        <v>79</v>
+        <v>113</v>
       </c>
       <c r="D137" t="s">
         <v>14</v>
@@ -3368,7 +3373,10 @@
         <v>15</v>
       </c>
       <c r="H137" s="2" t="s">
-        <v>16</v>
+        <v>29</v>
+      </c>
+      <c r="I137" t="s">
+        <v>33</v>
       </c>
       <c r="J137" t="s">
         <v>32</v>
@@ -3379,90 +3387,96 @@
     </row>
     <row r="138" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B138" t="s">
-        <v>45</v>
+        <v>83</v>
       </c>
       <c r="D138" t="s">
-        <v>14</v>
-      </c>
-      <c r="E138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F138">
-        <v>9999999999</v>
-      </c>
-      <c r="G138" s="1" t="s">
-        <v>15</v>
+        <v>84</v>
+      </c>
+      <c r="F138" t="s">
+        <v>44</v>
       </c>
       <c r="H138" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J138" t="s">
-        <v>32</v>
-      </c>
-      <c r="K138" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="I138" s="3" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>112</v>
+        <v>45</v>
       </c>
       <c r="D139" t="s">
-        <v>25</v>
-      </c>
-      <c r="F139" t="s">
-        <v>44</v>
+        <v>14</v>
+      </c>
+      <c r="E139" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F139">
+        <v>9999999999</v>
+      </c>
+      <c r="G139" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H139" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>32</v>
+      </c>
+      <c r="K139" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>113</v>
+        <v>20</v>
       </c>
       <c r="D140" t="s">
-        <v>80</v>
-      </c>
-      <c r="E140" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F140" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G140" s="6" t="s">
-        <v>82</v>
+        <v>103</v>
+      </c>
+      <c r="F140" t="s">
+        <v>28</v>
       </c>
       <c r="H140" s="2" t="s">
         <v>16</v>
+      </c>
+      <c r="I140" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D141" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F141" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G141" s="6" t="s">
-        <v>82</v>
+        <v>16</v>
+      </c>
+      <c r="F141">
+        <v>9999999999</v>
+      </c>
+      <c r="G141" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H141" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I141" t="s">
         <v>33</v>
+      </c>
+      <c r="J141" t="s">
+        <v>32</v>
+      </c>
+      <c r="K141" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D142" t="s">
         <v>14</v>
@@ -3477,47 +3491,44 @@
         <v>15</v>
       </c>
       <c r="H142" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J142" t="s">
-        <v>32</v>
-      </c>
-      <c r="K142" t="s">
-        <v>98</v>
+        <v>29</v>
+      </c>
+      <c r="I142" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>20</v>
+        <v>112</v>
       </c>
       <c r="D143" t="s">
-        <v>103</v>
-      </c>
-      <c r="F143" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="E143" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F143">
+        <v>9999999999</v>
+      </c>
+      <c r="G143" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H143" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I143" s="3" t="s">
-        <v>104</v>
+        <v>29</v>
+      </c>
+      <c r="I143" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="D144" t="s">
-        <v>14</v>
-      </c>
-      <c r="E144" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F144">
-        <v>9999999999</v>
-      </c>
-      <c r="G144" s="1" t="s">
-        <v>15</v>
+        <v>59</v>
+      </c>
+      <c r="F144" t="s">
+        <v>60</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>29</v>
@@ -3525,51 +3536,51 @@
       <c r="I144" t="s">
         <v>33</v>
       </c>
-      <c r="J144" t="s">
-        <v>32</v>
-      </c>
-      <c r="K144" t="s">
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B145" t="s">
+        <v>110</v>
+      </c>
+      <c r="D145" t="s">
+        <v>14</v>
+      </c>
+      <c r="E145" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F145">
+        <v>9999999999</v>
+      </c>
+      <c r="G145" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I145" t="s">
+        <v>33</v>
+      </c>
+      <c r="J145" t="s">
+        <v>32</v>
+      </c>
+      <c r="K145" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B145" t="s">
-        <v>118</v>
-      </c>
-      <c r="D145" t="s">
-        <v>14</v>
-      </c>
-      <c r="E145" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F145">
-        <v>9999999999</v>
-      </c>
-      <c r="G145" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H145" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I145" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D146" t="s">
-        <v>14</v>
+        <v>80</v>
       </c>
       <c r="E146" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="F146">
-        <v>9999999999</v>
-      </c>
-      <c r="G146" s="1" t="s">
-        <v>15</v>
+      <c r="F146" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G146" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>29</v>
@@ -3578,21 +3589,15 @@
         <v>33</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D147" t="s">
-        <v>14</v>
-      </c>
-      <c r="E147" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F147">
-        <v>9999999999</v>
-      </c>
-      <c r="G147" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="F147" t="s">
+        <v>44</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>29</v>
@@ -3601,15 +3606,21 @@
         <v>33</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="D148" t="s">
-        <v>59</v>
-      </c>
-      <c r="F148" t="s">
-        <v>60</v>
+        <v>14</v>
+      </c>
+      <c r="E148" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F148">
+        <v>9999999999</v>
+      </c>
+      <c r="G148" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H148" s="2" t="s">
         <v>29</v>
@@ -3617,224 +3628,242 @@
       <c r="I148" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J148" t="s">
+        <v>32</v>
+      </c>
+      <c r="K148" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
+        <v>108</v>
+      </c>
+      <c r="D149" t="s">
+        <v>80</v>
+      </c>
+      <c r="E149" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G149" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="H149" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I149" t="s">
+        <v>33</v>
+      </c>
+      <c r="N149">
+        <v>416416165</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B150" t="s">
+        <v>126</v>
+      </c>
+      <c r="D150" t="s">
+        <v>25</v>
+      </c>
+      <c r="F150" t="s">
+        <v>44</v>
+      </c>
+      <c r="H150" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I150" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B151" t="s">
         <v>21</v>
       </c>
-      <c r="D149" t="s">
-        <v>14</v>
-      </c>
-      <c r="E149" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F149">
-        <v>9999999999</v>
-      </c>
-      <c r="G149" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H149" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I149" t="s">
-        <v>33</v>
-      </c>
-      <c r="J149" t="s">
-        <v>32</v>
-      </c>
-      <c r="K149" t="s">
+      <c r="D151" t="s">
+        <v>14</v>
+      </c>
+      <c r="E151" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F151">
+        <v>9999999999</v>
+      </c>
+      <c r="G151" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I151" t="s">
+        <v>33</v>
+      </c>
+      <c r="J151" t="s">
+        <v>32</v>
+      </c>
+      <c r="K151" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B150" t="s">
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B152" t="s">
         <v>22</v>
       </c>
-      <c r="D150" t="s">
-        <v>14</v>
-      </c>
-      <c r="E150" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F150">
-        <v>9999999999</v>
-      </c>
-      <c r="G150" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H150" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I150" t="s">
-        <v>33</v>
-      </c>
-      <c r="J150" t="s">
-        <v>32</v>
-      </c>
-      <c r="K150" t="s">
+      <c r="D152" t="s">
+        <v>14</v>
+      </c>
+      <c r="E152" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F152">
+        <v>9999999999</v>
+      </c>
+      <c r="G152" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I152" t="s">
+        <v>33</v>
+      </c>
+      <c r="J152" t="s">
+        <v>32</v>
+      </c>
+      <c r="K152" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B151" t="s">
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B153" t="s">
         <v>23</v>
       </c>
-      <c r="D151" t="s">
+      <c r="D153" t="s">
         <v>27</v>
       </c>
-      <c r="F151" t="s">
+      <c r="F153" t="s">
         <v>30</v>
       </c>
-      <c r="H151" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I151" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B152" t="s">
+      <c r="H153" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I153" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B154" t="s">
         <v>24</v>
       </c>
-      <c r="D152" t="s">
+      <c r="D154" t="s">
         <v>27</v>
       </c>
-      <c r="F152" t="s">
+      <c r="F154" t="s">
         <v>30</v>
       </c>
-      <c r="H152" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I152" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A154" t="s">
+      <c r="H154" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I154" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>61</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B156" t="s">
         <v>13</v>
       </c>
-      <c r="D154" t="s">
-        <v>14</v>
-      </c>
-      <c r="E154" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F154">
-        <v>9999999999</v>
-      </c>
-      <c r="G154" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H154" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="J154" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B155" t="s">
-        <v>18</v>
-      </c>
-      <c r="D155" t="s">
-        <v>26</v>
-      </c>
-      <c r="F155" t="s">
-        <v>44</v>
-      </c>
-      <c r="H155" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B156" t="s">
-        <v>55</v>
-      </c>
       <c r="D156" t="s">
-        <v>67</v>
-      </c>
-      <c r="F156" t="s">
-        <v>28</v>
+        <v>14</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F156">
+        <v>9999999999</v>
+      </c>
+      <c r="G156" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H156" s="2" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J156" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B157" t="s">
+        <v>18</v>
+      </c>
+      <c r="D157" t="s">
+        <v>26</v>
+      </c>
+      <c r="F157" t="s">
+        <v>44</v>
+      </c>
+      <c r="H157" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="158" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B158" t="s">
+        <v>55</v>
+      </c>
+      <c r="D158" t="s">
+        <v>67</v>
+      </c>
+      <c r="F158" t="s">
+        <v>28</v>
+      </c>
+      <c r="H158" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="159" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B159" t="s">
         <v>91</v>
       </c>
-      <c r="D157" t="s">
+      <c r="D159" t="s">
         <v>93</v>
       </c>
-      <c r="F157" t="s">
+      <c r="F159" t="s">
         <v>28</v>
       </c>
-      <c r="H157" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B158" t="s">
+      <c r="H159" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="160" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B160" t="s">
         <v>90</v>
       </c>
-      <c r="D158" t="s">
+      <c r="D160" t="s">
         <v>25</v>
       </c>
-      <c r="F158" t="s">
-        <v>44</v>
-      </c>
-      <c r="H158" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J158" t="s">
-        <v>32</v>
-      </c>
-      <c r="K158" t="s">
+      <c r="F160" t="s">
+        <v>44</v>
+      </c>
+      <c r="H160" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>32</v>
+      </c>
+      <c r="K160" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B159" t="s">
+    <row r="161" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B161" t="s">
         <v>88</v>
       </c>
-      <c r="D159" t="s">
+      <c r="D161" t="s">
         <v>25</v>
-      </c>
-      <c r="F159" t="s">
-        <v>44</v>
-      </c>
-      <c r="H159" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B160" t="s">
-        <v>89</v>
-      </c>
-      <c r="D160" t="s">
-        <v>92</v>
-      </c>
-      <c r="F160" t="s">
-        <v>44</v>
-      </c>
-      <c r="H160" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I160" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B161" t="s">
-        <v>36</v>
-      </c>
-      <c r="D161" t="s">
-        <v>42</v>
       </c>
       <c r="F161" t="s">
         <v>44</v>
@@ -3843,343 +3872,346 @@
         <v>94</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B162" t="s">
+        <v>89</v>
+      </c>
+      <c r="D162" t="s">
+        <v>92</v>
+      </c>
+      <c r="F162" t="s">
+        <v>44</v>
+      </c>
+      <c r="H162" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I162" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="163" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>36</v>
+      </c>
+      <c r="D163" t="s">
+        <v>42</v>
+      </c>
+      <c r="F163" t="s">
+        <v>44</v>
+      </c>
+      <c r="H163" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="164" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
         <v>37</v>
       </c>
-      <c r="D162" t="s">
+      <c r="D164" t="s">
         <v>26</v>
       </c>
-      <c r="F162" t="s">
-        <v>44</v>
-      </c>
-      <c r="H162" s="2" t="s">
+      <c r="F164" t="s">
+        <v>44</v>
+      </c>
+      <c r="H164" s="2" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B163" t="s">
+    <row r="165" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B165" t="s">
         <v>50</v>
       </c>
-      <c r="D163" t="s">
-        <v>14</v>
-      </c>
-      <c r="E163" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F163">
-        <v>9999999999</v>
-      </c>
-      <c r="G163" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H163" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I163" t="s">
-        <v>33</v>
-      </c>
-      <c r="J163" t="s">
-        <v>32</v>
-      </c>
-      <c r="K163" t="s">
+      <c r="D165" t="s">
+        <v>14</v>
+      </c>
+      <c r="E165" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F165">
+        <v>9999999999</v>
+      </c>
+      <c r="G165" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I165" t="s">
+        <v>33</v>
+      </c>
+      <c r="J165" t="s">
+        <v>32</v>
+      </c>
+      <c r="K165" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B164" t="s">
+    <row r="166" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B166" t="s">
         <v>51</v>
       </c>
-      <c r="D164" t="s">
-        <v>14</v>
-      </c>
-      <c r="E164" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F164">
-        <v>9999999999</v>
-      </c>
-      <c r="G164" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H164" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I164" t="s">
-        <v>33</v>
-      </c>
-      <c r="J164" t="s">
-        <v>32</v>
-      </c>
-      <c r="K164" t="s">
+      <c r="D166" t="s">
+        <v>14</v>
+      </c>
+      <c r="E166" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F166">
+        <v>9999999999</v>
+      </c>
+      <c r="G166" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I166" t="s">
+        <v>33</v>
+      </c>
+      <c r="J166" t="s">
+        <v>32</v>
+      </c>
+      <c r="K166" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B165" t="s">
+    <row r="167" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B167" t="s">
         <v>39</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D167" t="s">
         <v>42</v>
       </c>
-      <c r="F165" t="s">
-        <v>44</v>
-      </c>
-      <c r="H165" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I165" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B166" t="s">
+      <c r="F167" t="s">
+        <v>44</v>
+      </c>
+      <c r="H167" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I167" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="168" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B168" t="s">
         <v>40</v>
       </c>
-      <c r="D166" t="s">
+      <c r="D168" t="s">
         <v>42</v>
       </c>
-      <c r="F166" t="s">
-        <v>44</v>
-      </c>
-      <c r="H166" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I166" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B167" t="s">
+      <c r="F168" t="s">
+        <v>44</v>
+      </c>
+      <c r="H168" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I168" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="169" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B169" t="s">
         <v>38</v>
       </c>
-      <c r="D167" t="s">
+      <c r="D169" t="s">
         <v>25</v>
       </c>
-      <c r="F167" t="s">
-        <v>44</v>
-      </c>
-      <c r="H167" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I167" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B168" t="s">
+      <c r="F169" t="s">
+        <v>44</v>
+      </c>
+      <c r="H169" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I169" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="170" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B170" t="s">
         <v>41</v>
       </c>
-      <c r="D168" t="s">
+      <c r="D170" t="s">
         <v>25</v>
       </c>
-      <c r="F168" t="s">
-        <v>44</v>
-      </c>
-      <c r="H168" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I168" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B169" t="s">
+      <c r="F170" t="s">
+        <v>44</v>
+      </c>
+      <c r="H170" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I170" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="171" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B171" t="s">
         <v>20</v>
       </c>
-      <c r="D169" t="s">
+      <c r="D171" t="s">
         <v>103</v>
       </c>
-      <c r="F169" t="s">
+      <c r="F171" t="s">
         <v>28</v>
       </c>
-      <c r="H169" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I169" s="3" t="s">
+      <c r="H171" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I171" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B170" t="s">
+    <row r="172" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B172" t="s">
         <v>21</v>
       </c>
-      <c r="D170" t="s">
-        <v>14</v>
-      </c>
-      <c r="E170" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F170">
-        <v>9999999999</v>
-      </c>
-      <c r="G170" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H170" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I170" t="s">
-        <v>33</v>
-      </c>
-      <c r="J170" t="s">
-        <v>32</v>
-      </c>
-      <c r="K170" t="s">
+      <c r="D172" t="s">
+        <v>14</v>
+      </c>
+      <c r="E172" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F172">
+        <v>9999999999</v>
+      </c>
+      <c r="G172" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I172" t="s">
+        <v>33</v>
+      </c>
+      <c r="J172" t="s">
+        <v>32</v>
+      </c>
+      <c r="K172" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B171" t="s">
+    <row r="173" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B173" t="s">
         <v>22</v>
       </c>
-      <c r="D171" t="s">
-        <v>14</v>
-      </c>
-      <c r="E171" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F171">
-        <v>9999999999</v>
-      </c>
-      <c r="G171" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H171" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I171" t="s">
-        <v>33</v>
-      </c>
-      <c r="J171" t="s">
-        <v>32</v>
-      </c>
-      <c r="K171" t="s">
+      <c r="D173" t="s">
+        <v>14</v>
+      </c>
+      <c r="E173" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F173">
+        <v>9999999999</v>
+      </c>
+      <c r="G173" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H173" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I173" t="s">
+        <v>33</v>
+      </c>
+      <c r="J173" t="s">
+        <v>32</v>
+      </c>
+      <c r="K173" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B172" t="s">
+    <row r="174" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B174" t="s">
         <v>23</v>
       </c>
-      <c r="D172" t="s">
+      <c r="D174" t="s">
         <v>27</v>
       </c>
-      <c r="F172" t="s">
+      <c r="F174" t="s">
         <v>30</v>
       </c>
-      <c r="H172" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I172" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B173" t="s">
+      <c r="H174" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I174" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="175" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B175" t="s">
         <v>24</v>
       </c>
-      <c r="D173" t="s">
+      <c r="D175" t="s">
         <v>27</v>
       </c>
-      <c r="F173" t="s">
+      <c r="F175" t="s">
         <v>30</v>
       </c>
-      <c r="H173" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I173" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A175" t="s">
+      <c r="H175" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I175" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
         <v>95</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B177" t="s">
         <v>13</v>
       </c>
-      <c r="D175" t="s">
-        <v>14</v>
-      </c>
-      <c r="E175" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F175">
-        <v>9999999999</v>
-      </c>
-      <c r="G175" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H175" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J175" t="s">
+      <c r="D177" t="s">
+        <v>14</v>
+      </c>
+      <c r="E177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F177">
+        <v>9999999999</v>
+      </c>
+      <c r="G177" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H177" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J177" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B176" t="s">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B178" t="s">
         <v>63</v>
       </c>
-      <c r="D176" t="s">
+      <c r="D178" t="s">
         <v>42</v>
       </c>
-      <c r="F176" t="s">
-        <v>44</v>
-      </c>
-      <c r="H176" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="177" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B177" t="s">
+      <c r="F178" t="s">
+        <v>44</v>
+      </c>
+      <c r="H178" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B179" t="s">
         <v>64</v>
       </c>
-      <c r="D177" t="s">
+      <c r="D179" t="s">
         <v>42</v>
       </c>
-      <c r="F177" t="s">
-        <v>44</v>
-      </c>
-      <c r="H177" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="178" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B178" t="s">
+      <c r="F179" t="s">
+        <v>44</v>
+      </c>
+      <c r="H179" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B180" t="s">
         <v>36</v>
       </c>
-      <c r="D178" t="s">
+      <c r="D180" t="s">
         <v>25</v>
-      </c>
-      <c r="F178" t="s">
-        <v>44</v>
-      </c>
-      <c r="H178" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="179" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B179" t="s">
-        <v>37</v>
-      </c>
-      <c r="D179" t="s">
-        <v>26</v>
-      </c>
-      <c r="F179" t="s">
-        <v>44</v>
-      </c>
-      <c r="H179" s="2" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="180" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B180" t="s">
-        <v>96</v>
-      </c>
-      <c r="D180" t="s">
-        <v>26</v>
       </c>
       <c r="F180" t="s">
         <v>44</v>
@@ -4188,238 +4220,266 @@
         <v>94</v>
       </c>
     </row>
-    <row r="181" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B181" t="s">
+        <v>37</v>
+      </c>
+      <c r="D181" t="s">
+        <v>26</v>
+      </c>
+      <c r="F181" t="s">
+        <v>44</v>
+      </c>
+      <c r="H181" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B182" t="s">
+        <v>96</v>
+      </c>
+      <c r="D182" t="s">
+        <v>26</v>
+      </c>
+      <c r="F182" t="s">
+        <v>44</v>
+      </c>
+      <c r="H182" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B183" t="s">
         <v>50</v>
       </c>
-      <c r="D181" t="s">
-        <v>14</v>
-      </c>
-      <c r="E181" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F181">
-        <v>9999999999</v>
-      </c>
-      <c r="G181" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H181" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I181" t="s">
-        <v>33</v>
-      </c>
-      <c r="J181" t="s">
-        <v>32</v>
-      </c>
-      <c r="K181" t="s">
+      <c r="D183" t="s">
+        <v>14</v>
+      </c>
+      <c r="E183" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F183">
+        <v>9999999999</v>
+      </c>
+      <c r="G183" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H183" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I183" t="s">
+        <v>33</v>
+      </c>
+      <c r="J183" t="s">
+        <v>32</v>
+      </c>
+      <c r="K183" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="182" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B182" t="s">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B184" t="s">
         <v>51</v>
       </c>
-      <c r="D182" t="s">
-        <v>14</v>
-      </c>
-      <c r="E182" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F182">
-        <v>9999999999</v>
-      </c>
-      <c r="G182" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H182" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I182" t="s">
-        <v>33</v>
-      </c>
-      <c r="J182" t="s">
-        <v>32</v>
-      </c>
-      <c r="K182" t="s">
+      <c r="D184" t="s">
+        <v>14</v>
+      </c>
+      <c r="E184" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F184">
+        <v>9999999999</v>
+      </c>
+      <c r="G184" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I184" t="s">
+        <v>33</v>
+      </c>
+      <c r="J184" t="s">
+        <v>32</v>
+      </c>
+      <c r="K184" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="183" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B183" t="s">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B185" t="s">
         <v>39</v>
       </c>
-      <c r="D183" t="s">
+      <c r="D185" t="s">
         <v>42</v>
       </c>
-      <c r="F183" t="s">
-        <v>44</v>
-      </c>
-      <c r="H183" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I183" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="184" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B184" t="s">
+      <c r="F185" t="s">
+        <v>44</v>
+      </c>
+      <c r="H185" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I185" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B186" t="s">
         <v>40</v>
       </c>
-      <c r="D184" t="s">
+      <c r="D186" t="s">
         <v>42</v>
       </c>
-      <c r="F184" t="s">
-        <v>44</v>
-      </c>
-      <c r="H184" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I184" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="185" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B185" t="s">
+      <c r="F186" t="s">
+        <v>44</v>
+      </c>
+      <c r="H186" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I186" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B187" t="s">
         <v>38</v>
       </c>
-      <c r="D185" t="s">
+      <c r="D187" t="s">
         <v>25</v>
       </c>
-      <c r="F185" t="s">
-        <v>44</v>
-      </c>
-      <c r="H185" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I185" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="186" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B186" t="s">
+      <c r="F187" t="s">
+        <v>44</v>
+      </c>
+      <c r="H187" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I187" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B188" t="s">
         <v>41</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D188" t="s">
         <v>25</v>
       </c>
-      <c r="F186" t="s">
-        <v>44</v>
-      </c>
-      <c r="H186" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I186" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="187" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B187" t="s">
+      <c r="F188" t="s">
+        <v>44</v>
+      </c>
+      <c r="H188" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I188" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B189" t="s">
         <v>20</v>
       </c>
-      <c r="D187" t="s">
+      <c r="D189" t="s">
         <v>103</v>
       </c>
-      <c r="F187" t="s">
+      <c r="F189" t="s">
         <v>28</v>
       </c>
-      <c r="H187" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I187" s="3" t="s">
+      <c r="H189" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I189" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="188" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B188" t="s">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B190" t="s">
         <v>21</v>
       </c>
-      <c r="D188" t="s">
-        <v>14</v>
-      </c>
-      <c r="E188" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F188">
-        <v>9999999999</v>
-      </c>
-      <c r="G188" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H188" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I188" t="s">
-        <v>33</v>
-      </c>
-      <c r="J188" t="s">
-        <v>32</v>
-      </c>
-      <c r="K188" t="s">
+      <c r="D190" t="s">
+        <v>14</v>
+      </c>
+      <c r="E190" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F190">
+        <v>9999999999</v>
+      </c>
+      <c r="G190" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H190" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I190" t="s">
+        <v>33</v>
+      </c>
+      <c r="J190" t="s">
+        <v>32</v>
+      </c>
+      <c r="K190" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="189" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B189" t="s">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B191" t="s">
         <v>22</v>
       </c>
-      <c r="D189" t="s">
-        <v>14</v>
-      </c>
-      <c r="E189" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F189">
-        <v>9999999999</v>
-      </c>
-      <c r="G189" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H189" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I189" t="s">
-        <v>33</v>
-      </c>
-      <c r="J189" t="s">
-        <v>32</v>
-      </c>
-      <c r="K189" t="s">
+      <c r="D191" t="s">
+        <v>14</v>
+      </c>
+      <c r="E191" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F191">
+        <v>9999999999</v>
+      </c>
+      <c r="G191" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H191" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I191" t="s">
+        <v>33</v>
+      </c>
+      <c r="J191" t="s">
+        <v>32</v>
+      </c>
+      <c r="K191" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="190" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B190" t="s">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B192" t="s">
         <v>23</v>
       </c>
-      <c r="D190" t="s">
+      <c r="D192" t="s">
         <v>27</v>
       </c>
-      <c r="F190" t="s">
+      <c r="F192" t="s">
         <v>30</v>
       </c>
-      <c r="H190" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I190" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="191" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B191" t="s">
+      <c r="H192" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I192" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193" t="s">
         <v>24</v>
       </c>
-      <c r="D191" t="s">
+      <c r="D193" t="s">
         <v>27</v>
       </c>
-      <c r="F191" t="s">
+      <c r="F193" t="s">
         <v>30</v>
       </c>
-      <c r="H191" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I191" t="s">
+      <c r="H193" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I193" t="s">
         <v>33</v>
       </c>
     </row>
@@ -4431,10 +4491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M22"/>
+  <dimension ref="A1:M24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N23" sqref="N23"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4514,193 +4574,187 @@
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
-        <v>18</v>
+        <v>116</v>
       </c>
       <c r="D4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E4" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4">
+        <v>9999999999</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>19</v>
+        <v>117</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" t="s">
-        <v>43</v>
+        <v>14</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5">
+        <v>9999999999</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" t="s">
-        <v>33</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D6" t="s">
-        <v>103</v>
+        <v>26</v>
       </c>
       <c r="E6" s="2"/>
-      <c r="F6" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="2" t="s">
         <v>16</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7">
-        <v>9999999999</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" t="s">
+        <v>43</v>
       </c>
       <c r="H7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I7" t="s">
         <v>33</v>
-      </c>
-      <c r="J7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K7" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8">
-        <v>9999999999</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>15</v>
+        <v>103</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" t="s">
+        <v>28</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>32</v>
-      </c>
-      <c r="K8" t="s">
-        <v>61</v>
+        <v>16</v>
+      </c>
+      <c r="I8" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D9" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9">
+        <v>9999999999</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H9" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I9" t="s">
         <v>33</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F10">
+        <v>9999999999</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I10" t="s">
+        <v>33</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="H11" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D12" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="2"/>
-      <c r="H10" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I10" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+      <c r="E12" s="2"/>
+      <c r="H12" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I12" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>98</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B14" t="s">
         <v>13</v>
       </c>
-      <c r="D12" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12">
-        <v>9999999999</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H12" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F13">
-        <v>9999999999</v>
-      </c>
-      <c r="G13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H13" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J13" t="s">
-        <v>32</v>
-      </c>
-      <c r="K13" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>101</v>
-      </c>
       <c r="D14" t="s">
         <v>14</v>
       </c>
@@ -4714,169 +4768,215 @@
         <v>15</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I14" t="s">
-        <v>33</v>
-      </c>
-      <c r="J14" t="s">
-        <v>32</v>
-      </c>
-      <c r="K14" t="s">
-        <v>98</v>
-      </c>
-      <c r="L14" t="s">
-        <v>105</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>78</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>99</v>
-      </c>
-      <c r="E15" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15">
+        <v>9999999999</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>15</v>
+      </c>
       <c r="H15" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L15" t="s">
-        <v>102</v>
+      <c r="J15" t="s">
+        <v>32</v>
+      </c>
+      <c r="K15" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16">
+        <v>9999999999</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I16" t="s">
+        <v>33</v>
+      </c>
+      <c r="J16" t="s">
+        <v>32</v>
+      </c>
+      <c r="K16" t="s">
+        <v>98</v>
+      </c>
+      <c r="L16" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" t="s">
+        <v>78</v>
+      </c>
+      <c r="D17" t="s">
+        <v>99</v>
+      </c>
+      <c r="E17" s="2"/>
+      <c r="H17" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L17" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" t="s">
         <v>18</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D18" t="s">
         <v>26</v>
       </c>
-      <c r="E16" s="2"/>
-      <c r="H16" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="E18" s="2"/>
+      <c r="H18" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>19</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D19" t="s">
         <v>25</v>
       </c>
-      <c r="E17" s="2"/>
-      <c r="F17" t="s">
+      <c r="E19" s="2"/>
+      <c r="F19" t="s">
         <v>43</v>
       </c>
-      <c r="H17" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I17" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="H19" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I19" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
         <v>20</v>
       </c>
-      <c r="D18" t="s">
+      <c r="D20" t="s">
         <v>103</v>
       </c>
-      <c r="E18" s="2"/>
-      <c r="F18" t="s">
+      <c r="E20" s="2"/>
+      <c r="F20" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="H20" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="3" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
         <v>21</v>
       </c>
-      <c r="D19" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F19">
-        <v>9999999999</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s">
-        <v>33</v>
-      </c>
-      <c r="J19" t="s">
-        <v>32</v>
-      </c>
-      <c r="K19" t="s">
+      <c r="D21" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21">
+        <v>9999999999</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H21" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I21" t="s">
+        <v>33</v>
+      </c>
+      <c r="J21" t="s">
+        <v>32</v>
+      </c>
+      <c r="K21" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>22</v>
       </c>
-      <c r="D20" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F20">
-        <v>9999999999</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I20" t="s">
-        <v>33</v>
-      </c>
-      <c r="J20" t="s">
-        <v>32</v>
-      </c>
-      <c r="K20" t="s">
+      <c r="D22" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F22">
+        <v>9999999999</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H22" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I22" t="s">
+        <v>33</v>
+      </c>
+      <c r="J22" t="s">
+        <v>32</v>
+      </c>
+      <c r="K22" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>23</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D23" t="s">
         <v>27</v>
       </c>
-      <c r="E21" s="2"/>
-      <c r="H21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I21" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="E23" s="2"/>
+      <c r="H23" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I23" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
         <v>24</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D24" t="s">
         <v>27</v>
       </c>
-      <c r="E22" s="2"/>
-      <c r="H22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I22" t="s">
+      <c r="E24" s="2"/>
+      <c r="H24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I24" t="s">
         <v>33</v>
       </c>
     </row>

--- a/IMI Data Dictionary.xlsx
+++ b/IMI Data Dictionary.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1178" uniqueCount="128">
   <si>
     <t>Table Name</t>
   </si>
@@ -399,13 +399,16 @@
     <t>expire_date</t>
   </si>
   <si>
-    <t>sale_description</t>
-  </si>
-  <si>
     <t>expense_account_id</t>
   </si>
   <si>
-    <t>purchare_description</t>
+    <t>purchare_information</t>
+  </si>
+  <si>
+    <t>sale_infomation</t>
+  </si>
+  <si>
+    <t>integer(11)</t>
   </si>
 </sst>
 </file>
@@ -743,8 +746,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N193"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E127" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="J150" sqref="J150"/>
+    <sheetView tabSelected="1" topLeftCell="A105" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E128" sqref="E128"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3185,7 +3188,7 @@
         <v>107</v>
       </c>
       <c r="D128" t="s">
-        <v>14</v>
+        <v>127</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>16</v>
@@ -3222,10 +3225,10 @@
     </row>
     <row r="130" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B130" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="D130" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F130" t="s">
         <v>44</v>
@@ -3240,10 +3243,10 @@
     </row>
     <row r="131" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B131" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D131" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F131" t="s">
         <v>44</v>
@@ -3258,7 +3261,7 @@
     </row>
     <row r="132" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B132" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="D132" t="s">
         <v>26</v>
@@ -3276,7 +3279,7 @@
     </row>
     <row r="133" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B133" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D133" t="s">
         <v>26</v>
@@ -3404,7 +3407,7 @@
     </row>
     <row r="139" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B139" t="s">
-        <v>45</v>
+        <v>112</v>
       </c>
       <c r="D139" t="s">
         <v>14</v>
@@ -3419,35 +3422,32 @@
         <v>15</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J139" t="s">
-        <v>32</v>
-      </c>
-      <c r="K139" t="s">
-        <v>95</v>
+        <v>29</v>
+      </c>
+      <c r="I139" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="140" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B140" t="s">
-        <v>20</v>
+        <v>115</v>
       </c>
       <c r="D140" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="F140" t="s">
-        <v>28</v>
+        <v>60</v>
       </c>
       <c r="H140" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="I140" s="3" t="s">
-        <v>104</v>
+        <v>29</v>
+      </c>
+      <c r="I140" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="141" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B141" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="D141" t="s">
         <v>14</v>
@@ -3466,17 +3466,11 @@
       </c>
       <c r="I141" t="s">
         <v>33</v>
-      </c>
-      <c r="J141" t="s">
-        <v>32</v>
-      </c>
-      <c r="K141" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="142" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B142" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="D142" t="s">
         <v>14</v>
@@ -3495,23 +3489,23 @@
       </c>
       <c r="I142" t="s">
         <v>33</v>
+      </c>
+      <c r="J142" t="s">
+        <v>32</v>
+      </c>
+      <c r="K142" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="143" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B143" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="D143" t="s">
-        <v>14</v>
-      </c>
-      <c r="E143" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F143">
-        <v>9999999999</v>
-      </c>
-      <c r="G143" s="1" t="s">
-        <v>15</v>
+        <v>25</v>
+      </c>
+      <c r="F143" t="s">
+        <v>44</v>
       </c>
       <c r="H143" s="2" t="s">
         <v>29</v>
@@ -3522,13 +3516,19 @@
     </row>
     <row r="144" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B144" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="D144" t="s">
-        <v>59</v>
-      </c>
-      <c r="F144" t="s">
-        <v>60</v>
+        <v>80</v>
+      </c>
+      <c r="E144" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G144" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="H144" s="2" t="s">
         <v>29</v>
@@ -3568,19 +3568,13 @@
     </row>
     <row r="146" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B146" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="D146" t="s">
-        <v>80</v>
-      </c>
-      <c r="E146" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F146" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G146" s="6" t="s">
-        <v>82</v>
+        <v>25</v>
+      </c>
+      <c r="F146" t="s">
+        <v>44</v>
       </c>
       <c r="H146" s="2" t="s">
         <v>29</v>
@@ -3591,24 +3585,33 @@
     </row>
     <row r="147" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B147" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="D147" t="s">
-        <v>25</v>
-      </c>
-      <c r="F147" t="s">
-        <v>44</v>
+        <v>80</v>
+      </c>
+      <c r="E147" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="G147" s="6" t="s">
+        <v>82</v>
       </c>
       <c r="H147" s="2" t="s">
         <v>29</v>
       </c>
       <c r="I147" t="s">
         <v>33</v>
+      </c>
+      <c r="N147">
+        <v>416416165</v>
       </c>
     </row>
     <row r="148" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B148" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D148" t="s">
         <v>14</v>
@@ -3637,45 +3640,45 @@
     </row>
     <row r="149" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B149" t="s">
-        <v>108</v>
+        <v>45</v>
       </c>
       <c r="D149" t="s">
-        <v>80</v>
+        <v>14</v>
       </c>
       <c r="E149" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F149" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="G149" s="6" t="s">
-        <v>82</v>
+        <v>16</v>
+      </c>
+      <c r="F149">
+        <v>9999999999</v>
+      </c>
+      <c r="G149" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I149" t="s">
-        <v>33</v>
-      </c>
-      <c r="N149">
-        <v>416416165</v>
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>32</v>
+      </c>
+      <c r="K149" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="150" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B150" t="s">
-        <v>126</v>
+        <v>20</v>
       </c>
       <c r="D150" t="s">
-        <v>25</v>
+        <v>103</v>
       </c>
       <c r="F150" t="s">
-        <v>44</v>
+        <v>28</v>
       </c>
       <c r="H150" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I150" t="s">
-        <v>33</v>
+        <v>16</v>
+      </c>
+      <c r="I150" s="3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="151" spans="1:14" x14ac:dyDescent="0.25">
